--- a/Mapa Transaccional - Gemma.xlsx
+++ b/Mapa Transaccional - Gemma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inovabiz\Documents\Global - Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220A0E46-85AF-4C5E-B2B3-1E2A99AEFA46}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273B4EB-BA30-4457-A444-39F53AB126C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="385">
   <si>
     <t>Inicio</t>
   </si>
@@ -777,15 +777,6 @@
     <t>Si ó No</t>
   </si>
   <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Dependiente</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
     <t>Los 3 mas utilizados</t>
   </si>
   <si>
@@ -1365,6 +1356,243 @@
   </si>
   <si>
     <t>Generar Leasing</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Aval</t>
+  </si>
+  <si>
+    <t>Check list</t>
+  </si>
+  <si>
+    <t>Valor no modificable</t>
+  </si>
+  <si>
+    <t>Indepediente
+Dependiente
+Empresa</t>
+  </si>
+  <si>
+    <t>Deducible</t>
+  </si>
+  <si>
+    <t>Primer Anual Neta</t>
+  </si>
+  <si>
+    <t>Nuevo - Valor por defecto no modificable</t>
+  </si>
+  <si>
+    <t>PAC - Valor por defecto no modificable</t>
+  </si>
+  <si>
+    <t>De acuerdo a los dos valores anteriores</t>
+  </si>
+  <si>
+    <t>Si
+No</t>
+  </si>
+  <si>
+    <t>En este caso para el tipo de crédito leasing, es obligatorio que el cliente tenga activo el GPS, por lo tanto estaría por defecto</t>
+  </si>
+  <si>
+    <t>Precio con IVA</t>
+  </si>
+  <si>
+    <t>Precio Neto</t>
+  </si>
+  <si>
+    <t>Cuota Contado Neta</t>
+  </si>
+  <si>
+    <t>% Pie</t>
+  </si>
+  <si>
+    <t>Gastos Operacionales</t>
+  </si>
+  <si>
+    <t>Valor total del vehículo</t>
+  </si>
+  <si>
+    <t>Mínimo 20% del monto total</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>Leasing 
+Leasing Inteligente</t>
+  </si>
+  <si>
+    <t>Leasing 
+Leasing Platinum</t>
+  </si>
+  <si>
+    <t>Leasing Inteligente</t>
+  </si>
+  <si>
+    <t>Leasing Convencional</t>
+  </si>
+  <si>
+    <t>24
+36</t>
+  </si>
+  <si>
+    <t>18
+24
+36
+48</t>
+  </si>
+  <si>
+    <t>BCI Especial - Valor por defecto modificable</t>
+  </si>
+  <si>
+    <t>Seleccionar BCI ESPECIAL - Verificar los calculos y valores en el ppt leasing</t>
+  </si>
+  <si>
+    <t>Valor colocado según diapositiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcular los datos mediante un formato en excel, de acuerdo al monto total </t>
+  </si>
+  <si>
+    <t>Valor del UF, se actualiza al calcular el mismo en el formato excel</t>
+  </si>
+  <si>
+    <t>Calcular el valor de las cuotas mediante el icono de calculo, ubicado de lado derecho</t>
+  </si>
+  <si>
+    <t>Peajes</t>
+  </si>
+  <si>
+    <t>montos</t>
+  </si>
+  <si>
+    <t>Montos calculados por el sistema de acuerdo al tipo de Leasing solicitado.</t>
+  </si>
+  <si>
+    <t>Comisión LeasingCI 1-2
+Comisión Leasing 1-4
+Comisión EjecutivoCI 1-2
+Comisión Ejecutivo 1-4
+Comisión VendedorCI 1-2
+Comisión Vendedor 1-4</t>
+  </si>
+  <si>
+    <t>Peaje CC1 - CC4
+Peaje IC1 - IC2</t>
+  </si>
+  <si>
+    <t>Dashboard - Inicio</t>
+  </si>
+  <si>
+    <t>Buscar la solicitud de Leasing creada, por cualquiera de las dos opciones</t>
+  </si>
+  <si>
+    <t>Verificar los datos cargados en la solicitud, se genera la solictud y se vuelve a ingresar al caso asignado con el código.</t>
+  </si>
+  <si>
+    <t>Al generar la solicitud el sistema solicita actualiza los datos que sean necesarios</t>
+  </si>
+  <si>
+    <t>Información Tributaria</t>
+  </si>
+  <si>
+    <t>Avales</t>
+  </si>
+  <si>
+    <t>Antecedentes Empresas</t>
+  </si>
+  <si>
+    <t>Info Evaluación</t>
+  </si>
+  <si>
+    <t>Bitácora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha posterior </t>
+  </si>
+  <si>
+    <r>
+      <t>Seguimiento -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tarea</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos Préstamos</t>
+  </si>
+  <si>
+    <t>Solicitud Plazo</t>
+  </si>
+  <si>
+    <t>Solicitud Cuota</t>
+  </si>
+  <si>
+    <t>Comisión</t>
+  </si>
+  <si>
+    <t>Selección el valor del plazo</t>
+  </si>
+  <si>
+    <t>Valores no modificados</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Comuna</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Es Chileno</t>
+  </si>
+  <si>
+    <t>Profesión</t>
+  </si>
+  <si>
+    <t>Check List</t>
+  </si>
+  <si>
+    <t>Seleccionar valor</t>
+  </si>
+  <si>
+    <t>Fecha valida</t>
+  </si>
+  <si>
+    <t>Agregar al menos un aval obligatoriamente</t>
+  </si>
+  <si>
+    <t>Notaria</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Fecha valida posterior</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2247,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2452,6 +2680,70 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2503,70 +2795,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
@@ -2584,12 +2826,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9999FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF66FF33"/>
-      <color rgb="FF9999FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2866,11 +3108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA96AC-1FFE-43FB-BB5A-AC83B9905F9C}">
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F351" sqref="F351"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G420" sqref="G420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,126 +3149,126 @@
       <c r="A2" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="218" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="219" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="220"/>
+      <c r="C2" s="202" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="203"/>
       <c r="G2" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="221"/>
-      <c r="I2" s="220"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="203"/>
     </row>
     <row r="3" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219" t="s">
+      <c r="A3" s="201"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="220"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="220"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="203"/>
     </row>
     <row r="4" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="218"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219" t="s">
+      <c r="A4" s="201"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="220"/>
+      <c r="F4" s="203"/>
       <c r="G4" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="221"/>
-      <c r="I4" s="220"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="218"/>
-      <c r="B5" s="222"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="220"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="203"/>
       <c r="G5" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="221"/>
-      <c r="I5" s="220" t="s">
-        <v>288</v>
+      <c r="H5" s="204"/>
+      <c r="I5" s="203" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="218"/>
-      <c r="B6" s="222"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
       <c r="G6" s="156"/>
-      <c r="H6" s="223" t="s">
-        <v>285</v>
-      </c>
-      <c r="I6" s="220"/>
+      <c r="H6" s="206" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="203"/>
     </row>
     <row r="7" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="218"/>
-      <c r="B7" s="222"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="220"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="203"/>
       <c r="G7" s="156"/>
-      <c r="H7" s="223" t="s">
+      <c r="H7" s="206" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="203"/>
+    </row>
+    <row r="8" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="201"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="206" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="203"/>
+    </row>
+    <row r="9" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="201"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="224" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="222" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="220"/>
-    </row>
-    <row r="8" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
-      <c r="B8" s="222"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="I8" s="220"/>
-    </row>
-    <row r="9" spans="1:9" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
-      <c r="B9" s="238"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="242" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="240" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="222"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="116" t="s">
         <v>130</v>
       </c>
@@ -3046,7 +3288,7 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="222"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="155"/>
       <c r="D11" s="155" t="s">
         <v>63</v>
@@ -3062,7 +3304,7 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="222"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -3349,7 +3591,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
       <c r="I31" s="155" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4280,7 +4522,7 @@
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="171"/>
       <c r="B93" s="167"/>
-      <c r="C93" s="202" t="s">
+      <c r="C93" s="232" t="s">
         <v>130</v>
       </c>
       <c r="D93" s="116" t="s">
@@ -4297,7 +4539,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="171"/>
       <c r="B94" s="167"/>
-      <c r="C94" s="202"/>
+      <c r="C94" s="232"/>
       <c r="D94" s="155" t="s">
         <v>63</v>
       </c>
@@ -4310,7 +4552,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="171"/>
       <c r="B95" s="167"/>
-      <c r="C95" s="202"/>
+      <c r="C95" s="232"/>
       <c r="D95" s="116" t="s">
         <v>61</v>
       </c>
@@ -4325,7 +4567,7 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="171"/>
       <c r="B96" s="167"/>
-      <c r="C96" s="202"/>
+      <c r="C96" s="232"/>
       <c r="D96" s="155" t="s">
         <v>63</v>
       </c>
@@ -4338,7 +4580,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="171"/>
       <c r="B97" s="167"/>
-      <c r="C97" s="202"/>
+      <c r="C97" s="232"/>
       <c r="D97" s="116" t="s">
         <v>61</v>
       </c>
@@ -4353,7 +4595,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="171"/>
       <c r="B98" s="167"/>
-      <c r="C98" s="202"/>
+      <c r="C98" s="232"/>
       <c r="D98" s="155" t="s">
         <v>63</v>
       </c>
@@ -4366,7 +4608,7 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="171"/>
       <c r="B99" s="167"/>
-      <c r="C99" s="202"/>
+      <c r="C99" s="232"/>
       <c r="D99" s="116" t="s">
         <v>103</v>
       </c>
@@ -5315,7 +5557,7 @@
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="171"/>
       <c r="B162" s="167"/>
-      <c r="C162" s="202" t="s">
+      <c r="C162" s="232" t="s">
         <v>130</v>
       </c>
       <c r="D162" s="116" t="s">
@@ -5332,7 +5574,7 @@
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="171"/>
       <c r="B163" s="167"/>
-      <c r="C163" s="202"/>
+      <c r="C163" s="232"/>
       <c r="D163" s="155" t="s">
         <v>63</v>
       </c>
@@ -5345,7 +5587,7 @@
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="171"/>
       <c r="B164" s="167"/>
-      <c r="C164" s="202"/>
+      <c r="C164" s="232"/>
       <c r="D164" s="116" t="s">
         <v>103</v>
       </c>
@@ -5360,7 +5602,7 @@
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="171"/>
       <c r="B165" s="167"/>
-      <c r="C165" s="202"/>
+      <c r="C165" s="232"/>
       <c r="D165" s="155" t="s">
         <v>63</v>
       </c>
@@ -5373,7 +5615,7 @@
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="171"/>
       <c r="B166" s="167"/>
-      <c r="C166" s="202"/>
+      <c r="C166" s="232"/>
       <c r="D166" s="116" t="s">
         <v>103</v>
       </c>
@@ -5388,7 +5630,7 @@
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="171"/>
       <c r="B167" s="167"/>
-      <c r="C167" s="202"/>
+      <c r="C167" s="232"/>
       <c r="D167" s="155" t="s">
         <v>63</v>
       </c>
@@ -5401,7 +5643,7 @@
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="171"/>
       <c r="B168" s="167"/>
-      <c r="C168" s="202"/>
+      <c r="C168" s="232"/>
       <c r="D168" s="116" t="s">
         <v>103</v>
       </c>
@@ -5416,7 +5658,7 @@
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="171"/>
       <c r="B169" s="167"/>
-      <c r="C169" s="202"/>
+      <c r="C169" s="232"/>
       <c r="D169" s="155" t="s">
         <v>63</v>
       </c>
@@ -5429,7 +5671,7 @@
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="171"/>
       <c r="B170" s="167"/>
-      <c r="C170" s="202"/>
+      <c r="C170" s="232"/>
       <c r="D170" s="116" t="s">
         <v>103</v>
       </c>
@@ -5444,7 +5686,7 @@
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="171"/>
       <c r="B171" s="167"/>
-      <c r="C171" s="202"/>
+      <c r="C171" s="232"/>
       <c r="D171" s="155" t="s">
         <v>63</v>
       </c>
@@ -5457,7 +5699,7 @@
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="171"/>
       <c r="B172" s="167"/>
-      <c r="C172" s="202"/>
+      <c r="C172" s="232"/>
       <c r="D172" s="116" t="s">
         <v>103</v>
       </c>
@@ -5472,7 +5714,7 @@
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="171"/>
       <c r="B173" s="167"/>
-      <c r="C173" s="202"/>
+      <c r="C173" s="232"/>
       <c r="D173" s="155" t="s">
         <v>63</v>
       </c>
@@ -5485,7 +5727,7 @@
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="171"/>
       <c r="B174" s="167"/>
-      <c r="C174" s="202"/>
+      <c r="C174" s="232"/>
       <c r="D174" s="116" t="s">
         <v>103</v>
       </c>
@@ -5500,7 +5742,7 @@
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="171"/>
       <c r="B175" s="167"/>
-      <c r="C175" s="202"/>
+      <c r="C175" s="232"/>
       <c r="D175" s="155" t="s">
         <v>63</v>
       </c>
@@ -5830,7 +6072,7 @@
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="171"/>
       <c r="B197" s="167"/>
-      <c r="C197" s="202" t="s">
+      <c r="C197" s="232" t="s">
         <v>0</v>
       </c>
       <c r="D197" s="116" t="s">
@@ -5847,7 +6089,7 @@
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="171"/>
       <c r="B198" s="167"/>
-      <c r="C198" s="202"/>
+      <c r="C198" s="232"/>
       <c r="D198" s="155" t="s">
         <v>63</v>
       </c>
@@ -5860,7 +6102,7 @@
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="171"/>
       <c r="B199" s="167"/>
-      <c r="C199" s="202"/>
+      <c r="C199" s="232"/>
       <c r="D199" s="116" t="s">
         <v>120</v>
       </c>
@@ -5875,7 +6117,7 @@
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="171"/>
       <c r="B200" s="167"/>
-      <c r="C200" s="202"/>
+      <c r="C200" s="232"/>
       <c r="D200" s="155" t="s">
         <v>63</v>
       </c>
@@ -5888,7 +6130,7 @@
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="171"/>
       <c r="B201" s="167"/>
-      <c r="C201" s="202"/>
+      <c r="C201" s="232"/>
       <c r="D201" s="116" t="s">
         <v>120</v>
       </c>
@@ -5913,10 +6155,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="171"/>
-      <c r="B203" s="203" t="s">
-        <v>177</v>
-      </c>
-      <c r="C203" s="245" t="s">
+      <c r="B203" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="C203" s="226" t="s">
         <v>128</v>
       </c>
       <c r="D203" s="118"/>
@@ -5932,7 +6174,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="171"/>
-      <c r="B204" s="203"/>
+      <c r="B204" s="233"/>
       <c r="C204" s="89"/>
       <c r="D204" s="90"/>
       <c r="E204" s="90" t="s">
@@ -5942,63 +6184,67 @@
         <v>134</v>
       </c>
       <c r="G204" s="91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H204" s="91"/>
       <c r="I204" s="90"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="171"/>
-      <c r="B205" s="203"/>
+      <c r="B205" s="233"/>
       <c r="C205" s="90"/>
       <c r="D205" s="90"/>
       <c r="E205" s="90"/>
       <c r="F205" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="G205" s="91" t="s">
-        <v>143</v>
+      <c r="G205" s="176" t="s">
+        <v>320</v>
       </c>
       <c r="H205" s="91"/>
       <c r="I205" s="90"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="171"/>
-      <c r="B206" s="203"/>
+      <c r="B206" s="233"/>
       <c r="C206" s="90"/>
       <c r="D206" s="90"/>
       <c r="E206" s="90"/>
-      <c r="F206" s="90"/>
+      <c r="F206" s="90" t="s">
+        <v>136</v>
+      </c>
       <c r="G206" s="91" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H206" s="91"/>
       <c r="I206" s="90"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="171"/>
-      <c r="B207" s="203"/>
+      <c r="B207" s="90"/>
       <c r="C207" s="90"/>
       <c r="D207" s="90"/>
       <c r="E207" s="90"/>
-      <c r="F207" s="90"/>
+      <c r="F207" s="90" t="s">
+        <v>137</v>
+      </c>
       <c r="G207" s="91" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H207" s="91"/>
       <c r="I207" s="90"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="171"/>
-      <c r="B208" s="203"/>
+      <c r="B208" s="90"/>
       <c r="C208" s="90"/>
       <c r="D208" s="90"/>
       <c r="E208" s="90"/>
       <c r="F208" s="90" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G208" s="91" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H208" s="91"/>
       <c r="I208" s="90"/>
@@ -6010,10 +6256,10 @@
       <c r="D209" s="90"/>
       <c r="E209" s="90"/>
       <c r="F209" s="90" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G209" s="91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H209" s="91"/>
       <c r="I209" s="90"/>
@@ -6025,10 +6271,10 @@
       <c r="D210" s="90"/>
       <c r="E210" s="90"/>
       <c r="F210" s="90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G210" s="91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H210" s="91"/>
       <c r="I210" s="90"/>
@@ -6037,13 +6283,15 @@
       <c r="A211" s="171"/>
       <c r="B211" s="90"/>
       <c r="C211" s="90"/>
-      <c r="D211" s="90"/>
-      <c r="E211" s="90"/>
+      <c r="D211" s="118"/>
+      <c r="E211" s="90" t="s">
+        <v>145</v>
+      </c>
       <c r="F211" s="90" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G211" s="91" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H211" s="91"/>
       <c r="I211" s="90"/>
@@ -6052,13 +6300,13 @@
       <c r="A212" s="171"/>
       <c r="B212" s="90"/>
       <c r="C212" s="90"/>
-      <c r="D212" s="90"/>
+      <c r="D212" s="118"/>
       <c r="E212" s="90"/>
       <c r="F212" s="90" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G212" s="91" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H212" s="91"/>
       <c r="I212" s="90"/>
@@ -6068,14 +6316,12 @@
       <c r="B213" s="90"/>
       <c r="C213" s="90"/>
       <c r="D213" s="118"/>
-      <c r="E213" s="90" t="s">
+      <c r="E213" s="90"/>
+      <c r="F213" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="F213" s="90" t="s">
-        <v>149</v>
-      </c>
       <c r="G213" s="91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H213" s="91"/>
       <c r="I213" s="90"/>
@@ -6085,29 +6331,31 @@
       <c r="B214" s="90"/>
       <c r="C214" s="90"/>
       <c r="D214" s="118"/>
-      <c r="E214" s="90"/>
+      <c r="E214" s="90" t="s">
+        <v>151</v>
+      </c>
       <c r="F214" s="90" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G214" s="91" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="H214" s="91"/>
       <c r="I214" s="90"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="171"/>
       <c r="B215" s="90"/>
       <c r="C215" s="90"/>
       <c r="D215" s="118"/>
       <c r="E215" s="90"/>
-      <c r="F215" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="G215" s="91" t="s">
+      <c r="F215" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="H215" s="91"/>
+      <c r="G215" s="176" t="s">
+        <v>183</v>
+      </c>
+      <c r="H215" s="176"/>
       <c r="I215" s="90"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6115,31 +6363,29 @@
       <c r="B216" s="90"/>
       <c r="C216" s="90"/>
       <c r="D216" s="118"/>
-      <c r="E216" s="90" t="s">
+      <c r="E216" s="90"/>
+      <c r="F216" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="F216" s="90" t="s">
-        <v>155</v>
-      </c>
       <c r="G216" s="91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H216" s="91"/>
       <c r="I216" s="90"/>
     </row>
-    <row r="217" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="171"/>
       <c r="B217" s="90"/>
       <c r="C217" s="90"/>
       <c r="D217" s="118"/>
       <c r="E217" s="90"/>
-      <c r="F217" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="G217" s="176" t="s">
-        <v>186</v>
-      </c>
-      <c r="H217" s="176"/>
+      <c r="F217" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="G217" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="H217" s="91"/>
       <c r="I217" s="90"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6149,10 +6395,10 @@
       <c r="D218" s="118"/>
       <c r="E218" s="90"/>
       <c r="F218" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G218" s="91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H218" s="91"/>
       <c r="I218" s="90"/>
@@ -6164,10 +6410,10 @@
       <c r="D219" s="118"/>
       <c r="E219" s="90"/>
       <c r="F219" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G219" s="91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H219" s="91"/>
       <c r="I219" s="90"/>
@@ -6179,10 +6425,10 @@
       <c r="D220" s="118"/>
       <c r="E220" s="90"/>
       <c r="F220" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G220" s="91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H220" s="91"/>
       <c r="I220" s="90"/>
@@ -6193,28 +6439,26 @@
       <c r="C221" s="90"/>
       <c r="D221" s="118"/>
       <c r="E221" s="90"/>
-      <c r="F221" s="90" t="s">
-        <v>160</v>
-      </c>
+      <c r="F221" s="90"/>
       <c r="G221" s="91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H221" s="91"/>
       <c r="I221" s="90"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A222" s="171"/>
       <c r="B222" s="90"/>
       <c r="C222" s="90"/>
       <c r="D222" s="118"/>
       <c r="E222" s="90"/>
-      <c r="F222" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="G222" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="H222" s="91"/>
+      <c r="F222" s="177" t="s">
+        <v>159</v>
+      </c>
+      <c r="G222" s="176" t="s">
+        <v>180</v>
+      </c>
+      <c r="H222" s="176"/>
       <c r="I222" s="90"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6223,26 +6467,28 @@
       <c r="C223" s="90"/>
       <c r="D223" s="118"/>
       <c r="E223" s="90"/>
-      <c r="F223" s="90"/>
+      <c r="F223" s="90" t="s">
+        <v>160</v>
+      </c>
       <c r="G223" s="91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H223" s="91"/>
       <c r="I223" s="90"/>
     </row>
-    <row r="224" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="171"/>
       <c r="B224" s="90"/>
       <c r="C224" s="90"/>
       <c r="D224" s="118"/>
       <c r="E224" s="90"/>
-      <c r="F224" s="177" t="s">
-        <v>162</v>
-      </c>
-      <c r="G224" s="176" t="s">
-        <v>183</v>
-      </c>
-      <c r="H224" s="176"/>
+      <c r="F224" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="G224" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="H224" s="91"/>
       <c r="I224" s="90"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6252,13 +6498,15 @@
       <c r="D225" s="118"/>
       <c r="E225" s="90"/>
       <c r="F225" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="G225" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G225" s="176" t="s">
         <v>184</v>
       </c>
-      <c r="H225" s="91"/>
-      <c r="I225" s="90"/>
+      <c r="H225" s="176"/>
+      <c r="I225" s="90" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="171"/>
@@ -6266,13 +6514,11 @@
       <c r="C226" s="90"/>
       <c r="D226" s="118"/>
       <c r="E226" s="90"/>
-      <c r="F226" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="G226" s="91" t="s">
+      <c r="F226" s="90"/>
+      <c r="G226" s="176" t="s">
         <v>185</v>
       </c>
-      <c r="H226" s="91"/>
+      <c r="H226" s="176"/>
       <c r="I226" s="90"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -6282,15 +6528,13 @@
       <c r="D227" s="118"/>
       <c r="E227" s="90"/>
       <c r="F227" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="G227" s="176" t="s">
+        <v>163</v>
+      </c>
+      <c r="G227" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H227" s="176"/>
-      <c r="I227" s="90" t="s">
-        <v>189</v>
-      </c>
+      <c r="H227" s="91"/>
+      <c r="I227" s="90"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="171"/>
@@ -6298,11 +6542,13 @@
       <c r="C228" s="90"/>
       <c r="D228" s="118"/>
       <c r="E228" s="90"/>
-      <c r="F228" s="90"/>
-      <c r="G228" s="176" t="s">
-        <v>188</v>
-      </c>
-      <c r="H228" s="176"/>
+      <c r="F228" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G228" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="H228" s="91"/>
       <c r="I228" s="90"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -6312,10 +6558,10 @@
       <c r="D229" s="118"/>
       <c r="E229" s="90"/>
       <c r="F229" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G229" s="91" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H229" s="91"/>
       <c r="I229" s="90"/>
@@ -6327,10 +6573,10 @@
       <c r="D230" s="118"/>
       <c r="E230" s="90"/>
       <c r="F230" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G230" s="91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H230" s="91"/>
       <c r="I230" s="90"/>
@@ -6342,10 +6588,10 @@
       <c r="D231" s="118"/>
       <c r="E231" s="90"/>
       <c r="F231" s="90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G231" s="91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H231" s="91"/>
       <c r="I231" s="90"/>
@@ -6357,10 +6603,10 @@
       <c r="D232" s="118"/>
       <c r="E232" s="90"/>
       <c r="F232" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G232" s="91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H232" s="91"/>
       <c r="I232" s="90"/>
@@ -6372,10 +6618,10 @@
       <c r="D233" s="118"/>
       <c r="E233" s="90"/>
       <c r="F233" s="90" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G233" s="91" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H233" s="91"/>
       <c r="I233" s="90"/>
@@ -6387,11 +6633,9 @@
       <c r="D234" s="118"/>
       <c r="E234" s="90"/>
       <c r="F234" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="G234" s="91" t="s">
-        <v>184</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G234" s="91"/>
       <c r="H234" s="91"/>
       <c r="I234" s="90"/>
     </row>
@@ -6402,11 +6646,9 @@
       <c r="D235" s="118"/>
       <c r="E235" s="90"/>
       <c r="F235" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="G235" s="91" t="s">
-        <v>192</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G235" s="91"/>
       <c r="H235" s="91"/>
       <c r="I235" s="90"/>
     </row>
@@ -6417,9 +6659,11 @@
       <c r="D236" s="118"/>
       <c r="E236" s="90"/>
       <c r="F236" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="G236" s="91"/>
+        <v>171</v>
+      </c>
+      <c r="G236" s="91" t="s">
+        <v>190</v>
+      </c>
       <c r="H236" s="91"/>
       <c r="I236" s="90"/>
     </row>
@@ -6430,9 +6674,11 @@
       <c r="D237" s="118"/>
       <c r="E237" s="90"/>
       <c r="F237" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="G237" s="91"/>
+        <v>172</v>
+      </c>
+      <c r="G237" s="91" t="s">
+        <v>191</v>
+      </c>
       <c r="H237" s="91"/>
       <c r="I237" s="90"/>
     </row>
@@ -6441,15 +6687,17 @@
       <c r="B238" s="90"/>
       <c r="C238" s="90"/>
       <c r="D238" s="118"/>
-      <c r="E238" s="90"/>
+      <c r="E238" s="90" t="s">
+        <v>195</v>
+      </c>
       <c r="F238" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="G238" s="91" t="s">
-        <v>193</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G238" s="91"/>
       <c r="H238" s="91"/>
-      <c r="I238" s="90"/>
+      <c r="I238" s="90" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="171"/>
@@ -6458,11 +6706,9 @@
       <c r="D239" s="118"/>
       <c r="E239" s="90"/>
       <c r="F239" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="G239" s="91" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G239" s="91"/>
       <c r="H239" s="91"/>
       <c r="I239" s="90"/>
     </row>
@@ -6471,90 +6717,88 @@
       <c r="B240" s="90"/>
       <c r="C240" s="90"/>
       <c r="D240" s="118"/>
-      <c r="E240" s="90" t="s">
-        <v>198</v>
-      </c>
+      <c r="E240" s="90"/>
       <c r="F240" s="90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G240" s="91"/>
       <c r="H240" s="91"/>
-      <c r="I240" s="90" t="s">
-        <v>199</v>
-      </c>
+      <c r="I240" s="90"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="171"/>
       <c r="B241" s="90"/>
       <c r="C241" s="90"/>
       <c r="D241" s="118"/>
-      <c r="E241" s="90"/>
+      <c r="E241" s="90" t="s">
+        <v>197</v>
+      </c>
       <c r="F241" s="90" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G241" s="91"/>
       <c r="H241" s="91"/>
-      <c r="I241" s="90"/>
+      <c r="I241" s="90" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="171"/>
-      <c r="B242" s="90"/>
-      <c r="C242" s="90"/>
-      <c r="D242" s="118"/>
-      <c r="E242" s="90"/>
-      <c r="F242" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="G242" s="91"/>
-      <c r="H242" s="91"/>
-      <c r="I242" s="90"/>
+      <c r="B242" s="214"/>
+      <c r="C242" s="215"/>
+      <c r="D242" s="216"/>
+      <c r="E242" s="215"/>
+      <c r="F242" s="215"/>
+      <c r="G242" s="217"/>
+      <c r="H242" s="217"/>
+      <c r="I242" s="215" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="171"/>
       <c r="B243" s="90"/>
       <c r="C243" s="90"/>
       <c r="D243" s="118"/>
-      <c r="E243" s="90" t="s">
-        <v>200</v>
+      <c r="E243" s="118" t="s">
+        <v>201</v>
       </c>
       <c r="F243" s="90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G243" s="91"/>
       <c r="H243" s="91"/>
       <c r="I243" s="90" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="171"/>
-      <c r="B244" s="232"/>
-      <c r="C244" s="233"/>
-      <c r="D244" s="234"/>
-      <c r="E244" s="233"/>
-      <c r="F244" s="233"/>
-      <c r="G244" s="235"/>
-      <c r="H244" s="235"/>
-      <c r="I244" s="233" t="s">
-        <v>203</v>
-      </c>
+      <c r="B244" s="90"/>
+      <c r="C244" s="90"/>
+      <c r="D244" s="118"/>
+      <c r="E244" s="90"/>
+      <c r="F244" s="90"/>
+      <c r="G244" s="181" t="s">
+        <v>67</v>
+      </c>
+      <c r="H244" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="I244" s="90"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="171"/>
       <c r="B245" s="90"/>
       <c r="C245" s="90"/>
       <c r="D245" s="118"/>
-      <c r="E245" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="F245" s="90" t="s">
-        <v>205</v>
-      </c>
-      <c r="G245" s="91"/>
-      <c r="H245" s="91"/>
-      <c r="I245" s="90" t="s">
-        <v>221</v>
-      </c>
+      <c r="E245" s="90"/>
+      <c r="F245" s="90"/>
+      <c r="G245" s="181"/>
+      <c r="H245" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="I245" s="90"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="171"/>
@@ -6563,11 +6807,9 @@
       <c r="D246" s="118"/>
       <c r="E246" s="90"/>
       <c r="F246" s="90"/>
-      <c r="G246" s="181" t="s">
-        <v>67</v>
-      </c>
+      <c r="G246" s="181"/>
       <c r="H246" s="91" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="I246" s="90"/>
     </row>
@@ -6580,7 +6822,7 @@
       <c r="F247" s="90"/>
       <c r="G247" s="181"/>
       <c r="H247" s="91" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="I247" s="90"/>
     </row>
@@ -6591,11 +6833,13 @@
       <c r="D248" s="118"/>
       <c r="E248" s="90"/>
       <c r="F248" s="90"/>
-      <c r="G248" s="181"/>
-      <c r="H248" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="I248" s="90"/>
+      <c r="G248" s="181" t="s">
+        <v>203</v>
+      </c>
+      <c r="H248" s="91"/>
+      <c r="I248" s="90" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="171"/>
@@ -6604,11 +6848,15 @@
       <c r="D249" s="118"/>
       <c r="E249" s="90"/>
       <c r="F249" s="90"/>
-      <c r="G249" s="181"/>
-      <c r="H249" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="I249" s="90"/>
+      <c r="G249" s="181" t="s">
+        <v>204</v>
+      </c>
+      <c r="H249" s="182" t="s">
+        <v>212</v>
+      </c>
+      <c r="I249" s="90" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="171"/>
@@ -6618,12 +6866,12 @@
       <c r="E250" s="90"/>
       <c r="F250" s="90"/>
       <c r="G250" s="181" t="s">
-        <v>206</v>
-      </c>
-      <c r="H250" s="91"/>
-      <c r="I250" s="90" t="s">
-        <v>216</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H250" s="182" t="s">
+        <v>212</v>
+      </c>
+      <c r="I250" s="90"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="171"/>
@@ -6633,13 +6881,11 @@
       <c r="E251" s="90"/>
       <c r="F251" s="90"/>
       <c r="G251" s="181" t="s">
-        <v>207</v>
-      </c>
-      <c r="H251" s="182" t="s">
-        <v>215</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H251" s="91"/>
       <c r="I251" s="90" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -6650,12 +6896,14 @@
       <c r="E252" s="90"/>
       <c r="F252" s="90"/>
       <c r="G252" s="181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H252" s="182" t="s">
-        <v>215</v>
-      </c>
-      <c r="I252" s="90"/>
+        <v>217</v>
+      </c>
+      <c r="I252" s="90" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="171"/>
@@ -6665,11 +6913,11 @@
       <c r="E253" s="90"/>
       <c r="F253" s="90"/>
       <c r="G253" s="181" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H253" s="91"/>
       <c r="I253" s="90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -6680,13 +6928,11 @@
       <c r="E254" s="90"/>
       <c r="F254" s="90"/>
       <c r="G254" s="181" t="s">
-        <v>210</v>
-      </c>
-      <c r="H254" s="182" t="s">
-        <v>220</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H254" s="91"/>
       <c r="I254" s="90" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -6696,12 +6942,10 @@
       <c r="D255" s="118"/>
       <c r="E255" s="90"/>
       <c r="F255" s="90"/>
-      <c r="G255" s="181" t="s">
-        <v>211</v>
-      </c>
+      <c r="G255" s="91"/>
       <c r="H255" s="91"/>
       <c r="I255" s="90" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -6709,14 +6953,14 @@
       <c r="B256" s="90"/>
       <c r="C256" s="90"/>
       <c r="D256" s="118"/>
-      <c r="E256" s="90"/>
-      <c r="F256" s="90"/>
-      <c r="G256" s="181" t="s">
-        <v>212</v>
-      </c>
+      <c r="E256" s="184" t="s">
+        <v>221</v>
+      </c>
+      <c r="F256" s="183"/>
+      <c r="G256" s="91"/>
       <c r="H256" s="91"/>
       <c r="I256" s="90" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -6724,8 +6968,10 @@
       <c r="B257" s="90"/>
       <c r="C257" s="90"/>
       <c r="D257" s="118"/>
-      <c r="E257" s="90"/>
-      <c r="F257" s="90"/>
+      <c r="E257" s="184" t="s">
+        <v>224</v>
+      </c>
+      <c r="F257" s="183"/>
       <c r="G257" s="91"/>
       <c r="H257" s="91"/>
       <c r="I257" s="90" t="s">
@@ -6737,14 +6983,12 @@
       <c r="B258" s="90"/>
       <c r="C258" s="90"/>
       <c r="D258" s="118"/>
-      <c r="E258" s="184" t="s">
-        <v>224</v>
-      </c>
+      <c r="E258" s="183"/>
       <c r="F258" s="183"/>
       <c r="G258" s="91"/>
       <c r="H258" s="91"/>
       <c r="I258" s="90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,14 +6996,12 @@
       <c r="B259" s="90"/>
       <c r="C259" s="90"/>
       <c r="D259" s="118"/>
-      <c r="E259" s="184" t="s">
-        <v>227</v>
-      </c>
+      <c r="E259" s="183"/>
       <c r="F259" s="183"/>
       <c r="G259" s="91"/>
       <c r="H259" s="91"/>
       <c r="I259" s="90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -6767,12 +7009,16 @@
       <c r="B260" s="90"/>
       <c r="C260" s="90"/>
       <c r="D260" s="118"/>
-      <c r="E260" s="183"/>
+      <c r="E260" s="184" t="s">
+        <v>226</v>
+      </c>
       <c r="F260" s="183"/>
-      <c r="G260" s="91"/>
+      <c r="G260" s="182" t="s">
+        <v>229</v>
+      </c>
       <c r="H260" s="91"/>
       <c r="I260" s="90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -6780,29 +7026,31 @@
       <c r="B261" s="90"/>
       <c r="C261" s="90"/>
       <c r="D261" s="118"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="91"/>
+      <c r="E261" s="185"/>
+      <c r="F261" s="185"/>
+      <c r="G261" s="182" t="s">
+        <v>230</v>
+      </c>
       <c r="H261" s="91"/>
       <c r="I261" s="90" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="171"/>
       <c r="B262" s="90"/>
       <c r="C262" s="90"/>
       <c r="D262" s="118"/>
-      <c r="E262" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="F262" s="183"/>
+      <c r="E262" s="185"/>
+      <c r="F262" s="185"/>
       <c r="G262" s="182" t="s">
+        <v>231</v>
+      </c>
+      <c r="H262" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="H262" s="91"/>
-      <c r="I262" s="90" t="s">
-        <v>237</v>
+      <c r="I262" s="177" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -6812,29 +7060,27 @@
       <c r="D263" s="118"/>
       <c r="E263" s="185"/>
       <c r="F263" s="185"/>
-      <c r="G263" s="182" t="s">
+      <c r="G263" s="91"/>
+      <c r="H263" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="H263" s="91"/>
-      <c r="I263" s="90" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I263" s="90"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="171"/>
       <c r="B264" s="90"/>
       <c r="C264" s="90"/>
       <c r="D264" s="118"/>
-      <c r="E264" s="185"/>
-      <c r="F264" s="185"/>
-      <c r="G264" s="182" t="s">
-        <v>234</v>
-      </c>
-      <c r="H264" s="176" t="s">
-        <v>235</v>
-      </c>
-      <c r="I264" s="177" t="s">
-        <v>239</v>
+      <c r="E264" s="186" t="s">
+        <v>237</v>
+      </c>
+      <c r="F264" s="182" t="s">
+        <v>238</v>
+      </c>
+      <c r="G264" s="182"/>
+      <c r="H264" s="91"/>
+      <c r="I264" s="90" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -6843,43 +7089,43 @@
       <c r="C265" s="90"/>
       <c r="D265" s="118"/>
       <c r="E265" s="185"/>
-      <c r="F265" s="185"/>
-      <c r="G265" s="91"/>
-      <c r="H265" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="I265" s="90"/>
+      <c r="F265" s="182" t="s">
+        <v>239</v>
+      </c>
+      <c r="G265" s="182"/>
+      <c r="H265" s="91"/>
+      <c r="I265" s="90" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="171"/>
       <c r="B266" s="90"/>
       <c r="C266" s="90"/>
       <c r="D266" s="118"/>
-      <c r="E266" s="186" t="s">
+      <c r="E266" s="185"/>
+      <c r="F266" s="182" t="s">
         <v>240</v>
-      </c>
-      <c r="F266" s="182" t="s">
-        <v>241</v>
       </c>
       <c r="G266" s="182"/>
       <c r="H266" s="91"/>
-      <c r="I266" s="90" t="s">
-        <v>244</v>
-      </c>
+      <c r="I266" s="90"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="171"/>
       <c r="B267" s="90"/>
       <c r="C267" s="90"/>
       <c r="D267" s="118"/>
-      <c r="E267" s="185"/>
-      <c r="F267" s="182" t="s">
-        <v>242</v>
-      </c>
-      <c r="G267" s="182"/>
+      <c r="E267" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="F267" s="187"/>
+      <c r="G267" s="91" t="s">
+        <v>244</v>
+      </c>
       <c r="H267" s="91"/>
       <c r="I267" s="90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -6887,11 +7133,11 @@
       <c r="B268" s="90"/>
       <c r="C268" s="90"/>
       <c r="D268" s="118"/>
-      <c r="E268" s="185"/>
-      <c r="F268" s="182" t="s">
-        <v>243</v>
-      </c>
-      <c r="G268" s="182"/>
+      <c r="E268" s="183"/>
+      <c r="F268" s="185"/>
+      <c r="G268" s="91" t="s">
+        <v>245</v>
+      </c>
       <c r="H268" s="91"/>
       <c r="I268" s="90"/>
     </row>
@@ -6900,17 +7146,13 @@
       <c r="B269" s="90"/>
       <c r="C269" s="90"/>
       <c r="D269" s="118"/>
-      <c r="E269" s="186" t="s">
+      <c r="E269" s="183"/>
+      <c r="F269" s="185"/>
+      <c r="G269" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="F269" s="187"/>
-      <c r="G269" s="91" t="s">
-        <v>247</v>
-      </c>
       <c r="H269" s="91"/>
-      <c r="I269" s="90" t="s">
-        <v>251</v>
-      </c>
+      <c r="I269" s="90"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="171"/>
@@ -6920,10 +7162,12 @@
       <c r="E270" s="183"/>
       <c r="F270" s="185"/>
       <c r="G270" s="91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H270" s="91"/>
-      <c r="I270" s="90"/>
+      <c r="I270" s="90" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="171"/>
@@ -6932,11 +7176,11 @@
       <c r="D271" s="118"/>
       <c r="E271" s="183"/>
       <c r="F271" s="185"/>
-      <c r="G271" s="91" t="s">
-        <v>249</v>
-      </c>
+      <c r="G271" s="91"/>
       <c r="H271" s="91"/>
-      <c r="I271" s="90"/>
+      <c r="I271" s="90" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="171"/>
@@ -6945,102 +7189,104 @@
       <c r="D272" s="118"/>
       <c r="E272" s="183"/>
       <c r="F272" s="185"/>
-      <c r="G272" s="91" t="s">
-        <v>250</v>
-      </c>
+      <c r="G272" s="91"/>
       <c r="H272" s="91"/>
-      <c r="I272" s="90" t="s">
-        <v>252</v>
-      </c>
+      <c r="I272" s="90"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="171"/>
-      <c r="B273" s="90"/>
-      <c r="C273" s="90"/>
-      <c r="D273" s="118"/>
-      <c r="E273" s="183"/>
-      <c r="F273" s="185"/>
-      <c r="G273" s="91"/>
-      <c r="H273" s="91"/>
-      <c r="I273" s="90" t="s">
-        <v>253</v>
+      <c r="B273" s="229" t="s">
+        <v>296</v>
+      </c>
+      <c r="C273" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="D273" s="97"/>
+      <c r="E273" s="189" t="s">
+        <v>251</v>
+      </c>
+      <c r="F273" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="G273" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H273" s="115"/>
+      <c r="I273" s="96" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="171"/>
-      <c r="B274" s="90"/>
-      <c r="C274" s="90"/>
-      <c r="D274" s="118"/>
-      <c r="E274" s="183"/>
-      <c r="F274" s="185"/>
-      <c r="G274" s="91"/>
-      <c r="H274" s="91"/>
-      <c r="I274" s="90"/>
+      <c r="B274" s="229"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="97"/>
+      <c r="E274" s="97"/>
+      <c r="F274" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="G274" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H274" s="115"/>
+      <c r="I274" s="19"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="171"/>
-      <c r="B275" s="224" t="s">
-        <v>299</v>
-      </c>
-      <c r="C275" s="246" t="s">
-        <v>128</v>
-      </c>
+      <c r="B275" s="229"/>
+      <c r="C275" s="19"/>
       <c r="D275" s="97"/>
-      <c r="E275" s="189" t="s">
-        <v>254</v>
-      </c>
+      <c r="E275" s="97"/>
       <c r="F275" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="G275" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="G275" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="H275" s="115"/>
-      <c r="I275" s="96" t="s">
-        <v>255</v>
-      </c>
+      <c r="H275" s="39"/>
+      <c r="I275" s="19"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="171"/>
-      <c r="B276" s="224"/>
+      <c r="B276" s="229"/>
       <c r="C276" s="19"/>
-      <c r="D276" s="97"/>
-      <c r="E276" s="97"/>
-      <c r="F276" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="G276" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="H276" s="115"/>
+      <c r="D276" s="188"/>
+      <c r="E276" s="188"/>
+      <c r="F276" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="G276" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H276" s="39"/>
       <c r="I276" s="19"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="171"/>
-      <c r="B277" s="224"/>
-      <c r="C277" s="19"/>
+      <c r="B277" s="114"/>
+      <c r="C277" s="191"/>
       <c r="D277" s="97"/>
       <c r="E277" s="97"/>
       <c r="F277" s="97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G277" s="97" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="19"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="171"/>
-      <c r="B278" s="224"/>
+      <c r="B278" s="114"/>
       <c r="C278" s="19"/>
-      <c r="D278" s="188"/>
-      <c r="E278" s="188"/>
-      <c r="F278" s="188" t="s">
-        <v>67</v>
+      <c r="D278" s="97"/>
+      <c r="E278" s="97"/>
+      <c r="F278" s="97" t="s">
+        <v>59</v>
       </c>
       <c r="G278" s="97" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="19"/>
@@ -7048,14 +7294,14 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="171"/>
       <c r="B279" s="114"/>
-      <c r="C279" s="191"/>
+      <c r="C279" s="19"/>
       <c r="D279" s="97"/>
       <c r="E279" s="97"/>
       <c r="F279" s="97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G279" s="97" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="H279" s="39"/>
       <c r="I279" s="19"/>
@@ -7067,55 +7313,55 @@
       <c r="D280" s="97"/>
       <c r="E280" s="97"/>
       <c r="F280" s="97" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G280" s="97" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H280" s="39"/>
       <c r="I280" s="19"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="171"/>
       <c r="B281" s="114"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="97"/>
-      <c r="E281" s="97"/>
-      <c r="F281" s="97" t="s">
-        <v>69</v>
+      <c r="C281" s="39"/>
+      <c r="D281" s="189"/>
+      <c r="E281" s="189"/>
+      <c r="F281" s="192" t="s">
+        <v>71</v>
       </c>
       <c r="G281" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="H281" s="39"/>
-      <c r="I281" s="19"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="H281" s="40"/>
+      <c r="I281" s="39"/>
+    </row>
+    <row r="282" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="171"/>
       <c r="B282" s="114"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="97"/>
-      <c r="E282" s="97"/>
-      <c r="F282" s="97" t="s">
-        <v>70</v>
+      <c r="C282" s="39"/>
+      <c r="D282" s="190"/>
+      <c r="E282" s="190"/>
+      <c r="F282" s="190" t="s">
+        <v>86</v>
       </c>
       <c r="G282" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="H282" s="39"/>
-      <c r="I282" s="19"/>
+        <v>266</v>
+      </c>
+      <c r="H282" s="40"/>
+      <c r="I282" s="39"/>
     </row>
     <row r="283" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="171"/>
       <c r="B283" s="114"/>
       <c r="C283" s="39"/>
-      <c r="D283" s="189"/>
-      <c r="E283" s="189"/>
-      <c r="F283" s="192" t="s">
-        <v>71</v>
+      <c r="D283" s="190"/>
+      <c r="E283" s="190"/>
+      <c r="F283" s="190" t="s">
+        <v>72</v>
       </c>
       <c r="G283" s="97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H283" s="40"/>
       <c r="I283" s="39"/>
@@ -7124,13 +7370,13 @@
       <c r="A284" s="171"/>
       <c r="B284" s="114"/>
       <c r="C284" s="39"/>
-      <c r="D284" s="190"/>
-      <c r="E284" s="190"/>
-      <c r="F284" s="190" t="s">
-        <v>86</v>
-      </c>
-      <c r="G284" s="97" t="s">
-        <v>269</v>
+      <c r="D284" s="97"/>
+      <c r="E284" s="97"/>
+      <c r="F284" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G284" s="193" t="s">
+        <v>88</v>
       </c>
       <c r="H284" s="40"/>
       <c r="I284" s="39"/>
@@ -7139,13 +7385,13 @@
       <c r="A285" s="171"/>
       <c r="B285" s="114"/>
       <c r="C285" s="39"/>
-      <c r="D285" s="190"/>
-      <c r="E285" s="190"/>
-      <c r="F285" s="190" t="s">
-        <v>72</v>
-      </c>
-      <c r="G285" s="97" t="s">
-        <v>269</v>
+      <c r="D285" s="97"/>
+      <c r="E285" s="97"/>
+      <c r="F285" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G285" s="193" t="s">
+        <v>81</v>
       </c>
       <c r="H285" s="40"/>
       <c r="I285" s="39"/>
@@ -7157,10 +7403,10 @@
       <c r="D286" s="97"/>
       <c r="E286" s="97"/>
       <c r="F286" s="97" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G286" s="193" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H286" s="40"/>
       <c r="I286" s="39"/>
@@ -7169,13 +7415,13 @@
       <c r="A287" s="171"/>
       <c r="B287" s="114"/>
       <c r="C287" s="39"/>
-      <c r="D287" s="97"/>
-      <c r="E287" s="97"/>
-      <c r="F287" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="G287" s="193" t="s">
-        <v>81</v>
+      <c r="D287" s="188"/>
+      <c r="E287" s="188"/>
+      <c r="F287" s="188" t="s">
+        <v>75</v>
+      </c>
+      <c r="G287" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="H287" s="40"/>
       <c r="I287" s="39"/>
@@ -7187,10 +7433,10 @@
       <c r="D288" s="97"/>
       <c r="E288" s="97"/>
       <c r="F288" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="G288" s="193" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="G288" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="H288" s="40"/>
       <c r="I288" s="39"/>
@@ -7202,10 +7448,10 @@
       <c r="D289" s="188"/>
       <c r="E289" s="188"/>
       <c r="F289" s="188" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G289" s="97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H289" s="40"/>
       <c r="I289" s="39"/>
@@ -7217,10 +7463,10 @@
       <c r="D290" s="97"/>
       <c r="E290" s="97"/>
       <c r="F290" s="97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G290" s="97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H290" s="40"/>
       <c r="I290" s="39"/>
@@ -7229,124 +7475,124 @@
       <c r="A291" s="171"/>
       <c r="B291" s="114"/>
       <c r="C291" s="39"/>
-      <c r="D291" s="188"/>
-      <c r="E291" s="188"/>
-      <c r="F291" s="188" t="s">
-        <v>78</v>
-      </c>
-      <c r="G291" s="97" t="s">
-        <v>269</v>
+      <c r="D291" s="39"/>
+      <c r="E291" s="39"/>
+      <c r="F291" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="G291" s="193" t="s">
+        <v>254</v>
       </c>
       <c r="H291" s="40"/>
-      <c r="I291" s="39"/>
+      <c r="I291" s="97" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="292" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="171"/>
       <c r="B292" s="114"/>
       <c r="C292" s="39"/>
-      <c r="D292" s="97"/>
-      <c r="E292" s="97"/>
-      <c r="F292" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="G292" s="97" t="s">
-        <v>269</v>
-      </c>
+      <c r="D292" s="39"/>
+      <c r="E292" s="39"/>
+      <c r="F292" s="39"/>
+      <c r="G292" s="40"/>
       <c r="H292" s="40"/>
       <c r="I292" s="39"/>
     </row>
-    <row r="293" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="171"/>
-      <c r="B293" s="114"/>
-      <c r="C293" s="39"/>
-      <c r="D293" s="39"/>
-      <c r="E293" s="39"/>
-      <c r="F293" s="97" t="s">
+      <c r="B293" s="231" t="s">
         <v>256</v>
       </c>
-      <c r="G293" s="193" t="s">
+      <c r="C293" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="D293" s="119"/>
+      <c r="E293" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="H293" s="40"/>
-      <c r="I293" s="97" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F293" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G293" s="37"/>
+      <c r="H293" s="38"/>
+      <c r="I293" s="28"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="171"/>
-      <c r="B294" s="114"/>
-      <c r="C294" s="39"/>
-      <c r="D294" s="39"/>
-      <c r="E294" s="39"/>
-      <c r="F294" s="39"/>
-      <c r="G294" s="40"/>
-      <c r="H294" s="40"/>
-      <c r="I294" s="39"/>
-    </row>
-    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="231"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F294" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G294" s="194" t="s">
+        <v>80</v>
+      </c>
+      <c r="H294" s="38"/>
+      <c r="I294" s="28"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="171"/>
-      <c r="B295" s="201" t="s">
+      <c r="B295" s="231"/>
+      <c r="C295" s="35"/>
+      <c r="D295" s="120"/>
+      <c r="E295" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C295" s="247" t="s">
-        <v>128</v>
-      </c>
-      <c r="D295" s="119"/>
-      <c r="E295" s="119" t="s">
-        <v>260</v>
-      </c>
       <c r="F295" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G295" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="G295" s="85" t="s">
+        <v>25</v>
+      </c>
       <c r="H295" s="38"/>
       <c r="I295" s="28"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="171"/>
-      <c r="B296" s="201"/>
-      <c r="C296" s="35"/>
-      <c r="D296" s="28"/>
-      <c r="E296" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="F296" s="28" t="s">
-        <v>134</v>
+      <c r="B296" s="28"/>
+      <c r="C296" s="28"/>
+      <c r="D296" s="38"/>
+      <c r="E296" s="194"/>
+      <c r="F296" s="85" t="s">
+        <v>261</v>
       </c>
       <c r="G296" s="194" t="s">
-        <v>80</v>
-      </c>
-      <c r="H296" s="38"/>
-      <c r="I296" s="28"/>
+        <v>267</v>
+      </c>
+      <c r="H296" s="83"/>
+      <c r="I296" s="38"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="171"/>
-      <c r="B297" s="201"/>
-      <c r="C297" s="35"/>
-      <c r="D297" s="120"/>
-      <c r="E297" s="28" t="s">
+      <c r="B297" s="28"/>
+      <c r="C297" s="28"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="38"/>
+      <c r="F297" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="F297" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G297" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="H297" s="38"/>
-      <c r="I297" s="28"/>
+      <c r="G297" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="H297" s="83"/>
+      <c r="I297" s="38"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="171"/>
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
       <c r="D298" s="38"/>
-      <c r="E298" s="194"/>
+      <c r="E298" s="38"/>
       <c r="F298" s="85" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="G298" s="194" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H298" s="83"/>
       <c r="I298" s="38"/>
@@ -7355,13 +7601,13 @@
       <c r="A299" s="171"/>
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
-      <c r="D299" s="28"/>
+      <c r="D299" s="38"/>
       <c r="E299" s="38"/>
       <c r="F299" s="85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G299" s="194" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H299" s="83"/>
       <c r="I299" s="38"/>
@@ -7373,13 +7619,13 @@
       <c r="D300" s="38"/>
       <c r="E300" s="38"/>
       <c r="F300" s="85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G300" s="194" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H300" s="83"/>
-      <c r="I300" s="38"/>
+      <c r="I300" s="84"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="171"/>
@@ -7388,10 +7634,10 @@
       <c r="D301" s="38"/>
       <c r="E301" s="38"/>
       <c r="F301" s="85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G301" s="194" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="H301" s="83"/>
       <c r="I301" s="38"/>
@@ -7401,15 +7647,17 @@
       <c r="B302" s="28"/>
       <c r="C302" s="28"/>
       <c r="D302" s="38"/>
-      <c r="E302" s="38"/>
+      <c r="E302" s="85" t="s">
+        <v>268</v>
+      </c>
       <c r="F302" s="85" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G302" s="194" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H302" s="83"/>
-      <c r="I302" s="84"/>
+      <c r="I302" s="38"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="171"/>
@@ -7418,10 +7666,10 @@
       <c r="D303" s="38"/>
       <c r="E303" s="38"/>
       <c r="F303" s="85" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="G303" s="194" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="H303" s="83"/>
       <c r="I303" s="38"/>
@@ -7431,14 +7679,12 @@
       <c r="B304" s="28"/>
       <c r="C304" s="28"/>
       <c r="D304" s="38"/>
-      <c r="E304" s="85" t="s">
-        <v>271</v>
-      </c>
+      <c r="E304" s="38"/>
       <c r="F304" s="85" t="s">
         <v>156</v>
       </c>
       <c r="G304" s="194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H304" s="83"/>
       <c r="I304" s="38"/>
@@ -7450,10 +7696,10 @@
       <c r="D305" s="38"/>
       <c r="E305" s="38"/>
       <c r="F305" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G305" s="194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H305" s="83"/>
       <c r="I305" s="38"/>
@@ -7464,11 +7710,11 @@
       <c r="C306" s="28"/>
       <c r="D306" s="38"/>
       <c r="E306" s="38"/>
-      <c r="F306" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="G306" s="194" t="s">
-        <v>269</v>
+      <c r="F306" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="G306" s="199" t="s">
+        <v>271</v>
       </c>
       <c r="H306" s="83"/>
       <c r="I306" s="38"/>
@@ -7479,11 +7725,11 @@
       <c r="C307" s="28"/>
       <c r="D307" s="38"/>
       <c r="E307" s="38"/>
-      <c r="F307" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="G307" s="194" t="s">
-        <v>269</v>
+      <c r="F307" s="197" t="s">
+        <v>163</v>
+      </c>
+      <c r="G307" s="200" t="s">
+        <v>272</v>
       </c>
       <c r="H307" s="83"/>
       <c r="I307" s="38"/>
@@ -7494,11 +7740,11 @@
       <c r="C308" s="28"/>
       <c r="D308" s="38"/>
       <c r="E308" s="38"/>
-      <c r="F308" s="198" t="s">
-        <v>157</v>
-      </c>
-      <c r="G308" s="199" t="s">
-        <v>274</v>
+      <c r="F308" s="197" t="s">
+        <v>269</v>
+      </c>
+      <c r="G308" s="196" t="s">
+        <v>181</v>
       </c>
       <c r="H308" s="83"/>
       <c r="I308" s="38"/>
@@ -7507,28 +7753,28 @@
       <c r="A309" s="171"/>
       <c r="B309" s="28"/>
       <c r="C309" s="28"/>
-      <c r="D309" s="38"/>
+      <c r="D309" s="120"/>
       <c r="E309" s="38"/>
-      <c r="F309" s="197" t="s">
-        <v>166</v>
-      </c>
-      <c r="G309" s="200" t="s">
-        <v>275</v>
-      </c>
+      <c r="F309" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G309" s="194"/>
       <c r="H309" s="83"/>
       <c r="I309" s="38"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A310" s="171"/>
       <c r="B310" s="28"/>
       <c r="C310" s="28"/>
       <c r="D310" s="38"/>
-      <c r="E310" s="38"/>
+      <c r="E310" s="197" t="s">
+        <v>67</v>
+      </c>
       <c r="F310" s="197" t="s">
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="G310" s="196" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="H310" s="83"/>
       <c r="I310" s="38"/>
@@ -7537,29 +7783,27 @@
       <c r="A311" s="171"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
-      <c r="D311" s="120"/>
+      <c r="D311" s="38"/>
       <c r="E311" s="38"/>
       <c r="F311" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="G311" s="194"/>
+      <c r="G311" s="194" t="s">
+        <v>276</v>
+      </c>
       <c r="H311" s="83"/>
       <c r="I311" s="38"/>
     </row>
-    <row r="312" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="171"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
       <c r="D312" s="38"/>
-      <c r="E312" s="197" t="s">
-        <v>67</v>
-      </c>
-      <c r="F312" s="197" t="s">
-        <v>67</v>
-      </c>
-      <c r="G312" s="196" t="s">
-        <v>85</v>
-      </c>
+      <c r="E312" s="38"/>
+      <c r="F312" s="195" t="s">
+        <v>274</v>
+      </c>
+      <c r="G312" s="196"/>
       <c r="H312" s="83"/>
       <c r="I312" s="38"/>
     </row>
@@ -7570,11 +7814,9 @@
       <c r="D313" s="38"/>
       <c r="E313" s="38"/>
       <c r="F313" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="G313" s="194" t="s">
-        <v>279</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G313" s="194"/>
       <c r="H313" s="83"/>
       <c r="I313" s="38"/>
     </row>
@@ -7585,7 +7827,7 @@
       <c r="D314" s="38"/>
       <c r="E314" s="38"/>
       <c r="F314" s="195" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="G314" s="196"/>
       <c r="H314" s="83"/>
@@ -7598,7 +7840,7 @@
       <c r="D315" s="38"/>
       <c r="E315" s="38"/>
       <c r="F315" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G315" s="194"/>
       <c r="H315" s="83"/>
@@ -7606,59 +7848,65 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="171"/>
-      <c r="B316" s="28"/>
-      <c r="C316" s="28"/>
-      <c r="D316" s="38"/>
-      <c r="E316" s="38"/>
-      <c r="F316" s="195" t="s">
-        <v>200</v>
-      </c>
-      <c r="G316" s="196"/>
-      <c r="H316" s="83"/>
-      <c r="I316" s="38"/>
+      <c r="B316" s="209"/>
+      <c r="C316" s="210"/>
+      <c r="D316" s="211"/>
+      <c r="E316" s="211"/>
+      <c r="F316" s="212" t="s">
+        <v>278</v>
+      </c>
+      <c r="G316" s="213"/>
+      <c r="H316" s="213"/>
+      <c r="I316" s="212" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="171"/>
       <c r="B317" s="28"/>
-      <c r="C317" s="28"/>
-      <c r="D317" s="38"/>
-      <c r="E317" s="38"/>
-      <c r="F317" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="G317" s="194"/>
+      <c r="C317" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="D317" s="119"/>
+      <c r="E317" s="119" t="s">
+        <v>287</v>
+      </c>
+      <c r="F317" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G317" s="37"/>
       <c r="H317" s="83"/>
       <c r="I317" s="38"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="171"/>
-      <c r="B318" s="227"/>
-      <c r="C318" s="228"/>
-      <c r="D318" s="229"/>
-      <c r="E318" s="229"/>
-      <c r="F318" s="230" t="s">
-        <v>281</v>
-      </c>
-      <c r="G318" s="231"/>
-      <c r="H318" s="231"/>
-      <c r="I318" s="230" t="s">
-        <v>291</v>
-      </c>
+      <c r="B318" s="28"/>
+      <c r="C318" s="28"/>
+      <c r="D318" s="38"/>
+      <c r="E318" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F318" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G318" s="194" t="s">
+        <v>80</v>
+      </c>
+      <c r="H318" s="83"/>
+      <c r="I318" s="38"/>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="171"/>
       <c r="B319" s="28"/>
-      <c r="C319" s="247" t="s">
-        <v>128</v>
-      </c>
-      <c r="D319" s="119"/>
-      <c r="E319" s="119" t="s">
-        <v>290</v>
-      </c>
+      <c r="C319" s="28"/>
+      <c r="D319" s="38"/>
+      <c r="E319" s="28"/>
       <c r="F319" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G319" s="37"/>
+        <v>297</v>
+      </c>
+      <c r="G319" s="194" t="s">
+        <v>300</v>
+      </c>
       <c r="H319" s="83"/>
       <c r="I319" s="38"/>
     </row>
@@ -7667,14 +7915,12 @@
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
       <c r="D320" s="38"/>
-      <c r="E320" s="28" t="s">
-        <v>298</v>
-      </c>
+      <c r="E320" s="28"/>
       <c r="F320" s="28" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="G320" s="194" t="s">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="H320" s="83"/>
       <c r="I320" s="38"/>
@@ -7686,25 +7932,25 @@
       <c r="D321" s="38"/>
       <c r="E321" s="28"/>
       <c r="F321" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G321" s="194" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H321" s="83"/>
       <c r="I321" s="38"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A322" s="171"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
       <c r="D322" s="38"/>
       <c r="E322" s="28"/>
-      <c r="F322" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="G322" s="194" t="s">
-        <v>293</v>
+      <c r="F322" s="208" t="s">
+        <v>299</v>
+      </c>
+      <c r="G322" s="207" t="s">
+        <v>232</v>
       </c>
       <c r="H322" s="83"/>
       <c r="I322" s="38"/>
@@ -7714,27 +7960,29 @@
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
       <c r="D323" s="38"/>
-      <c r="E323" s="28"/>
+      <c r="E323" s="28" t="s">
+        <v>259</v>
+      </c>
       <c r="F323" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="G323" s="194" t="s">
-        <v>294</v>
+        <v>59</v>
+      </c>
+      <c r="G323" s="85" t="s">
+        <v>25</v>
       </c>
       <c r="H323" s="83"/>
       <c r="I323" s="38"/>
     </row>
-    <row r="324" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="171"/>
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
       <c r="D324" s="38"/>
-      <c r="E324" s="28"/>
-      <c r="F324" s="226" t="s">
-        <v>302</v>
-      </c>
-      <c r="G324" s="225" t="s">
-        <v>235</v>
+      <c r="E324" s="194"/>
+      <c r="F324" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="G324" s="194" t="s">
+        <v>267</v>
       </c>
       <c r="H324" s="83"/>
       <c r="I324" s="38"/>
@@ -7744,14 +7992,12 @@
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
       <c r="D325" s="38"/>
-      <c r="E325" s="28" t="s">
+      <c r="E325" s="38"/>
+      <c r="F325" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="F325" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G325" s="85" t="s">
-        <v>25</v>
+      <c r="G325" s="194" t="s">
+        <v>267</v>
       </c>
       <c r="H325" s="83"/>
       <c r="I325" s="38"/>
@@ -7761,12 +8007,12 @@
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
       <c r="D326" s="38"/>
-      <c r="E326" s="194"/>
+      <c r="E326" s="38"/>
       <c r="F326" s="85" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G326" s="194" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="H326" s="83"/>
       <c r="I326" s="38"/>
@@ -7778,10 +8024,10 @@
       <c r="D327" s="38"/>
       <c r="E327" s="38"/>
       <c r="F327" s="85" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G327" s="194" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H327" s="83"/>
       <c r="I327" s="38"/>
@@ -7793,10 +8039,10 @@
       <c r="D328" s="38"/>
       <c r="E328" s="38"/>
       <c r="F328" s="85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G328" s="194" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="H328" s="83"/>
       <c r="I328" s="38"/>
@@ -7808,10 +8054,10 @@
       <c r="D329" s="38"/>
       <c r="E329" s="38"/>
       <c r="F329" s="85" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="G329" s="194" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H329" s="83"/>
       <c r="I329" s="38"/>
@@ -7823,10 +8069,10 @@
       <c r="D330" s="38"/>
       <c r="E330" s="38"/>
       <c r="F330" s="85" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G330" s="194" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="H330" s="83"/>
       <c r="I330" s="38"/>
@@ -7836,15 +8082,19 @@
       <c r="B331" s="28"/>
       <c r="C331" s="28"/>
       <c r="D331" s="38"/>
-      <c r="E331" s="38"/>
+      <c r="E331" s="85" t="s">
+        <v>268</v>
+      </c>
       <c r="F331" s="85" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G331" s="194" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H331" s="83"/>
-      <c r="I331" s="38"/>
+      <c r="I331" s="85" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="171"/>
@@ -7853,31 +8103,31 @@
       <c r="D332" s="38"/>
       <c r="E332" s="38"/>
       <c r="F332" s="85" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="G332" s="194" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="H332" s="83"/>
-      <c r="I332" s="38"/>
+      <c r="I332" s="85" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="171"/>
       <c r="B333" s="28"/>
       <c r="C333" s="28"/>
       <c r="D333" s="38"/>
-      <c r="E333" s="85" t="s">
-        <v>271</v>
-      </c>
+      <c r="E333" s="38"/>
       <c r="F333" s="85" t="s">
         <v>156</v>
       </c>
       <c r="G333" s="194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H333" s="83"/>
       <c r="I333" s="85" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -7887,14 +8137,14 @@
       <c r="D334" s="38"/>
       <c r="E334" s="38"/>
       <c r="F334" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G334" s="194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H334" s="83"/>
       <c r="I334" s="85" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -7903,16 +8153,14 @@
       <c r="C335" s="28"/>
       <c r="D335" s="38"/>
       <c r="E335" s="38"/>
-      <c r="F335" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="G335" s="194" t="s">
-        <v>269</v>
+      <c r="F335" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="G335" s="199" t="s">
+        <v>271</v>
       </c>
       <c r="H335" s="83"/>
-      <c r="I335" s="85" t="s">
-        <v>304</v>
-      </c>
+      <c r="I335" s="38"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="171"/>
@@ -7920,16 +8168,12 @@
       <c r="C336" s="28"/>
       <c r="D336" s="38"/>
       <c r="E336" s="38"/>
-      <c r="F336" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="G336" s="194" t="s">
-        <v>269</v>
-      </c>
+      <c r="F336" s="197" t="s">
+        <v>302</v>
+      </c>
+      <c r="G336" s="200"/>
       <c r="H336" s="83"/>
-      <c r="I336" s="85" t="s">
-        <v>304</v>
-      </c>
+      <c r="I336" s="38"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="171"/>
@@ -7937,11 +8181,11 @@
       <c r="C337" s="28"/>
       <c r="D337" s="38"/>
       <c r="E337" s="38"/>
-      <c r="F337" s="198" t="s">
-        <v>157</v>
-      </c>
-      <c r="G337" s="199" t="s">
-        <v>274</v>
+      <c r="F337" s="197" t="s">
+        <v>269</v>
+      </c>
+      <c r="G337" s="196" t="s">
+        <v>181</v>
       </c>
       <c r="H337" s="83"/>
       <c r="I337" s="38"/>
@@ -7952,10 +8196,10 @@
       <c r="C338" s="28"/>
       <c r="D338" s="38"/>
       <c r="E338" s="38"/>
-      <c r="F338" s="197" t="s">
-        <v>305</v>
-      </c>
-      <c r="G338" s="200"/>
+      <c r="F338" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G338" s="194"/>
       <c r="H338" s="83"/>
       <c r="I338" s="38"/>
     </row>
@@ -7964,13 +8208,13 @@
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
       <c r="D339" s="38"/>
-      <c r="E339" s="38"/>
-      <c r="F339" s="197" t="s">
-        <v>272</v>
-      </c>
-      <c r="G339" s="196" t="s">
-        <v>184</v>
-      </c>
+      <c r="E339" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="F339" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="G339" s="194"/>
       <c r="H339" s="83"/>
       <c r="I339" s="38"/>
     </row>
@@ -7979,9 +8223,9 @@
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
       <c r="D340" s="38"/>
-      <c r="E340" s="38"/>
+      <c r="E340" s="85"/>
       <c r="F340" s="85" t="s">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="G340" s="194"/>
       <c r="H340" s="83"/>
@@ -7992,11 +8236,9 @@
       <c r="B341" s="28"/>
       <c r="C341" s="28"/>
       <c r="D341" s="38"/>
-      <c r="E341" s="85" t="s">
-        <v>306</v>
-      </c>
+      <c r="E341" s="85"/>
       <c r="F341" s="85" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G341" s="194"/>
       <c r="H341" s="83"/>
@@ -8009,7 +8251,7 @@
       <c r="D342" s="38"/>
       <c r="E342" s="85"/>
       <c r="F342" s="85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G342" s="194"/>
       <c r="H342" s="83"/>
@@ -8022,7 +8264,7 @@
       <c r="D343" s="38"/>
       <c r="E343" s="85"/>
       <c r="F343" s="85" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="G343" s="194"/>
       <c r="H343" s="83"/>
@@ -8035,7 +8277,7 @@
       <c r="D344" s="38"/>
       <c r="E344" s="85"/>
       <c r="F344" s="85" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G344" s="194"/>
       <c r="H344" s="83"/>
@@ -8048,7 +8290,7 @@
       <c r="D345" s="38"/>
       <c r="E345" s="85"/>
       <c r="F345" s="85" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G345" s="194"/>
       <c r="H345" s="83"/>
@@ -8061,7 +8303,7 @@
       <c r="D346" s="38"/>
       <c r="E346" s="85"/>
       <c r="F346" s="85" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G346" s="194"/>
       <c r="H346" s="83"/>
@@ -8074,7 +8316,7 @@
       <c r="D347" s="38"/>
       <c r="E347" s="85"/>
       <c r="F347" s="85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G347" s="194"/>
       <c r="H347" s="83"/>
@@ -8085,24 +8327,30 @@
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
       <c r="D348" s="38"/>
-      <c r="E348" s="85"/>
-      <c r="F348" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="G348" s="194"/>
+      <c r="E348" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="F348" s="85"/>
+      <c r="G348" s="194" t="s">
+        <v>290</v>
+      </c>
       <c r="H348" s="83"/>
       <c r="I348" s="38"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A349" s="171"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
       <c r="D349" s="38"/>
-      <c r="E349" s="85"/>
-      <c r="F349" s="85" t="s">
-        <v>309</v>
-      </c>
-      <c r="G349" s="194"/>
+      <c r="E349" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="F349" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="G349" s="196" t="s">
+        <v>85</v>
+      </c>
       <c r="H349" s="83"/>
       <c r="I349" s="38"/>
     </row>
@@ -8111,29 +8359,27 @@
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
       <c r="D350" s="38"/>
-      <c r="E350" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="F350" s="85"/>
+      <c r="E350" s="38"/>
+      <c r="F350" s="85" t="s">
+        <v>273</v>
+      </c>
       <c r="G350" s="194" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H350" s="83"/>
       <c r="I350" s="38"/>
     </row>
-    <row r="351" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="171"/>
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
       <c r="D351" s="38"/>
-      <c r="E351" s="197" t="s">
-        <v>67</v>
-      </c>
-      <c r="F351" s="197" t="s">
-        <v>67</v>
-      </c>
-      <c r="G351" s="196" t="s">
-        <v>85</v>
+      <c r="E351" s="38"/>
+      <c r="F351" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="G351" s="194" t="s">
+        <v>312</v>
       </c>
       <c r="H351" s="83"/>
       <c r="I351" s="38"/>
@@ -8144,12 +8390,10 @@
       <c r="C352" s="28"/>
       <c r="D352" s="38"/>
       <c r="E352" s="38"/>
-      <c r="F352" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="G352" s="194" t="s">
-        <v>315</v>
-      </c>
+      <c r="F352" s="195" t="s">
+        <v>274</v>
+      </c>
+      <c r="G352" s="196"/>
       <c r="H352" s="83"/>
       <c r="I352" s="38"/>
     </row>
@@ -8159,12 +8403,10 @@
       <c r="C353" s="28"/>
       <c r="D353" s="38"/>
       <c r="E353" s="38"/>
-      <c r="F353" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="G353" s="194" t="s">
-        <v>315</v>
-      </c>
+      <c r="F353" s="195" t="s">
+        <v>309</v>
+      </c>
+      <c r="G353" s="196"/>
       <c r="H353" s="83"/>
       <c r="I353" s="38"/>
     </row>
@@ -8174,10 +8416,10 @@
       <c r="C354" s="28"/>
       <c r="D354" s="38"/>
       <c r="E354" s="38"/>
-      <c r="F354" s="195" t="s">
-        <v>277</v>
-      </c>
-      <c r="G354" s="196"/>
+      <c r="F354" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="G354" s="194"/>
       <c r="H354" s="83"/>
       <c r="I354" s="38"/>
     </row>
@@ -8188,7 +8430,7 @@
       <c r="D355" s="38"/>
       <c r="E355" s="38"/>
       <c r="F355" s="195" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="G355" s="196"/>
       <c r="H355" s="83"/>
@@ -8199,715 +8441,1347 @@
       <c r="B356" s="28"/>
       <c r="C356" s="28"/>
       <c r="D356" s="38"/>
-      <c r="E356" s="38"/>
+      <c r="E356" s="85" t="s">
+        <v>310</v>
+      </c>
       <c r="F356" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G356" s="194"/>
       <c r="H356" s="83"/>
-      <c r="I356" s="38"/>
+      <c r="I356" s="84"/>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="171"/>
       <c r="B357" s="28"/>
       <c r="C357" s="28"/>
       <c r="D357" s="38"/>
-      <c r="E357" s="38"/>
-      <c r="F357" s="195" t="s">
-        <v>200</v>
-      </c>
-      <c r="G357" s="196"/>
+      <c r="E357" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="F357" s="85"/>
+      <c r="G357" s="194" t="s">
+        <v>290</v>
+      </c>
       <c r="H357" s="83"/>
       <c r="I357" s="38"/>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="171"/>
-      <c r="B358" s="28"/>
-      <c r="C358" s="28"/>
-      <c r="D358" s="38"/>
-      <c r="E358" s="85" t="s">
+      <c r="B358" s="230" t="s">
         <v>313</v>
       </c>
-      <c r="F358" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="G358" s="194"/>
-      <c r="H358" s="83"/>
-      <c r="I358" s="84"/>
+      <c r="C358" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="D358" s="121"/>
+      <c r="E358" s="121" t="s">
+        <v>314</v>
+      </c>
+      <c r="F358" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G358" s="87"/>
+      <c r="H358" s="87"/>
+      <c r="I358" s="27"/>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="171"/>
-      <c r="B359" s="28"/>
-      <c r="C359" s="28"/>
-      <c r="D359" s="38"/>
-      <c r="E359" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="F359" s="85"/>
-      <c r="G359" s="194" t="s">
-        <v>293</v>
-      </c>
-      <c r="H359" s="83"/>
-      <c r="I359" s="38"/>
+      <c r="B359" s="230"/>
+      <c r="C359" s="225"/>
+      <c r="D359" s="122"/>
+      <c r="E359" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="F359" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="G359" s="248" t="s">
+        <v>80</v>
+      </c>
+      <c r="H359" s="93"/>
+      <c r="I359" s="88"/>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="171"/>
-      <c r="B360" s="244" t="s">
-        <v>316</v>
-      </c>
-      <c r="C360" s="247" t="s">
-        <v>128</v>
-      </c>
-      <c r="D360" s="121"/>
-      <c r="E360" s="121" t="s">
-        <v>317</v>
-      </c>
-      <c r="F360" s="27"/>
-      <c r="G360" s="87"/>
-      <c r="H360" s="87"/>
-      <c r="I360" s="27"/>
+      <c r="B360" s="230"/>
+      <c r="C360" s="225"/>
+      <c r="D360" s="88"/>
+      <c r="E360" s="88"/>
+      <c r="F360" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="G360" s="248" t="s">
+        <v>300</v>
+      </c>
+      <c r="H360" s="93"/>
+      <c r="I360" s="88"/>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="171"/>
-      <c r="B361" s="244"/>
-      <c r="C361" s="243"/>
-      <c r="D361" s="122"/>
-      <c r="E361" s="88"/>
-      <c r="F361" s="88"/>
-      <c r="G361" s="93"/>
+      <c r="B361" s="230"/>
+      <c r="C361" s="225"/>
+      <c r="D361" s="88"/>
+      <c r="E361" s="92"/>
+      <c r="F361" s="92" t="s">
+        <v>315</v>
+      </c>
+      <c r="G361" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H361" s="93"/>
-      <c r="I361" s="88"/>
+      <c r="I361" s="94"/>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="171"/>
-      <c r="B362" s="244"/>
-      <c r="C362" s="243"/>
+      <c r="B362" s="230"/>
+      <c r="C362" s="225"/>
       <c r="D362" s="88"/>
       <c r="E362" s="88"/>
-      <c r="F362" s="88"/>
-      <c r="G362" s="93"/>
+      <c r="F362" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="G362" s="248" t="s">
+        <v>291</v>
+      </c>
       <c r="H362" s="93"/>
       <c r="I362" s="88"/>
     </row>
-    <row r="363" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="171"/>
-      <c r="B363" s="244"/>
-      <c r="C363" s="243"/>
+      <c r="B363" s="230"/>
+      <c r="C363" s="225"/>
       <c r="D363" s="88"/>
-      <c r="E363" s="92"/>
-      <c r="F363" s="92"/>
-      <c r="G363" s="93"/>
+      <c r="E363" s="88"/>
+      <c r="F363" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="G363" s="248" t="s">
+        <v>324</v>
+      </c>
       <c r="H363" s="93"/>
-      <c r="I363" s="94"/>
+      <c r="I363" s="88"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="171"/>
-      <c r="B364" s="244"/>
-      <c r="C364" s="243"/>
+      <c r="B364" s="225"/>
+      <c r="C364" s="27"/>
       <c r="D364" s="88"/>
       <c r="E364" s="88"/>
-      <c r="F364" s="88"/>
-      <c r="G364" s="93"/>
+      <c r="F364" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="G364" s="248" t="s">
+        <v>319</v>
+      </c>
       <c r="H364" s="93"/>
       <c r="I364" s="88"/>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="171"/>
-      <c r="B365" s="244"/>
-      <c r="C365" s="243"/>
+      <c r="B365" s="225"/>
+      <c r="C365" s="27"/>
       <c r="D365" s="88"/>
       <c r="E365" s="88"/>
-      <c r="F365" s="92"/>
-      <c r="G365" s="93"/>
+      <c r="F365" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="G365" s="248" t="s">
+        <v>318</v>
+      </c>
       <c r="H365" s="93"/>
       <c r="I365" s="88"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="171"/>
-      <c r="B366" s="243"/>
+      <c r="B366" s="225"/>
       <c r="C366" s="27"/>
       <c r="D366" s="88"/>
-      <c r="E366" s="88"/>
-      <c r="F366" s="88"/>
-      <c r="G366" s="93"/>
+      <c r="E366" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="F366" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="G366" s="248" t="s">
+        <v>25</v>
+      </c>
       <c r="H366" s="93"/>
       <c r="I366" s="88"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="171"/>
-      <c r="B367" s="243"/>
+      <c r="B367" s="225"/>
       <c r="C367" s="27"/>
-      <c r="D367" s="88"/>
+      <c r="D367" s="122"/>
       <c r="E367" s="88"/>
-      <c r="F367" s="88"/>
-      <c r="G367" s="93"/>
+      <c r="F367" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="G367" s="248" t="s">
+        <v>267</v>
+      </c>
       <c r="H367" s="93"/>
       <c r="I367" s="88"/>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="171"/>
-      <c r="B368" s="243"/>
+      <c r="B368" s="225"/>
       <c r="C368" s="27"/>
       <c r="D368" s="88"/>
       <c r="E368" s="88"/>
-      <c r="F368" s="88"/>
-      <c r="G368" s="93"/>
+      <c r="F368" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="G368" s="248" t="s">
+        <v>267</v>
+      </c>
       <c r="H368" s="93"/>
       <c r="I368" s="88"/>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="171"/>
-      <c r="B369" s="243"/>
+      <c r="B369" s="225"/>
       <c r="C369" s="27"/>
-      <c r="D369" s="122"/>
+      <c r="D369" s="88"/>
       <c r="E369" s="88"/>
-      <c r="F369" s="88"/>
-      <c r="G369" s="93"/>
+      <c r="F369" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="G369" s="248" t="s">
+        <v>267</v>
+      </c>
       <c r="H369" s="93"/>
       <c r="I369" s="88"/>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="171"/>
-      <c r="B370" s="243"/>
+      <c r="B370" s="225"/>
       <c r="C370" s="27"/>
       <c r="D370" s="88"/>
       <c r="E370" s="88"/>
-      <c r="F370" s="88"/>
-      <c r="G370" s="93"/>
+      <c r="F370" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="G370" s="248" t="s">
+        <v>267</v>
+      </c>
       <c r="H370" s="93"/>
       <c r="I370" s="88"/>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="171"/>
-      <c r="B371" s="243"/>
+      <c r="B371" s="225"/>
       <c r="C371" s="27"/>
       <c r="D371" s="88"/>
       <c r="E371" s="88"/>
-      <c r="F371" s="88"/>
-      <c r="G371" s="93"/>
+      <c r="F371" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="G371" s="248" t="s">
+        <v>267</v>
+      </c>
       <c r="H371" s="93"/>
       <c r="I371" s="88"/>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="171"/>
-      <c r="B372" s="243"/>
+      <c r="B372" s="225"/>
       <c r="C372" s="27"/>
       <c r="D372" s="88"/>
       <c r="E372" s="88"/>
-      <c r="F372" s="88"/>
-      <c r="G372" s="93"/>
+      <c r="F372" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="G372" s="248" t="s">
+        <v>267</v>
+      </c>
       <c r="H372" s="93"/>
       <c r="I372" s="88"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="171"/>
-      <c r="B373" s="243"/>
+      <c r="B373" s="225"/>
       <c r="C373" s="27"/>
       <c r="D373" s="88"/>
       <c r="E373" s="88"/>
-      <c r="F373" s="88"/>
-      <c r="G373" s="93"/>
+      <c r="F373" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="G373" s="249" t="s">
+        <v>320</v>
+      </c>
       <c r="H373" s="93"/>
       <c r="I373" s="88"/>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="171"/>
-      <c r="B374" s="243"/>
+      <c r="B374" s="225"/>
       <c r="C374" s="27"/>
-      <c r="D374" s="88"/>
-      <c r="E374" s="88"/>
-      <c r="F374" s="88"/>
-      <c r="G374" s="93"/>
+      <c r="D374" s="122"/>
+      <c r="E374" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F374" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G374" s="248" t="s">
+        <v>323</v>
+      </c>
       <c r="H374" s="93"/>
       <c r="I374" s="88"/>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="171"/>
-      <c r="B375" s="243"/>
+      <c r="B375" s="225"/>
       <c r="C375" s="27"/>
       <c r="D375" s="88"/>
       <c r="E375" s="88"/>
-      <c r="F375" s="88"/>
-      <c r="G375" s="93"/>
+      <c r="F375" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="G375" s="248" t="s">
+        <v>80</v>
+      </c>
       <c r="H375" s="93"/>
       <c r="I375" s="88"/>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="171"/>
-      <c r="B376" s="243"/>
+      <c r="B376" s="225"/>
       <c r="C376" s="27"/>
-      <c r="D376" s="122"/>
-      <c r="E376" s="92"/>
-      <c r="F376" s="88"/>
-      <c r="G376" s="93"/>
+      <c r="D376" s="88"/>
+      <c r="E376" s="88"/>
+      <c r="F376" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="G376" s="248" t="s">
+        <v>80</v>
+      </c>
       <c r="H376" s="93"/>
       <c r="I376" s="88"/>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="171"/>
-      <c r="B377" s="243"/>
+      <c r="B377" s="225"/>
       <c r="C377" s="27"/>
       <c r="D377" s="88"/>
       <c r="E377" s="88"/>
-      <c r="F377" s="88"/>
-      <c r="G377" s="93"/>
+      <c r="F377" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="G377" s="248" t="s">
+        <v>325</v>
+      </c>
       <c r="H377" s="93"/>
       <c r="I377" s="88"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="171"/>
-      <c r="B378" s="243"/>
+      <c r="B378" s="225"/>
       <c r="C378" s="27"/>
       <c r="D378" s="88"/>
       <c r="E378" s="88"/>
-      <c r="F378" s="88"/>
-      <c r="G378" s="93"/>
+      <c r="F378" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G378" s="248" t="s">
+        <v>271</v>
+      </c>
       <c r="H378" s="93"/>
       <c r="I378" s="88"/>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="171"/>
-      <c r="B379" s="243"/>
+      <c r="B379" s="225"/>
       <c r="C379" s="27"/>
       <c r="D379" s="88"/>
       <c r="E379" s="88"/>
-      <c r="F379" s="88"/>
-      <c r="G379" s="93"/>
+      <c r="F379" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="G379" s="248" t="s">
+        <v>342</v>
+      </c>
       <c r="H379" s="93"/>
-      <c r="I379" s="88"/>
+      <c r="I379" s="92" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="171"/>
-      <c r="B380" s="243"/>
+      <c r="B380" s="225"/>
       <c r="C380" s="27"/>
       <c r="D380" s="88"/>
       <c r="E380" s="88"/>
-      <c r="F380" s="88"/>
-      <c r="G380" s="93"/>
+      <c r="F380" s="92" t="s">
+        <v>321</v>
+      </c>
+      <c r="G380" s="248" t="s">
+        <v>344</v>
+      </c>
       <c r="H380" s="93"/>
-      <c r="I380" s="88"/>
+      <c r="I380" s="92" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="171"/>
-      <c r="B381" s="243"/>
+      <c r="B381" s="225"/>
       <c r="C381" s="27"/>
       <c r="D381" s="88"/>
       <c r="E381" s="88"/>
-      <c r="F381" s="88"/>
-      <c r="G381" s="93"/>
+      <c r="F381" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="G381" s="248" t="s">
+        <v>344</v>
+      </c>
       <c r="H381" s="93"/>
-      <c r="I381" s="88"/>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I381" s="92" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="171"/>
-      <c r="B382" s="243"/>
+      <c r="B382" s="225"/>
       <c r="C382" s="27"/>
-      <c r="D382" s="88"/>
+      <c r="D382" s="123"/>
       <c r="E382" s="88"/>
-      <c r="F382" s="88"/>
-      <c r="G382" s="93"/>
+      <c r="F382" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="G382" s="250" t="s">
+        <v>326</v>
+      </c>
       <c r="H382" s="93"/>
-      <c r="I382" s="88"/>
+      <c r="I382" s="92" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="171"/>
-      <c r="B383" s="243"/>
+      <c r="B383" s="225"/>
       <c r="C383" s="27"/>
       <c r="D383" s="88"/>
-      <c r="E383" s="88"/>
-      <c r="F383" s="88"/>
-      <c r="G383" s="93"/>
+      <c r="E383" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="F383" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="G383" s="248" t="s">
+        <v>333</v>
+      </c>
       <c r="H383" s="93"/>
       <c r="I383" s="88"/>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="171"/>
-      <c r="B384" s="243"/>
+      <c r="B384" s="225"/>
       <c r="C384" s="27"/>
-      <c r="D384" s="123"/>
+      <c r="D384" s="88"/>
       <c r="E384" s="88"/>
-      <c r="F384" s="88"/>
-      <c r="G384" s="93"/>
+      <c r="F384" s="92" t="s">
+        <v>329</v>
+      </c>
+      <c r="G384" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H384" s="93"/>
       <c r="I384" s="88"/>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="171"/>
-      <c r="B385" s="243"/>
+      <c r="B385" s="225"/>
       <c r="C385" s="27"/>
       <c r="D385" s="88"/>
       <c r="E385" s="88"/>
-      <c r="F385" s="88"/>
-      <c r="G385" s="93"/>
+      <c r="F385" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="G385" s="248" t="s">
+        <v>334</v>
+      </c>
       <c r="H385" s="93"/>
       <c r="I385" s="88"/>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="171"/>
-      <c r="B386" s="243"/>
+      <c r="B386" s="225"/>
       <c r="C386" s="27"/>
       <c r="D386" s="88"/>
       <c r="E386" s="88"/>
-      <c r="F386" s="88"/>
-      <c r="G386" s="93"/>
+      <c r="F386" s="92" t="s">
+        <v>331</v>
+      </c>
+      <c r="G386" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H386" s="93"/>
       <c r="I386" s="88"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="171"/>
-      <c r="B387" s="243"/>
+      <c r="B387" s="225"/>
       <c r="C387" s="27"/>
       <c r="D387" s="88"/>
       <c r="E387" s="88"/>
-      <c r="F387" s="88"/>
-      <c r="G387" s="93"/>
+      <c r="F387" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="G387" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H387" s="93"/>
       <c r="I387" s="88"/>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="171"/>
-      <c r="B388" s="243"/>
+      <c r="B388" s="225"/>
       <c r="C388" s="27"/>
       <c r="D388" s="88"/>
       <c r="E388" s="88"/>
-      <c r="F388" s="88"/>
-      <c r="G388" s="93"/>
+      <c r="F388" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G388" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H388" s="93"/>
       <c r="I388" s="88"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="171"/>
-      <c r="B389" s="243"/>
+      <c r="B389" s="225"/>
       <c r="C389" s="27"/>
       <c r="D389" s="88"/>
       <c r="E389" s="88"/>
-      <c r="F389" s="88"/>
-      <c r="G389" s="93"/>
+      <c r="F389" s="92" t="s">
+        <v>335</v>
+      </c>
+      <c r="G389" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H389" s="93"/>
       <c r="I389" s="88"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="171"/>
-      <c r="B390" s="243"/>
+      <c r="B390" s="225"/>
       <c r="C390" s="27"/>
       <c r="D390" s="88"/>
       <c r="E390" s="88"/>
-      <c r="F390" s="88"/>
-      <c r="G390" s="93"/>
+      <c r="F390" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="G390" s="250" t="s">
+        <v>336</v>
+      </c>
       <c r="H390" s="93"/>
       <c r="I390" s="88"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="171"/>
-      <c r="B391" s="243"/>
+      <c r="B391" s="225"/>
       <c r="C391" s="27"/>
       <c r="D391" s="88"/>
       <c r="E391" s="88"/>
-      <c r="F391" s="88"/>
-      <c r="G391" s="93"/>
+      <c r="F391" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="G391" s="250" t="s">
+        <v>337</v>
+      </c>
       <c r="H391" s="93"/>
       <c r="I391" s="88"/>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="171"/>
-      <c r="B392" s="243"/>
+      <c r="B392" s="225"/>
       <c r="C392" s="27"/>
       <c r="D392" s="88"/>
       <c r="E392" s="88"/>
-      <c r="F392" s="88"/>
-      <c r="G392" s="93"/>
+      <c r="F392" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="G392" s="248" t="s">
+        <v>290</v>
+      </c>
       <c r="H392" s="93"/>
       <c r="I392" s="88"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="171"/>
-      <c r="C393" s="30"/>
-      <c r="D393" s="124"/>
-      <c r="E393" s="30"/>
-      <c r="F393" s="30"/>
-      <c r="G393" s="95"/>
-      <c r="H393" s="95"/>
-      <c r="I393" s="30"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B393" s="225"/>
+      <c r="C393" s="27"/>
+      <c r="D393" s="88"/>
+      <c r="E393" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="F393" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="G393" s="250" t="s">
+        <v>340</v>
+      </c>
+      <c r="H393" s="93"/>
+      <c r="I393" s="92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A394" s="171"/>
-      <c r="C394" s="30"/>
-      <c r="D394" s="124"/>
-      <c r="E394" s="30"/>
-      <c r="F394" s="30"/>
-      <c r="G394" s="95"/>
-      <c r="H394" s="95"/>
-      <c r="I394" s="30"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B394" s="225"/>
+      <c r="C394" s="27"/>
+      <c r="D394" s="88"/>
+      <c r="E394" s="88"/>
+      <c r="F394" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="G394" s="250" t="s">
+        <v>341</v>
+      </c>
+      <c r="H394" s="93"/>
+      <c r="I394" s="88"/>
+    </row>
+    <row r="395" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A395" s="171"/>
-      <c r="C395" s="30"/>
-      <c r="D395" s="30"/>
-      <c r="E395" s="30"/>
-      <c r="F395" s="30"/>
-      <c r="G395" s="95"/>
-      <c r="H395" s="95"/>
-      <c r="I395" s="30"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B395" s="225"/>
+      <c r="C395" s="27"/>
+      <c r="D395" s="88"/>
+      <c r="E395" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="F395" s="251" t="s">
+        <v>351</v>
+      </c>
+      <c r="G395" s="248" t="s">
+        <v>349</v>
+      </c>
+      <c r="H395" s="93"/>
+      <c r="I395" s="92" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="171"/>
-      <c r="C396" s="30"/>
-      <c r="D396" s="30"/>
-      <c r="E396" s="30"/>
-      <c r="F396" s="30"/>
-      <c r="G396" s="95"/>
-      <c r="H396" s="95"/>
-      <c r="I396" s="30"/>
+      <c r="B396" s="225"/>
+      <c r="C396" s="27"/>
+      <c r="D396" s="88"/>
+      <c r="E396" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="F396" s="251" t="s">
+        <v>352</v>
+      </c>
+      <c r="G396" s="248" t="s">
+        <v>349</v>
+      </c>
+      <c r="H396" s="93"/>
+      <c r="I396" s="92" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="171"/>
-      <c r="C397" s="30"/>
-      <c r="D397" s="124"/>
-      <c r="E397" s="30"/>
-      <c r="F397" s="30"/>
-      <c r="G397" s="95"/>
-      <c r="H397" s="95"/>
-      <c r="I397" s="30"/>
+      <c r="B397" s="225"/>
+      <c r="C397" s="27"/>
+      <c r="D397" s="88"/>
+      <c r="E397" s="88"/>
+      <c r="F397" s="92"/>
+      <c r="G397" s="93"/>
+      <c r="H397" s="93"/>
+      <c r="I397" s="88"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="171"/>
-      <c r="C398" s="30"/>
-      <c r="D398" s="124"/>
-      <c r="E398" s="30"/>
-      <c r="F398" s="30"/>
-      <c r="G398" s="95"/>
-      <c r="H398" s="95"/>
-      <c r="I398" s="30"/>
+      <c r="B398" s="225"/>
+      <c r="C398" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D398" s="88"/>
+      <c r="E398" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="F398" s="92"/>
+      <c r="G398" s="93"/>
+      <c r="H398" s="93"/>
+      <c r="I398" s="92" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="171"/>
-      <c r="C399" s="30"/>
-      <c r="D399" s="124"/>
-      <c r="E399" s="30"/>
-      <c r="F399" s="30"/>
-      <c r="G399" s="95"/>
-      <c r="H399" s="95"/>
-      <c r="I399" s="30"/>
+      <c r="B399" s="225"/>
+      <c r="C399" s="27"/>
+      <c r="D399" s="88"/>
+      <c r="E399" s="186" t="s">
+        <v>131</v>
+      </c>
+      <c r="F399" s="252" t="s">
+        <v>363</v>
+      </c>
+      <c r="G399" s="248" t="s">
+        <v>309</v>
+      </c>
+      <c r="H399" s="248" t="s">
+        <v>362</v>
+      </c>
+      <c r="I399" s="92" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="171"/>
-      <c r="C400" s="30"/>
-      <c r="D400" s="124"/>
-      <c r="E400" s="30"/>
-      <c r="F400" s="30"/>
-      <c r="G400" s="95"/>
-      <c r="H400" s="95"/>
-      <c r="I400" s="30"/>
+      <c r="B400" s="225"/>
+      <c r="C400" s="27"/>
+      <c r="D400" s="88"/>
+      <c r="E400" s="88"/>
+      <c r="F400" s="252" t="s">
+        <v>203</v>
+      </c>
+      <c r="G400" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="H400" s="248" t="s">
+        <v>368</v>
+      </c>
+      <c r="I400" s="92" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="171"/>
-      <c r="C401" s="30"/>
-      <c r="D401" s="124"/>
-      <c r="E401" s="30"/>
-      <c r="F401" s="30"/>
-      <c r="G401" s="95"/>
-      <c r="H401" s="95"/>
-      <c r="I401" s="30"/>
+      <c r="B401" s="225"/>
+      <c r="C401" s="27"/>
+      <c r="D401" s="88"/>
+      <c r="E401" s="88"/>
+      <c r="F401" s="253" t="s">
+        <v>364</v>
+      </c>
+      <c r="G401" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="H401" s="248" t="s">
+        <v>290</v>
+      </c>
+      <c r="I401" s="92"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="171"/>
-      <c r="C402" s="30"/>
-      <c r="D402" s="124"/>
-      <c r="E402" s="30"/>
-      <c r="F402" s="30"/>
-      <c r="G402" s="95"/>
-      <c r="H402" s="95"/>
-      <c r="I402" s="30"/>
+      <c r="B402" s="225"/>
+      <c r="C402" s="27"/>
+      <c r="D402" s="88"/>
+      <c r="E402" s="88"/>
+      <c r="F402" s="253"/>
+      <c r="G402" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="H402" s="248" t="s">
+        <v>290</v>
+      </c>
+      <c r="I402" s="92"/>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="171"/>
-      <c r="C403" s="30"/>
-      <c r="D403" s="124"/>
-      <c r="E403" s="30"/>
-      <c r="F403" s="30"/>
-      <c r="G403" s="95"/>
-      <c r="H403" s="95"/>
-      <c r="I403" s="30"/>
+      <c r="B403" s="225"/>
+      <c r="C403" s="27"/>
+      <c r="D403" s="88"/>
+      <c r="E403" s="88"/>
+      <c r="F403" s="252" t="s">
+        <v>357</v>
+      </c>
+      <c r="G403" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="H403" s="93"/>
+      <c r="I403" s="88"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="171"/>
-      <c r="C404" s="30"/>
-      <c r="D404" s="30"/>
-      <c r="E404" s="30"/>
-      <c r="F404" s="30"/>
-      <c r="G404" s="95"/>
-      <c r="H404" s="95"/>
-      <c r="I404" s="30"/>
+      <c r="B404" s="225"/>
+      <c r="C404" s="27"/>
+      <c r="D404" s="88"/>
+      <c r="E404" s="88"/>
+      <c r="F404" s="252" t="s">
+        <v>358</v>
+      </c>
+      <c r="G404" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H404" s="248" t="s">
+        <v>25</v>
+      </c>
+      <c r="I404" s="92" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="171"/>
-      <c r="C405" s="30"/>
-      <c r="D405" s="30"/>
-      <c r="E405" s="30"/>
-      <c r="F405" s="30"/>
-      <c r="G405" s="95"/>
-      <c r="H405" s="95"/>
-      <c r="I405" s="30"/>
+      <c r="B405" s="225"/>
+      <c r="C405" s="27"/>
+      <c r="D405" s="88"/>
+      <c r="E405" s="88"/>
+      <c r="F405" s="252"/>
+      <c r="G405" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="H405" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="I405" s="88"/>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="171"/>
-      <c r="C406" s="30"/>
-      <c r="D406" s="30"/>
-      <c r="E406" s="30"/>
-      <c r="F406" s="30"/>
-      <c r="G406" s="95"/>
-      <c r="H406" s="95"/>
-      <c r="I406" s="30"/>
+      <c r="B406" s="225"/>
+      <c r="C406" s="27"/>
+      <c r="D406" s="88"/>
+      <c r="E406" s="88"/>
+      <c r="F406" s="252"/>
+      <c r="G406" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="H406" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="I406" s="88"/>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="171"/>
-      <c r="C407" s="30"/>
-      <c r="D407" s="153"/>
-      <c r="E407" s="30"/>
-      <c r="F407" s="30"/>
-      <c r="G407" s="95"/>
-      <c r="H407" s="95"/>
-      <c r="I407" s="30"/>
+      <c r="B407" s="225"/>
+      <c r="C407" s="27"/>
+      <c r="D407" s="88"/>
+      <c r="E407" s="88"/>
+      <c r="F407" s="252"/>
+      <c r="G407" s="87" t="s">
+        <v>372</v>
+      </c>
+      <c r="H407" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="I407" s="88"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="171"/>
-      <c r="C408" s="30"/>
-      <c r="D408" s="30"/>
-      <c r="E408" s="30"/>
-      <c r="F408" s="30"/>
-      <c r="G408" s="95"/>
-      <c r="H408" s="95"/>
-      <c r="I408" s="30"/>
+      <c r="B408" s="225"/>
+      <c r="C408" s="27"/>
+      <c r="D408" s="88"/>
+      <c r="E408" s="88"/>
+      <c r="F408" s="252"/>
+      <c r="G408" s="87" t="s">
+        <v>373</v>
+      </c>
+      <c r="H408" s="248" t="s">
+        <v>379</v>
+      </c>
+      <c r="I408" s="88"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="171"/>
-      <c r="C409" s="30"/>
-      <c r="D409" s="30"/>
-      <c r="E409" s="30"/>
-      <c r="F409" s="30"/>
-      <c r="G409" s="95"/>
-      <c r="H409" s="95"/>
-      <c r="I409" s="30"/>
+      <c r="B409" s="225"/>
+      <c r="C409" s="27"/>
+      <c r="D409" s="88"/>
+      <c r="E409" s="88"/>
+      <c r="F409" s="252"/>
+      <c r="G409" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="H409" s="248" t="s">
+        <v>378</v>
+      </c>
+      <c r="I409" s="88"/>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="171"/>
-      <c r="C410" s="30"/>
-      <c r="D410" s="30"/>
-      <c r="E410" s="30"/>
-      <c r="F410" s="30"/>
-      <c r="G410" s="95"/>
-      <c r="H410" s="95"/>
-      <c r="I410" s="30"/>
+      <c r="B410" s="225"/>
+      <c r="C410" s="27"/>
+      <c r="D410" s="88"/>
+      <c r="E410" s="88"/>
+      <c r="F410" s="252"/>
+      <c r="G410" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="H410" s="248" t="s">
+        <v>377</v>
+      </c>
+      <c r="I410" s="88"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="171"/>
-      <c r="C411" s="30"/>
-      <c r="D411" s="30"/>
-      <c r="E411" s="30"/>
-      <c r="F411" s="30"/>
-      <c r="G411" s="95"/>
-      <c r="H411" s="95"/>
-      <c r="I411" s="30"/>
+      <c r="B411" s="225"/>
+      <c r="C411" s="27"/>
+      <c r="D411" s="88"/>
+      <c r="E411" s="88"/>
+      <c r="F411" s="252"/>
+      <c r="G411" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="H411" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="I411" s="88"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="171"/>
-      <c r="C412" s="30"/>
-      <c r="D412" s="30"/>
-      <c r="E412" s="30"/>
-      <c r="F412" s="30"/>
-      <c r="G412" s="95"/>
-      <c r="H412" s="95"/>
-      <c r="I412" s="30"/>
+      <c r="B412" s="225"/>
+      <c r="C412" s="27"/>
+      <c r="D412" s="88"/>
+      <c r="E412" s="88"/>
+      <c r="F412" s="252"/>
+      <c r="G412" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="H412" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="I412" s="88"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="171"/>
-      <c r="C413" s="30"/>
-      <c r="D413" s="30"/>
-      <c r="E413" s="30"/>
-      <c r="F413" s="30"/>
-      <c r="G413" s="95"/>
-      <c r="H413" s="95"/>
-      <c r="I413" s="30"/>
+      <c r="B413" s="225"/>
+      <c r="C413" s="27"/>
+      <c r="D413" s="88"/>
+      <c r="E413" s="88"/>
+      <c r="F413" s="252"/>
+      <c r="G413" s="87" t="s">
+        <v>376</v>
+      </c>
+      <c r="H413" s="248" t="s">
+        <v>378</v>
+      </c>
+      <c r="I413" s="88"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="171"/>
-      <c r="C414" s="30"/>
-      <c r="D414" s="30"/>
-      <c r="E414" s="30"/>
-      <c r="F414" s="30"/>
-      <c r="G414" s="95"/>
-      <c r="H414" s="95"/>
-      <c r="I414" s="30"/>
+      <c r="B414" s="225"/>
+      <c r="C414" s="27"/>
+      <c r="D414" s="88"/>
+      <c r="E414" s="88"/>
+      <c r="F414" s="252" t="s">
+        <v>359</v>
+      </c>
+      <c r="G414" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H414" s="248" t="s">
+        <v>383</v>
+      </c>
+      <c r="I414" s="88"/>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="171"/>
-      <c r="C415" s="30"/>
-      <c r="D415" s="30"/>
-      <c r="E415" s="30"/>
-      <c r="F415" s="30"/>
-      <c r="G415" s="95"/>
-      <c r="H415" s="95"/>
-      <c r="I415" s="30"/>
+      <c r="B415" s="225"/>
+      <c r="C415" s="27"/>
+      <c r="D415" s="88"/>
+      <c r="E415" s="88"/>
+      <c r="F415" s="253" t="s">
+        <v>381</v>
+      </c>
+      <c r="G415" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="H415" s="248" t="s">
+        <v>384</v>
+      </c>
+      <c r="I415" s="88"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="171"/>
-      <c r="C416" s="30"/>
-      <c r="D416" s="30"/>
-      <c r="E416" s="30"/>
-      <c r="F416" s="30"/>
-      <c r="G416" s="95"/>
-      <c r="H416" s="95"/>
-      <c r="I416" s="30"/>
+      <c r="B416" s="225"/>
+      <c r="C416" s="27"/>
+      <c r="D416" s="88"/>
+      <c r="E416" s="88"/>
+      <c r="F416" s="253"/>
+      <c r="G416" s="87" t="s">
+        <v>372</v>
+      </c>
+      <c r="H416" s="93"/>
+      <c r="I416" s="88"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="171"/>
-      <c r="C417" s="30"/>
-      <c r="D417" s="30"/>
-      <c r="E417" s="30"/>
-      <c r="F417" s="30"/>
-      <c r="G417" s="95"/>
-      <c r="H417" s="95"/>
-      <c r="I417" s="30"/>
+      <c r="B417" s="225"/>
+      <c r="C417" s="27"/>
+      <c r="D417" s="88"/>
+      <c r="E417" s="88"/>
+      <c r="F417" s="252" t="s">
+        <v>360</v>
+      </c>
+      <c r="G417" s="87"/>
+      <c r="H417" s="93"/>
+      <c r="I417" s="88"/>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="171"/>
-      <c r="C418" s="30"/>
-      <c r="D418" s="30"/>
-      <c r="E418" s="30"/>
-      <c r="F418" s="30"/>
-      <c r="G418" s="95"/>
-      <c r="H418" s="95"/>
-      <c r="I418" s="30"/>
+      <c r="B418" s="225"/>
+      <c r="C418" s="27"/>
+      <c r="D418" s="88"/>
+      <c r="E418" s="88"/>
+      <c r="F418" s="252" t="s">
+        <v>208</v>
+      </c>
+      <c r="G418" s="87"/>
+      <c r="H418" s="93"/>
+      <c r="I418" s="88"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="171"/>
-      <c r="C419" s="30"/>
-      <c r="D419" s="30"/>
-      <c r="E419" s="30"/>
-      <c r="F419" s="30"/>
-      <c r="G419" s="95"/>
-      <c r="H419" s="95"/>
-      <c r="I419" s="30"/>
+      <c r="B419" s="225"/>
+      <c r="C419" s="27"/>
+      <c r="D419" s="88"/>
+      <c r="E419" s="88"/>
+      <c r="F419" s="252" t="s">
+        <v>361</v>
+      </c>
+      <c r="G419" s="87"/>
+      <c r="H419" s="93"/>
+      <c r="I419" s="88"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="171"/>
-      <c r="C420" s="30"/>
-      <c r="D420" s="30"/>
-      <c r="E420" s="30"/>
-      <c r="F420" s="30"/>
-      <c r="G420" s="95"/>
-      <c r="H420" s="95"/>
-      <c r="I420" s="30"/>
+      <c r="B420" s="225"/>
+      <c r="C420" s="27"/>
+      <c r="D420" s="88"/>
+      <c r="E420" s="88"/>
+      <c r="F420" s="92"/>
+      <c r="G420" s="93"/>
+      <c r="H420" s="93"/>
+      <c r="I420" s="88"/>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A421" s="171"/>
+      <c r="B421" s="225"/>
+      <c r="C421" s="27"/>
+      <c r="D421" s="88"/>
+      <c r="E421" s="88"/>
+      <c r="F421" s="92"/>
+      <c r="G421" s="93"/>
+      <c r="H421" s="93"/>
+      <c r="I421" s="88"/>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A422" s="171"/>
+      <c r="B422" s="225"/>
+      <c r="C422" s="27"/>
+      <c r="D422" s="88"/>
+      <c r="E422" s="88"/>
+      <c r="F422" s="92"/>
+      <c r="G422" s="93"/>
+      <c r="H422" s="93"/>
+      <c r="I422" s="88"/>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A423" s="171"/>
+      <c r="B423" s="225"/>
+      <c r="C423" s="27"/>
+      <c r="D423" s="88"/>
+      <c r="E423" s="88"/>
+      <c r="F423" s="92"/>
+      <c r="G423" s="93"/>
+      <c r="H423" s="93"/>
+      <c r="I423" s="88"/>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A424" s="171"/>
+      <c r="B424" s="225"/>
+      <c r="C424" s="27"/>
+      <c r="D424" s="88"/>
+      <c r="E424" s="88"/>
+      <c r="F424" s="92"/>
+      <c r="G424" s="93"/>
+      <c r="H424" s="93"/>
+      <c r="I424" s="88"/>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A425" s="171"/>
+      <c r="C425" s="30"/>
+      <c r="D425" s="124"/>
+      <c r="E425" s="30"/>
+      <c r="F425" s="30"/>
+      <c r="G425" s="95"/>
+      <c r="H425" s="95"/>
+      <c r="I425" s="30"/>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A426" s="171"/>
+      <c r="C426" s="30"/>
+      <c r="D426" s="124"/>
+      <c r="E426" s="30"/>
+      <c r="F426" s="30"/>
+      <c r="G426" s="95"/>
+      <c r="H426" s="95"/>
+      <c r="I426" s="30"/>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A427" s="171"/>
+      <c r="C427" s="30"/>
+      <c r="D427" s="30"/>
+      <c r="E427" s="30"/>
+      <c r="F427" s="30"/>
+      <c r="G427" s="95"/>
+      <c r="H427" s="95"/>
+      <c r="I427" s="30"/>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A428" s="171"/>
+      <c r="C428" s="30"/>
+      <c r="D428" s="30"/>
+      <c r="E428" s="30"/>
+      <c r="F428" s="30"/>
+      <c r="G428" s="95"/>
+      <c r="H428" s="95"/>
+      <c r="I428" s="30"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A429" s="171"/>
+      <c r="C429" s="30"/>
+      <c r="D429" s="124"/>
+      <c r="E429" s="30"/>
+      <c r="F429" s="30"/>
+      <c r="G429" s="95"/>
+      <c r="H429" s="95"/>
+      <c r="I429" s="30"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A430" s="171"/>
+      <c r="C430" s="30"/>
+      <c r="D430" s="124"/>
+      <c r="E430" s="30"/>
+      <c r="F430" s="30"/>
+      <c r="G430" s="95"/>
+      <c r="H430" s="95"/>
+      <c r="I430" s="30"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A431" s="171"/>
+      <c r="C431" s="30"/>
+      <c r="D431" s="124"/>
+      <c r="E431" s="30"/>
+      <c r="F431" s="30"/>
+      <c r="G431" s="95"/>
+      <c r="H431" s="95"/>
+      <c r="I431" s="30"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A432" s="171"/>
+      <c r="C432" s="30"/>
+      <c r="D432" s="124"/>
+      <c r="E432" s="30"/>
+      <c r="F432" s="30"/>
+      <c r="G432" s="95"/>
+      <c r="H432" s="95"/>
+      <c r="I432" s="30"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A433" s="171"/>
+      <c r="C433" s="30"/>
+      <c r="D433" s="124"/>
+      <c r="E433" s="30"/>
+      <c r="F433" s="30"/>
+      <c r="G433" s="95"/>
+      <c r="H433" s="95"/>
+      <c r="I433" s="30"/>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A434" s="171"/>
+      <c r="C434" s="30"/>
+      <c r="D434" s="124"/>
+      <c r="E434" s="30"/>
+      <c r="F434" s="30"/>
+      <c r="G434" s="95"/>
+      <c r="H434" s="95"/>
+      <c r="I434" s="30"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A435" s="171"/>
+      <c r="C435" s="30"/>
+      <c r="D435" s="124"/>
+      <c r="E435" s="30"/>
+      <c r="F435" s="30"/>
+      <c r="G435" s="95"/>
+      <c r="H435" s="95"/>
+      <c r="I435" s="30"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A436" s="171"/>
+      <c r="C436" s="30"/>
+      <c r="D436" s="30"/>
+      <c r="E436" s="30"/>
+      <c r="F436" s="30"/>
+      <c r="G436" s="95"/>
+      <c r="H436" s="95"/>
+      <c r="I436" s="30"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A437" s="171"/>
+      <c r="C437" s="30"/>
+      <c r="D437" s="30"/>
+      <c r="E437" s="30"/>
+      <c r="F437" s="30"/>
+      <c r="G437" s="95"/>
+      <c r="H437" s="95"/>
+      <c r="I437" s="30"/>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A438" s="171"/>
+      <c r="C438" s="30"/>
+      <c r="D438" s="30"/>
+      <c r="E438" s="30"/>
+      <c r="F438" s="30"/>
+      <c r="G438" s="95"/>
+      <c r="H438" s="95"/>
+      <c r="I438" s="30"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A439" s="171"/>
+      <c r="C439" s="30"/>
+      <c r="D439" s="153"/>
+      <c r="E439" s="30"/>
+      <c r="F439" s="30"/>
+      <c r="G439" s="95"/>
+      <c r="H439" s="95"/>
+      <c r="I439" s="30"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A440" s="171"/>
+      <c r="C440" s="30"/>
+      <c r="D440" s="30"/>
+      <c r="E440" s="30"/>
+      <c r="F440" s="30"/>
+      <c r="G440" s="95"/>
+      <c r="H440" s="95"/>
+      <c r="I440" s="30"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A441" s="171"/>
+      <c r="C441" s="30"/>
+      <c r="D441" s="30"/>
+      <c r="E441" s="30"/>
+      <c r="F441" s="30"/>
+      <c r="G441" s="95"/>
+      <c r="H441" s="95"/>
+      <c r="I441" s="30"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A442" s="171"/>
+      <c r="C442" s="30"/>
+      <c r="D442" s="30"/>
+      <c r="E442" s="30"/>
+      <c r="F442" s="30"/>
+      <c r="G442" s="95"/>
+      <c r="H442" s="95"/>
+      <c r="I442" s="30"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A443" s="171"/>
+      <c r="C443" s="30"/>
+      <c r="D443" s="30"/>
+      <c r="E443" s="30"/>
+      <c r="F443" s="30"/>
+      <c r="G443" s="95"/>
+      <c r="H443" s="95"/>
+      <c r="I443" s="30"/>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A444" s="171"/>
+      <c r="C444" s="30"/>
+      <c r="D444" s="30"/>
+      <c r="E444" s="30"/>
+      <c r="F444" s="30"/>
+      <c r="G444" s="95"/>
+      <c r="H444" s="95"/>
+      <c r="I444" s="30"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A445" s="171"/>
+      <c r="C445" s="30"/>
+      <c r="D445" s="30"/>
+      <c r="E445" s="30"/>
+      <c r="F445" s="30"/>
+      <c r="G445" s="95"/>
+      <c r="H445" s="95"/>
+      <c r="I445" s="30"/>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A446" s="171"/>
+      <c r="C446" s="30"/>
+      <c r="D446" s="30"/>
+      <c r="E446" s="30"/>
+      <c r="F446" s="30"/>
+      <c r="G446" s="95"/>
+      <c r="H446" s="95"/>
+      <c r="I446" s="30"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A447" s="171"/>
+      <c r="C447" s="30"/>
+      <c r="D447" s="30"/>
+      <c r="E447" s="30"/>
+      <c r="F447" s="30"/>
+      <c r="G447" s="95"/>
+      <c r="H447" s="95"/>
+      <c r="I447" s="30"/>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A448" s="171"/>
+      <c r="C448" s="30"/>
+      <c r="D448" s="30"/>
+      <c r="E448" s="30"/>
+      <c r="F448" s="30"/>
+      <c r="G448" s="95"/>
+      <c r="H448" s="95"/>
+      <c r="I448" s="30"/>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A449" s="171"/>
+      <c r="C449" s="30"/>
+      <c r="D449" s="30"/>
+      <c r="E449" s="30"/>
+      <c r="F449" s="30"/>
+      <c r="G449" s="95"/>
+      <c r="H449" s="95"/>
+      <c r="I449" s="30"/>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A450" s="171"/>
+      <c r="C450" s="30"/>
+      <c r="D450" s="30"/>
+      <c r="E450" s="30"/>
+      <c r="F450" s="30"/>
+      <c r="G450" s="95"/>
+      <c r="H450" s="95"/>
+      <c r="I450" s="30"/>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A451" s="171"/>
+      <c r="C451" s="30"/>
+      <c r="D451" s="30"/>
+      <c r="E451" s="30"/>
+      <c r="F451" s="30"/>
+      <c r="G451" s="95"/>
+      <c r="H451" s="95"/>
+      <c r="I451" s="30"/>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A452" s="171"/>
+      <c r="C452" s="30"/>
+      <c r="D452" s="30"/>
+      <c r="E452" s="30"/>
+      <c r="F452" s="30"/>
+      <c r="G452" s="95"/>
+      <c r="H452" s="95"/>
+      <c r="I452" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B360:B365"/>
-    <mergeCell ref="B295:B297"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B358:B363"/>
+    <mergeCell ref="B293:B295"/>
     <mergeCell ref="C197:C201"/>
     <mergeCell ref="C162:C175"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="B203:B208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8944,146 +9818,146 @@
   <sheetData>
     <row r="1" spans="1:32" s="57" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="58"/>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205" t="s">
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205" t="s">
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="213" t="s">
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="214"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="244"/>
     </row>
     <row r="2" spans="1:32" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="58"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="216"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="245"/>
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="245"/>
+      <c r="AD2" s="246"/>
     </row>
     <row r="3" spans="1:32" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="58"/>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209" t="s">
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209" t="s">
+      <c r="G3" s="239"/>
+      <c r="H3" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209" t="s">
+      <c r="I3" s="239"/>
+      <c r="J3" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209" t="s">
+      <c r="K3" s="239"/>
+      <c r="L3" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="208" t="s">
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
+      <c r="S3" s="239"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="239"/>
+      <c r="X3" s="239"/>
       <c r="Y3" s="59" t="s">
         <v>13</v>
       </c>
       <c r="Z3" s="59"/>
       <c r="AA3" s="59"/>
-      <c r="AB3" s="209" t="s">
+      <c r="AB3" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="210"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="240"/>
     </row>
     <row r="4" spans="1:32" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="58"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="208"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="238"/>
       <c r="R4" s="60"/>
       <c r="S4" s="61"/>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
       <c r="V4" s="62" t="s">
         <v>17</v>
       </c>
@@ -9096,13 +9970,13 @@
       <c r="Y4" s="59"/>
       <c r="Z4" s="59"/>
       <c r="AA4" s="59"/>
-      <c r="AB4" s="209" t="s">
+      <c r="AB4" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="212" t="s">
+      <c r="AC4" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="210"/>
+      <c r="AD4" s="240"/>
     </row>
     <row r="5" spans="1:32" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="58"/>
@@ -9133,7 +10007,7 @@
       <c r="K5" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="209"/>
+      <c r="L5" s="239"/>
       <c r="M5" s="63" t="s">
         <v>14</v>
       </c>
@@ -9146,7 +10020,7 @@
       <c r="P5" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="208"/>
+      <c r="Q5" s="238"/>
       <c r="R5" s="63" t="s">
         <v>21</v>
       </c>
@@ -9169,7 +10043,7 @@
       <c r="AA5" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="209"/>
+      <c r="AB5" s="239"/>
       <c r="AC5" s="59" t="s">
         <v>26</v>
       </c>

--- a/Mapa Transaccional - Gemma.xlsx
+++ b/Mapa Transaccional - Gemma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inovabiz\Documents\Global - Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273B4EB-BA30-4457-A444-39F53AB126C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55CD321-E08D-43CE-9CA0-CD9FEAB389D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="471">
   <si>
     <t>Inicio</t>
   </si>
@@ -1496,9 +1496,6 @@
     <t>Verificar los datos cargados en la solicitud, se genera la solictud y se vuelve a ingresar al caso asignado con el código.</t>
   </si>
   <si>
-    <t>Al generar la solicitud el sistema solicita actualiza los datos que sean necesarios</t>
-  </si>
-  <si>
     <t>Información Tributaria</t>
   </si>
   <si>
@@ -1544,12 +1541,6 @@
     <t>Comisión</t>
   </si>
   <si>
-    <t>Selección el valor del plazo</t>
-  </si>
-  <si>
-    <t>Valores no modificados</t>
-  </si>
-  <si>
     <t>Dirección</t>
   </si>
   <si>
@@ -1580,9 +1571,6 @@
     <t>Fecha valida</t>
   </si>
   <si>
-    <t>Agregar al menos un aval obligatoriamente</t>
-  </si>
-  <si>
     <t>Notaria</t>
   </si>
   <si>
@@ -1593,6 +1581,289 @@
   </si>
   <si>
     <t>Fecha valida posterior</t>
+  </si>
+  <si>
+    <t>Al generar la solicitud el sistema actualiza los datos que sean necesarios</t>
+  </si>
+  <si>
+    <t>Se debe seleccionar el tipo de plazo de acuerdo a lo indicado por el cliente</t>
+  </si>
+  <si>
+    <t>Solicitud Tipo Crédito</t>
+  </si>
+  <si>
+    <t>Leasing
+Leasing inteligente</t>
+  </si>
+  <si>
+    <t>Valores acualizados luego de seleccionar los dos campos anteriores</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Campos modificables, en caso de ser necesario cambiar valores.</t>
+  </si>
+  <si>
+    <t>Valores no modificables</t>
+  </si>
+  <si>
+    <t>Agregar al menos un aval obligatoriamente en el caso de Leasing</t>
+  </si>
+  <si>
+    <t>Descripción válida</t>
+  </si>
+  <si>
+    <t>En esta pestaña es obligatorio agregar estos 3 valores en lla pestaña - Notaria</t>
+  </si>
+  <si>
+    <t>Información de cliente</t>
+  </si>
+  <si>
+    <t>Dicom Cliente</t>
+  </si>
+  <si>
+    <t>Información Empleador</t>
+  </si>
+  <si>
+    <t>Dicom Empleador</t>
+  </si>
+  <si>
+    <t>Scoring Global</t>
+  </si>
+  <si>
+    <t>En caso de ser necesario el evaluador puede agregar o cambiar los valores de acuerdo al cliente o al empleador</t>
+  </si>
+  <si>
+    <t>Si en necesario hacer algún ajuste en los datos, presionar confimar. Se requiere mayor ampliación de este punto.</t>
+  </si>
+  <si>
+    <t>Resumen informativo</t>
+  </si>
+  <si>
+    <t>Pasos detallados</t>
+  </si>
+  <si>
+    <t>Se documenta el cambio en los estados a medida que se ha ido avanzando la solicitud generada.</t>
+  </si>
+  <si>
+    <t>Carta Aprobación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar la carta de aprobación, indicando que la solicitud pasa a otro estado donde Riesgos - Validación convalida los requisitos solicitados al cliente </t>
+  </si>
+  <si>
+    <t>Fecha primera cuota</t>
+  </si>
+  <si>
+    <t>Forma de pago</t>
+  </si>
+  <si>
+    <t>Deposito Cliente
+Deposito Distribuidor
+Deposito Otros</t>
+  </si>
+  <si>
+    <t>Esta consulta sera eliminada de Gemma, no es utilizada la opción Condicionadas.</t>
+  </si>
+  <si>
+    <t>En precursar Riesgo (Admisión y validación) evaluan el caso del posible credito a aprobar dependiendo del monto y las condiciones</t>
+  </si>
+  <si>
+    <t>Visualización de Reportes</t>
+  </si>
+  <si>
+    <t>Motivos de Rechazo</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Tipo Vehículo</t>
+  </si>
+  <si>
+    <t>Estado Vehículo</t>
+  </si>
+  <si>
+    <t>Fecha Período</t>
+  </si>
+  <si>
+    <t>Seleccionar vendedor</t>
+  </si>
+  <si>
+    <t>Nuevo
+Usado</t>
+  </si>
+  <si>
+    <t>Seleccionar Ejecutivo</t>
+  </si>
+  <si>
+    <t>Período válido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo Obligatorio para la consulta. </t>
+  </si>
+  <si>
+    <t>Operaciones Detallado</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Validar los 3 mas consultados</t>
+  </si>
+  <si>
+    <t>Fecha válida</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Seleccionar Zona</t>
+  </si>
+  <si>
+    <t>1 Global
+2 Nuevos
+3 Expert
+4 Usados
+5 Estudio
+6 Fuera</t>
+  </si>
+  <si>
+    <t>Elegir el Distrubuidor según el primer filtro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporte que muestra valores referente a la evaluación de acuerdo a la atención de los casos que se asigne a un empleado. </t>
+  </si>
+  <si>
+    <t>Para ellos Riesgo define un rango de valores métricos y porcentaje que tienen un tope por mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntaje </t>
+  </si>
+  <si>
+    <t>Opción</t>
+  </si>
+  <si>
+    <t>Primera
+Segunda
+Tercera</t>
+  </si>
+  <si>
+    <t>Mediante el reporte se puede analizar cual es el porcentaje de motivos de rechazo de acuerdo a la solicitudes de crédito realizada por el cliente.</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Seleccionar Mes</t>
+  </si>
+  <si>
+    <t>Año anterior o actual</t>
+  </si>
+  <si>
+    <t>Reporte que permite validar la calidad de los créditos que son solicitados.</t>
+  </si>
+  <si>
+    <t>Actualizar Datos Maestros</t>
+  </si>
+  <si>
+    <t>Maestros</t>
+  </si>
+  <si>
+    <t>RUT Bloqueados</t>
+  </si>
+  <si>
+    <t>Cliente Nombre</t>
+  </si>
+  <si>
+    <t>Nombre guardado</t>
+  </si>
+  <si>
+    <t>Los valores se obtienen mediante variables cualitativas y cuantitativas de una muestra de 6626 cliente durante un período determinado.</t>
+  </si>
+  <si>
+    <t>Funcionalidad que permite bloquear a un cliente reportado por algún inconveniente, como morosidad, estafa, robos.</t>
+  </si>
+  <si>
+    <t>Trabajar con comisiones y con Peaje</t>
+  </si>
+  <si>
+    <t>Fecha Desde</t>
+  </si>
+  <si>
+    <t>Fecha Hasta</t>
+  </si>
+  <si>
+    <t>Calcular</t>
+  </si>
+  <si>
+    <t>Generada
+Por Pagar
+Pagada</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Modifica</t>
+  </si>
+  <si>
+    <t>Cliente RUT</t>
+  </si>
+  <si>
+    <t>Negra Razón</t>
+  </si>
+  <si>
+    <t>RUT Válido</t>
+  </si>
+  <si>
+    <t>Descripción detallada</t>
+  </si>
+  <si>
+    <t>Nombre Cliente</t>
+  </si>
+  <si>
+    <t>Solicita confirmación para eliminar el cliente de la lista negra</t>
+  </si>
+  <si>
+    <t>Solicita colocar una fecha de calculo, sin embargo no muestra nada</t>
+  </si>
+  <si>
+    <t>Del listado que es filtrado de acuerdo a la busqueda, seleccionar un codigo, para trabajar con el caso.</t>
+  </si>
+  <si>
+    <t>Resumen de los cambios respecto al estado del caso.</t>
+  </si>
+  <si>
+    <t>Seleccionar la operación con la que se va a trabajar.</t>
+  </si>
+  <si>
+    <t>Llama al proceso trabajar con casos (Validar la relevancia y el paso a paso de como trabajar la comisión)</t>
+  </si>
+  <si>
+    <t>Trabajar con Comisiones</t>
+  </si>
+  <si>
+    <t>Trabajar con Peajes</t>
+  </si>
+  <si>
+    <t>Modificar Telefono</t>
+  </si>
+  <si>
+    <t>Ver Propuesta</t>
+  </si>
+  <si>
+    <t>Anular</t>
+  </si>
+  <si>
+    <t>Prepagar</t>
+  </si>
+  <si>
+    <t>Extingir</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1874,7 @@
     <numFmt numFmtId="164" formatCode="&quot;ESCT - &quot;000"/>
     <numFmt numFmtId="165" formatCode="&quot;CASO_&quot;000#"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,8 +2008,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,8 +2125,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2240,6 +2536,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2247,7 +2552,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2738,6 +3043,103 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2746,12 +3148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2795,20 +3191,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
@@ -2826,12 +3227,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FF66FF33"/>
       <color rgb="FF9999FF"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FF66FF33"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3108,11 +3510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA96AC-1FFE-43FB-BB5A-AC83B9905F9C}">
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G420" sqref="G420"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F468" sqref="F468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,7 +4924,7 @@
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="171"/>
       <c r="B93" s="167"/>
-      <c r="C93" s="232" t="s">
+      <c r="C93" s="268" t="s">
         <v>130</v>
       </c>
       <c r="D93" s="116" t="s">
@@ -4539,7 +4941,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="171"/>
       <c r="B94" s="167"/>
-      <c r="C94" s="232"/>
+      <c r="C94" s="268"/>
       <c r="D94" s="155" t="s">
         <v>63</v>
       </c>
@@ -4552,26 +4954,28 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="171"/>
       <c r="B95" s="167"/>
-      <c r="C95" s="232"/>
-      <c r="D95" s="116" t="s">
+      <c r="C95" s="268"/>
+      <c r="D95" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="86" t="s">
+      <c r="E95" s="242" t="s">
         <v>101</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="17"/>
+      <c r="I95" s="242" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="171"/>
       <c r="B96" s="167"/>
-      <c r="C96" s="232"/>
-      <c r="D96" s="155" t="s">
+      <c r="C96" s="268"/>
+      <c r="D96" s="242" t="s">
         <v>63</v>
       </c>
-      <c r="E96" s="155"/>
+      <c r="E96" s="242"/>
       <c r="F96" s="17"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
@@ -4580,7 +4984,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="171"/>
       <c r="B97" s="167"/>
-      <c r="C97" s="232"/>
+      <c r="C97" s="268"/>
       <c r="D97" s="116" t="s">
         <v>61</v>
       </c>
@@ -4595,7 +4999,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="171"/>
       <c r="B98" s="167"/>
-      <c r="C98" s="232"/>
+      <c r="C98" s="268"/>
       <c r="D98" s="155" t="s">
         <v>63</v>
       </c>
@@ -4608,7 +5012,7 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="171"/>
       <c r="B99" s="167"/>
-      <c r="C99" s="232"/>
+      <c r="C99" s="268"/>
       <c r="D99" s="116" t="s">
         <v>103</v>
       </c>
@@ -5557,7 +5961,7 @@
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="171"/>
       <c r="B162" s="167"/>
-      <c r="C162" s="232" t="s">
+      <c r="C162" s="268" t="s">
         <v>130</v>
       </c>
       <c r="D162" s="116" t="s">
@@ -5574,7 +5978,7 @@
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="171"/>
       <c r="B163" s="167"/>
-      <c r="C163" s="232"/>
+      <c r="C163" s="268"/>
       <c r="D163" s="155" t="s">
         <v>63</v>
       </c>
@@ -5587,7 +5991,7 @@
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="171"/>
       <c r="B164" s="167"/>
-      <c r="C164" s="232"/>
+      <c r="C164" s="268"/>
       <c r="D164" s="116" t="s">
         <v>103</v>
       </c>
@@ -5602,7 +6006,7 @@
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="171"/>
       <c r="B165" s="167"/>
-      <c r="C165" s="232"/>
+      <c r="C165" s="268"/>
       <c r="D165" s="155" t="s">
         <v>63</v>
       </c>
@@ -5615,7 +6019,7 @@
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="171"/>
       <c r="B166" s="167"/>
-      <c r="C166" s="232"/>
+      <c r="C166" s="268"/>
       <c r="D166" s="116" t="s">
         <v>103</v>
       </c>
@@ -5630,7 +6034,7 @@
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="171"/>
       <c r="B167" s="167"/>
-      <c r="C167" s="232"/>
+      <c r="C167" s="268"/>
       <c r="D167" s="155" t="s">
         <v>63</v>
       </c>
@@ -5643,7 +6047,7 @@
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="171"/>
       <c r="B168" s="167"/>
-      <c r="C168" s="232"/>
+      <c r="C168" s="268"/>
       <c r="D168" s="116" t="s">
         <v>103</v>
       </c>
@@ -5658,7 +6062,7 @@
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="171"/>
       <c r="B169" s="167"/>
-      <c r="C169" s="232"/>
+      <c r="C169" s="268"/>
       <c r="D169" s="155" t="s">
         <v>63</v>
       </c>
@@ -5671,7 +6075,7 @@
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="171"/>
       <c r="B170" s="167"/>
-      <c r="C170" s="232"/>
+      <c r="C170" s="268"/>
       <c r="D170" s="116" t="s">
         <v>103</v>
       </c>
@@ -5686,7 +6090,7 @@
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="171"/>
       <c r="B171" s="167"/>
-      <c r="C171" s="232"/>
+      <c r="C171" s="268"/>
       <c r="D171" s="155" t="s">
         <v>63</v>
       </c>
@@ -5699,7 +6103,7 @@
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="171"/>
       <c r="B172" s="167"/>
-      <c r="C172" s="232"/>
+      <c r="C172" s="268"/>
       <c r="D172" s="116" t="s">
         <v>103</v>
       </c>
@@ -5714,7 +6118,7 @@
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="171"/>
       <c r="B173" s="167"/>
-      <c r="C173" s="232"/>
+      <c r="C173" s="268"/>
       <c r="D173" s="155" t="s">
         <v>63</v>
       </c>
@@ -5727,7 +6131,7 @@
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="171"/>
       <c r="B174" s="167"/>
-      <c r="C174" s="232"/>
+      <c r="C174" s="268"/>
       <c r="D174" s="116" t="s">
         <v>103</v>
       </c>
@@ -5742,7 +6146,7 @@
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="171"/>
       <c r="B175" s="167"/>
-      <c r="C175" s="232"/>
+      <c r="C175" s="268"/>
       <c r="D175" s="155" t="s">
         <v>63</v>
       </c>
@@ -6072,7 +6476,7 @@
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="171"/>
       <c r="B197" s="167"/>
-      <c r="C197" s="232" t="s">
+      <c r="C197" s="268" t="s">
         <v>0</v>
       </c>
       <c r="D197" s="116" t="s">
@@ -6089,7 +6493,7 @@
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="171"/>
       <c r="B198" s="167"/>
-      <c r="C198" s="232"/>
+      <c r="C198" s="268"/>
       <c r="D198" s="155" t="s">
         <v>63</v>
       </c>
@@ -6102,7 +6506,7 @@
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="171"/>
       <c r="B199" s="167"/>
-      <c r="C199" s="232"/>
+      <c r="C199" s="268"/>
       <c r="D199" s="116" t="s">
         <v>120</v>
       </c>
@@ -6117,7 +6521,7 @@
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="171"/>
       <c r="B200" s="167"/>
-      <c r="C200" s="232"/>
+      <c r="C200" s="268"/>
       <c r="D200" s="155" t="s">
         <v>63</v>
       </c>
@@ -6130,7 +6534,7 @@
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="171"/>
       <c r="B201" s="167"/>
-      <c r="C201" s="232"/>
+      <c r="C201" s="268"/>
       <c r="D201" s="116" t="s">
         <v>120</v>
       </c>
@@ -6155,7 +6559,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="171"/>
-      <c r="B203" s="233" t="s">
+      <c r="B203" s="269" t="s">
         <v>174</v>
       </c>
       <c r="C203" s="226" t="s">
@@ -6174,7 +6578,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="171"/>
-      <c r="B204" s="233"/>
+      <c r="B204" s="269"/>
       <c r="C204" s="89"/>
       <c r="D204" s="90"/>
       <c r="E204" s="90" t="s">
@@ -6191,7 +6595,7 @@
     </row>
     <row r="205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="171"/>
-      <c r="B205" s="233"/>
+      <c r="B205" s="269"/>
       <c r="C205" s="90"/>
       <c r="D205" s="90"/>
       <c r="E205" s="90"/>
@@ -6206,7 +6610,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="171"/>
-      <c r="B206" s="233"/>
+      <c r="B206" s="269"/>
       <c r="C206" s="90"/>
       <c r="D206" s="90"/>
       <c r="E206" s="90"/>
@@ -7195,7 +7599,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="171"/>
-      <c r="B273" s="229" t="s">
+      <c r="B273" s="270" t="s">
         <v>296</v>
       </c>
       <c r="C273" s="227" t="s">
@@ -7218,7 +7622,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="171"/>
-      <c r="B274" s="229"/>
+      <c r="B274" s="270"/>
       <c r="C274" s="19"/>
       <c r="D274" s="97"/>
       <c r="E274" s="97"/>
@@ -7233,7 +7637,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="171"/>
-      <c r="B275" s="229"/>
+      <c r="B275" s="270"/>
       <c r="C275" s="19"/>
       <c r="D275" s="97"/>
       <c r="E275" s="97"/>
@@ -7248,7 +7652,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="171"/>
-      <c r="B276" s="229"/>
+      <c r="B276" s="270"/>
       <c r="C276" s="19"/>
       <c r="D276" s="188"/>
       <c r="E276" s="188"/>
@@ -7501,7 +7905,7 @@
     </row>
     <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="171"/>
-      <c r="B293" s="231" t="s">
+      <c r="B293" s="272" t="s">
         <v>256</v>
       </c>
       <c r="C293" s="228" t="s">
@@ -7520,7 +7924,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="171"/>
-      <c r="B294" s="231"/>
+      <c r="B294" s="272"/>
       <c r="C294" s="35"/>
       <c r="D294" s="28"/>
       <c r="E294" s="28" t="s">
@@ -7537,7 +7941,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="171"/>
-      <c r="B295" s="231"/>
+      <c r="B295" s="272"/>
       <c r="C295" s="35"/>
       <c r="D295" s="120"/>
       <c r="E295" s="28" t="s">
@@ -8468,7 +8872,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="171"/>
-      <c r="B358" s="230" t="s">
+      <c r="B358" s="271" t="s">
         <v>313</v>
       </c>
       <c r="C358" s="228" t="s">
@@ -8487,7 +8891,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="171"/>
-      <c r="B359" s="230"/>
+      <c r="B359" s="271"/>
       <c r="C359" s="225"/>
       <c r="D359" s="122"/>
       <c r="E359" s="92" t="s">
@@ -8496,7 +8900,7 @@
       <c r="F359" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="G359" s="248" t="s">
+      <c r="G359" s="229" t="s">
         <v>80</v>
       </c>
       <c r="H359" s="93"/>
@@ -8504,14 +8908,14 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="171"/>
-      <c r="B360" s="230"/>
+      <c r="B360" s="271"/>
       <c r="C360" s="225"/>
       <c r="D360" s="88"/>
       <c r="E360" s="88"/>
       <c r="F360" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="G360" s="248" t="s">
+      <c r="G360" s="229" t="s">
         <v>300</v>
       </c>
       <c r="H360" s="93"/>
@@ -8519,14 +8923,14 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="171"/>
-      <c r="B361" s="230"/>
+      <c r="B361" s="271"/>
       <c r="C361" s="225"/>
       <c r="D361" s="88"/>
       <c r="E361" s="92"/>
       <c r="F361" s="92" t="s">
         <v>315</v>
       </c>
-      <c r="G361" s="248" t="s">
+      <c r="G361" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H361" s="93"/>
@@ -8534,14 +8938,14 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="171"/>
-      <c r="B362" s="230"/>
+      <c r="B362" s="271"/>
       <c r="C362" s="225"/>
       <c r="D362" s="88"/>
       <c r="E362" s="88"/>
       <c r="F362" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="G362" s="248" t="s">
+      <c r="G362" s="229" t="s">
         <v>291</v>
       </c>
       <c r="H362" s="93"/>
@@ -8549,14 +8953,14 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="171"/>
-      <c r="B363" s="230"/>
+      <c r="B363" s="271"/>
       <c r="C363" s="225"/>
       <c r="D363" s="88"/>
       <c r="E363" s="88"/>
       <c r="F363" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="G363" s="248" t="s">
+      <c r="G363" s="229" t="s">
         <v>324</v>
       </c>
       <c r="H363" s="93"/>
@@ -8571,7 +8975,7 @@
       <c r="F364" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="G364" s="248" t="s">
+      <c r="G364" s="229" t="s">
         <v>319</v>
       </c>
       <c r="H364" s="93"/>
@@ -8586,7 +8990,7 @@
       <c r="F365" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="G365" s="248" t="s">
+      <c r="G365" s="229" t="s">
         <v>318</v>
       </c>
       <c r="H365" s="93"/>
@@ -8603,7 +9007,7 @@
       <c r="F366" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="G366" s="248" t="s">
+      <c r="G366" s="229" t="s">
         <v>25</v>
       </c>
       <c r="H366" s="93"/>
@@ -8618,7 +9022,7 @@
       <c r="F367" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="G367" s="248" t="s">
+      <c r="G367" s="229" t="s">
         <v>267</v>
       </c>
       <c r="H367" s="93"/>
@@ -8633,7 +9037,7 @@
       <c r="F368" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="G368" s="248" t="s">
+      <c r="G368" s="229" t="s">
         <v>267</v>
       </c>
       <c r="H368" s="93"/>
@@ -8648,7 +9052,7 @@
       <c r="F369" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="G369" s="248" t="s">
+      <c r="G369" s="229" t="s">
         <v>267</v>
       </c>
       <c r="H369" s="93"/>
@@ -8663,7 +9067,7 @@
       <c r="F370" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="G370" s="248" t="s">
+      <c r="G370" s="229" t="s">
         <v>267</v>
       </c>
       <c r="H370" s="93"/>
@@ -8678,7 +9082,7 @@
       <c r="F371" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="G371" s="248" t="s">
+      <c r="G371" s="229" t="s">
         <v>267</v>
       </c>
       <c r="H371" s="93"/>
@@ -8693,7 +9097,7 @@
       <c r="F372" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="G372" s="248" t="s">
+      <c r="G372" s="229" t="s">
         <v>267</v>
       </c>
       <c r="H372" s="93"/>
@@ -8708,7 +9112,7 @@
       <c r="F373" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="G373" s="249" t="s">
+      <c r="G373" s="230" t="s">
         <v>320</v>
       </c>
       <c r="H373" s="93"/>
@@ -8725,7 +9129,7 @@
       <c r="F374" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="G374" s="248" t="s">
+      <c r="G374" s="229" t="s">
         <v>323</v>
       </c>
       <c r="H374" s="93"/>
@@ -8740,7 +9144,7 @@
       <c r="F375" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="G375" s="248" t="s">
+      <c r="G375" s="229" t="s">
         <v>80</v>
       </c>
       <c r="H375" s="93"/>
@@ -8755,7 +9159,7 @@
       <c r="F376" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="G376" s="248" t="s">
+      <c r="G376" s="229" t="s">
         <v>80</v>
       </c>
       <c r="H376" s="93"/>
@@ -8770,7 +9174,7 @@
       <c r="F377" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="G377" s="248" t="s">
+      <c r="G377" s="229" t="s">
         <v>325</v>
       </c>
       <c r="H377" s="93"/>
@@ -8785,7 +9189,7 @@
       <c r="F378" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="G378" s="248" t="s">
+      <c r="G378" s="229" t="s">
         <v>271</v>
       </c>
       <c r="H378" s="93"/>
@@ -8800,7 +9204,7 @@
       <c r="F379" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="G379" s="248" t="s">
+      <c r="G379" s="229" t="s">
         <v>342</v>
       </c>
       <c r="H379" s="93"/>
@@ -8817,7 +9221,7 @@
       <c r="F380" s="92" t="s">
         <v>321</v>
       </c>
-      <c r="G380" s="248" t="s">
+      <c r="G380" s="229" t="s">
         <v>344</v>
       </c>
       <c r="H380" s="93"/>
@@ -8834,7 +9238,7 @@
       <c r="F381" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="G381" s="248" t="s">
+      <c r="G381" s="229" t="s">
         <v>344</v>
       </c>
       <c r="H381" s="93"/>
@@ -8851,7 +9255,7 @@
       <c r="F382" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="G382" s="250" t="s">
+      <c r="G382" s="231" t="s">
         <v>326</v>
       </c>
       <c r="H382" s="93"/>
@@ -8870,7 +9274,7 @@
       <c r="F383" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="G383" s="248" t="s">
+      <c r="G383" s="229" t="s">
         <v>333</v>
       </c>
       <c r="H383" s="93"/>
@@ -8885,7 +9289,7 @@
       <c r="F384" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="G384" s="248" t="s">
+      <c r="G384" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H384" s="93"/>
@@ -8900,7 +9304,7 @@
       <c r="F385" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="G385" s="248" t="s">
+      <c r="G385" s="229" t="s">
         <v>334</v>
       </c>
       <c r="H385" s="93"/>
@@ -8915,7 +9319,7 @@
       <c r="F386" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="G386" s="248" t="s">
+      <c r="G386" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H386" s="93"/>
@@ -8930,7 +9334,7 @@
       <c r="F387" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="G387" s="248" t="s">
+      <c r="G387" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H387" s="93"/>
@@ -8945,7 +9349,7 @@
       <c r="F388" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G388" s="248" t="s">
+      <c r="G388" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H388" s="93"/>
@@ -8960,7 +9364,7 @@
       <c r="F389" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="G389" s="248" t="s">
+      <c r="G389" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H389" s="93"/>
@@ -8975,7 +9379,7 @@
       <c r="F390" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="G390" s="250" t="s">
+      <c r="G390" s="231" t="s">
         <v>336</v>
       </c>
       <c r="H390" s="93"/>
@@ -8990,7 +9394,7 @@
       <c r="F391" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="G391" s="250" t="s">
+      <c r="G391" s="231" t="s">
         <v>337</v>
       </c>
       <c r="H391" s="93"/>
@@ -9005,7 +9409,7 @@
       <c r="F392" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="G392" s="248" t="s">
+      <c r="G392" s="229" t="s">
         <v>290</v>
       </c>
       <c r="H392" s="93"/>
@@ -9022,7 +9426,7 @@
       <c r="F393" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="G393" s="250" t="s">
+      <c r="G393" s="231" t="s">
         <v>340</v>
       </c>
       <c r="H393" s="93"/>
@@ -9039,7 +9443,7 @@
       <c r="F394" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="G394" s="250" t="s">
+      <c r="G394" s="231" t="s">
         <v>341</v>
       </c>
       <c r="H394" s="93"/>
@@ -9053,10 +9457,10 @@
       <c r="E395" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="F395" s="251" t="s">
+      <c r="F395" s="232" t="s">
         <v>351</v>
       </c>
-      <c r="G395" s="248" t="s">
+      <c r="G395" s="229" t="s">
         <v>349</v>
       </c>
       <c r="H395" s="93"/>
@@ -9072,10 +9476,10 @@
       <c r="E396" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="F396" s="251" t="s">
+      <c r="F396" s="232" t="s">
         <v>352</v>
       </c>
-      <c r="G396" s="248" t="s">
+      <c r="G396" s="229" t="s">
         <v>349</v>
       </c>
       <c r="H396" s="93"/>
@@ -9119,54 +9523,56 @@
       <c r="E399" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="F399" s="252" t="s">
-        <v>363</v>
-      </c>
-      <c r="G399" s="248" t="s">
+      <c r="F399" s="233" t="s">
+        <v>362</v>
+      </c>
+      <c r="G399" s="229" t="s">
         <v>309</v>
       </c>
-      <c r="H399" s="248" t="s">
-        <v>362</v>
+      <c r="H399" s="229" t="s">
+        <v>361</v>
       </c>
       <c r="I399" s="92" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="171"/>
       <c r="B400" s="225"/>
       <c r="C400" s="27"/>
       <c r="D400" s="88"/>
       <c r="E400" s="88"/>
-      <c r="F400" s="252" t="s">
+      <c r="F400" s="237" t="s">
         <v>203</v>
       </c>
-      <c r="G400" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="H400" s="248" t="s">
-        <v>368</v>
+      <c r="G400" s="238" t="s">
+        <v>383</v>
+      </c>
+      <c r="H400" s="231" t="s">
+        <v>384</v>
       </c>
       <c r="I400" s="92" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="171"/>
       <c r="B401" s="225"/>
       <c r="C401" s="27"/>
       <c r="D401" s="88"/>
       <c r="E401" s="88"/>
-      <c r="F401" s="253" t="s">
+      <c r="F401" s="239" t="s">
+        <v>363</v>
+      </c>
+      <c r="G401" s="235" t="s">
         <v>364</v>
       </c>
-      <c r="G401" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="H401" s="248" t="s">
-        <v>290</v>
-      </c>
-      <c r="I401" s="92"/>
+      <c r="H401" s="231" t="s">
+        <v>341</v>
+      </c>
+      <c r="I401" s="236" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="171"/>
@@ -9174,14 +9580,16 @@
       <c r="C402" s="27"/>
       <c r="D402" s="88"/>
       <c r="E402" s="88"/>
-      <c r="F402" s="253"/>
-      <c r="G402" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="H402" s="248" t="s">
+      <c r="F402" s="234"/>
+      <c r="G402" s="235" t="s">
+        <v>365</v>
+      </c>
+      <c r="H402" s="231" t="s">
         <v>290</v>
       </c>
-      <c r="I402" s="92"/>
+      <c r="I402" s="236" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="171"/>
@@ -9189,14 +9597,14 @@
       <c r="C403" s="27"/>
       <c r="D403" s="88"/>
       <c r="E403" s="88"/>
-      <c r="F403" s="252" t="s">
-        <v>357</v>
-      </c>
+      <c r="F403" s="234"/>
       <c r="G403" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="H403" s="93"/>
-      <c r="I403" s="88"/>
+        <v>366</v>
+      </c>
+      <c r="H403" s="229" t="s">
+        <v>290</v>
+      </c>
+      <c r="I403" s="92"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="171"/>
@@ -9204,17 +9612,15 @@
       <c r="C404" s="27"/>
       <c r="D404" s="88"/>
       <c r="E404" s="88"/>
-      <c r="F404" s="252" t="s">
-        <v>358</v>
-      </c>
-      <c r="G404" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="H404" s="248" t="s">
-        <v>25</v>
+      <c r="F404" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="G404" s="87"/>
+      <c r="H404" s="229" t="s">
+        <v>290</v>
       </c>
       <c r="I404" s="92" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -9223,14 +9629,16 @@
       <c r="C405" s="27"/>
       <c r="D405" s="88"/>
       <c r="E405" s="88"/>
-      <c r="F405" s="252"/>
-      <c r="G405" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="H405" s="248" t="s">
-        <v>267</v>
-      </c>
-      <c r="I405" s="88"/>
+      <c r="F405" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="G405" s="87"/>
+      <c r="H405" s="229" t="s">
+        <v>290</v>
+      </c>
+      <c r="I405" s="92" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="171"/>
@@ -9238,13 +9646,13 @@
       <c r="C406" s="27"/>
       <c r="D406" s="88"/>
       <c r="E406" s="88"/>
-      <c r="F406" s="252"/>
+      <c r="F406" s="233" t="s">
+        <v>356</v>
+      </c>
       <c r="G406" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="H406" s="248" t="s">
-        <v>267</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="H406" s="93"/>
       <c r="I406" s="88"/>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -9253,14 +9661,18 @@
       <c r="C407" s="27"/>
       <c r="D407" s="88"/>
       <c r="E407" s="88"/>
-      <c r="F407" s="252"/>
+      <c r="F407" s="233" t="s">
+        <v>357</v>
+      </c>
       <c r="G407" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="H407" s="248" t="s">
-        <v>267</v>
-      </c>
-      <c r="I407" s="88"/>
+        <v>59</v>
+      </c>
+      <c r="H407" s="229" t="s">
+        <v>25</v>
+      </c>
+      <c r="I407" s="92" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="171"/>
@@ -9268,12 +9680,12 @@
       <c r="C408" s="27"/>
       <c r="D408" s="88"/>
       <c r="E408" s="88"/>
-      <c r="F408" s="252"/>
+      <c r="F408" s="233"/>
       <c r="G408" s="87" t="s">
-        <v>373</v>
-      </c>
-      <c r="H408" s="248" t="s">
-        <v>379</v>
+        <v>367</v>
+      </c>
+      <c r="H408" s="229" t="s">
+        <v>267</v>
       </c>
       <c r="I408" s="88"/>
     </row>
@@ -9283,12 +9695,12 @@
       <c r="C409" s="27"/>
       <c r="D409" s="88"/>
       <c r="E409" s="88"/>
-      <c r="F409" s="252"/>
+      <c r="F409" s="233"/>
       <c r="G409" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="H409" s="248" t="s">
-        <v>378</v>
+        <v>368</v>
+      </c>
+      <c r="H409" s="229" t="s">
+        <v>267</v>
       </c>
       <c r="I409" s="88"/>
     </row>
@@ -9298,12 +9710,12 @@
       <c r="C410" s="27"/>
       <c r="D410" s="88"/>
       <c r="E410" s="88"/>
-      <c r="F410" s="252"/>
+      <c r="F410" s="233"/>
       <c r="G410" s="87" t="s">
-        <v>375</v>
-      </c>
-      <c r="H410" s="248" t="s">
-        <v>377</v>
+        <v>369</v>
+      </c>
+      <c r="H410" s="229" t="s">
+        <v>267</v>
       </c>
       <c r="I410" s="88"/>
     </row>
@@ -9313,12 +9725,12 @@
       <c r="C411" s="27"/>
       <c r="D411" s="88"/>
       <c r="E411" s="88"/>
-      <c r="F411" s="252"/>
+      <c r="F411" s="233"/>
       <c r="G411" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="H411" s="248" t="s">
-        <v>267</v>
+        <v>370</v>
+      </c>
+      <c r="H411" s="229" t="s">
+        <v>376</v>
       </c>
       <c r="I411" s="88"/>
     </row>
@@ -9328,12 +9740,12 @@
       <c r="C412" s="27"/>
       <c r="D412" s="88"/>
       <c r="E412" s="88"/>
-      <c r="F412" s="252"/>
+      <c r="F412" s="233"/>
       <c r="G412" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="H412" s="248" t="s">
-        <v>267</v>
+        <v>371</v>
+      </c>
+      <c r="H412" s="229" t="s">
+        <v>375</v>
       </c>
       <c r="I412" s="88"/>
     </row>
@@ -9343,12 +9755,12 @@
       <c r="C413" s="27"/>
       <c r="D413" s="88"/>
       <c r="E413" s="88"/>
-      <c r="F413" s="252"/>
+      <c r="F413" s="233"/>
       <c r="G413" s="87" t="s">
-        <v>376</v>
-      </c>
-      <c r="H413" s="248" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="H413" s="229" t="s">
+        <v>374</v>
       </c>
       <c r="I413" s="88"/>
     </row>
@@ -9358,14 +9770,12 @@
       <c r="C414" s="27"/>
       <c r="D414" s="88"/>
       <c r="E414" s="88"/>
-      <c r="F414" s="252" t="s">
-        <v>359</v>
-      </c>
+      <c r="F414" s="233"/>
       <c r="G414" s="87" t="s">
-        <v>381</v>
-      </c>
-      <c r="H414" s="248" t="s">
-        <v>383</v>
+        <v>138</v>
+      </c>
+      <c r="H414" s="229" t="s">
+        <v>267</v>
       </c>
       <c r="I414" s="88"/>
     </row>
@@ -9375,14 +9785,12 @@
       <c r="C415" s="27"/>
       <c r="D415" s="88"/>
       <c r="E415" s="88"/>
-      <c r="F415" s="253" t="s">
-        <v>381</v>
-      </c>
+      <c r="F415" s="233"/>
       <c r="G415" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="H415" s="248" t="s">
-        <v>384</v>
+        <v>263</v>
+      </c>
+      <c r="H415" s="229" t="s">
+        <v>267</v>
       </c>
       <c r="I415" s="88"/>
     </row>
@@ -9392,11 +9800,13 @@
       <c r="C416" s="27"/>
       <c r="D416" s="88"/>
       <c r="E416" s="88"/>
-      <c r="F416" s="253"/>
+      <c r="F416" s="233"/>
       <c r="G416" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="H416" s="93"/>
+        <v>373</v>
+      </c>
+      <c r="H416" s="229" t="s">
+        <v>375</v>
+      </c>
       <c r="I416" s="88"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -9405,12 +9815,18 @@
       <c r="C417" s="27"/>
       <c r="D417" s="88"/>
       <c r="E417" s="88"/>
-      <c r="F417" s="252" t="s">
-        <v>360</v>
-      </c>
-      <c r="G417" s="87"/>
-      <c r="H417" s="93"/>
-      <c r="I417" s="88"/>
+      <c r="F417" s="233" t="s">
+        <v>358</v>
+      </c>
+      <c r="G417" s="87" t="s">
+        <v>377</v>
+      </c>
+      <c r="H417" s="229" t="s">
+        <v>379</v>
+      </c>
+      <c r="I417" s="92" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="171"/>
@@ -9418,11 +9834,15 @@
       <c r="C418" s="27"/>
       <c r="D418" s="88"/>
       <c r="E418" s="88"/>
-      <c r="F418" s="252" t="s">
-        <v>208</v>
-      </c>
-      <c r="G418" s="87"/>
-      <c r="H418" s="93"/>
+      <c r="F418" s="234" t="s">
+        <v>377</v>
+      </c>
+      <c r="G418" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="H418" s="229" t="s">
+        <v>380</v>
+      </c>
       <c r="I418" s="88"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -9431,11 +9851,13 @@
       <c r="C419" s="27"/>
       <c r="D419" s="88"/>
       <c r="E419" s="88"/>
-      <c r="F419" s="252" t="s">
-        <v>361</v>
-      </c>
-      <c r="G419" s="87"/>
-      <c r="H419" s="93"/>
+      <c r="F419" s="234"/>
+      <c r="G419" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="H419" s="229" t="s">
+        <v>390</v>
+      </c>
       <c r="I419" s="88"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -9444,10 +9866,14 @@
       <c r="C420" s="27"/>
       <c r="D420" s="88"/>
       <c r="E420" s="88"/>
-      <c r="F420" s="92"/>
-      <c r="G420" s="93"/>
+      <c r="F420" s="233" t="s">
+        <v>359</v>
+      </c>
+      <c r="G420" s="87"/>
       <c r="H420" s="93"/>
-      <c r="I420" s="88"/>
+      <c r="I420" s="92" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="171"/>
@@ -9455,8 +9881,10 @@
       <c r="C421" s="27"/>
       <c r="D421" s="88"/>
       <c r="E421" s="88"/>
-      <c r="F421" s="92"/>
-      <c r="G421" s="93"/>
+      <c r="F421" s="234" t="s">
+        <v>392</v>
+      </c>
+      <c r="G421" s="87"/>
       <c r="H421" s="93"/>
       <c r="I421" s="88"/>
     </row>
@@ -9466,8 +9894,10 @@
       <c r="C422" s="27"/>
       <c r="D422" s="88"/>
       <c r="E422" s="88"/>
-      <c r="F422" s="92"/>
-      <c r="G422" s="93"/>
+      <c r="F422" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="G422" s="87"/>
       <c r="H422" s="93"/>
       <c r="I422" s="88"/>
     </row>
@@ -9477,8 +9907,10 @@
       <c r="C423" s="27"/>
       <c r="D423" s="88"/>
       <c r="E423" s="88"/>
-      <c r="F423" s="92"/>
-      <c r="G423" s="93"/>
+      <c r="F423" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="G423" s="87"/>
       <c r="H423" s="93"/>
       <c r="I423" s="88"/>
     </row>
@@ -9488,293 +9920,1374 @@
       <c r="C424" s="27"/>
       <c r="D424" s="88"/>
       <c r="E424" s="88"/>
-      <c r="F424" s="92"/>
-      <c r="G424" s="93"/>
+      <c r="F424" s="92" t="s">
+        <v>395</v>
+      </c>
+      <c r="G424" s="87"/>
       <c r="H424" s="93"/>
       <c r="I424" s="88"/>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="171"/>
-      <c r="C425" s="30"/>
-      <c r="D425" s="124"/>
-      <c r="E425" s="30"/>
-      <c r="F425" s="30"/>
-      <c r="G425" s="95"/>
-      <c r="H425" s="95"/>
-      <c r="I425" s="30"/>
+      <c r="B425" s="225"/>
+      <c r="C425" s="27"/>
+      <c r="D425" s="88"/>
+      <c r="E425" s="88"/>
+      <c r="F425" s="92" t="s">
+        <v>396</v>
+      </c>
+      <c r="G425" s="87"/>
+      <c r="H425" s="93"/>
+      <c r="I425" s="92" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="171"/>
-      <c r="C426" s="30"/>
-      <c r="D426" s="124"/>
-      <c r="E426" s="30"/>
-      <c r="F426" s="30"/>
-      <c r="G426" s="95"/>
-      <c r="H426" s="95"/>
-      <c r="I426" s="30"/>
+      <c r="B426" s="225"/>
+      <c r="C426" s="27"/>
+      <c r="D426" s="88"/>
+      <c r="E426" s="88"/>
+      <c r="F426" s="233" t="s">
+        <v>208</v>
+      </c>
+      <c r="G426" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="H426" s="93"/>
+      <c r="I426" s="88"/>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="171"/>
-      <c r="C427" s="30"/>
-      <c r="D427" s="30"/>
-      <c r="E427" s="30"/>
-      <c r="F427" s="30"/>
-      <c r="G427" s="95"/>
-      <c r="H427" s="95"/>
-      <c r="I427" s="30"/>
+      <c r="B427" s="225"/>
+      <c r="C427" s="27"/>
+      <c r="D427" s="88"/>
+      <c r="E427" s="88"/>
+      <c r="F427" s="233" t="s">
+        <v>360</v>
+      </c>
+      <c r="G427" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="H427" s="93"/>
+      <c r="I427" s="92" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="171"/>
-      <c r="C428" s="30"/>
-      <c r="D428" s="30"/>
-      <c r="E428" s="30"/>
-      <c r="F428" s="30"/>
-      <c r="G428" s="95"/>
-      <c r="H428" s="95"/>
-      <c r="I428" s="30"/>
+      <c r="B428" s="225"/>
+      <c r="C428" s="27"/>
+      <c r="D428" s="88"/>
+      <c r="E428" s="184" t="s">
+        <v>402</v>
+      </c>
+      <c r="F428" s="240"/>
+      <c r="G428" s="87"/>
+      <c r="H428" s="87"/>
+      <c r="I428" s="27" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="171"/>
-      <c r="C429" s="30"/>
-      <c r="D429" s="124"/>
-      <c r="E429" s="30"/>
-      <c r="F429" s="30"/>
-      <c r="G429" s="95"/>
-      <c r="H429" s="95"/>
-      <c r="I429" s="30"/>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B429" s="225"/>
+      <c r="C429" s="27"/>
+      <c r="D429" s="88"/>
+      <c r="E429" s="184" t="s">
+        <v>226</v>
+      </c>
+      <c r="F429" s="233"/>
+      <c r="G429" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="H429" s="229" t="s">
+        <v>361</v>
+      </c>
+      <c r="I429" s="92"/>
+    </row>
+    <row r="430" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="171"/>
-      <c r="C430" s="30"/>
-      <c r="D430" s="124"/>
-      <c r="E430" s="30"/>
-      <c r="F430" s="30"/>
-      <c r="G430" s="95"/>
-      <c r="H430" s="95"/>
-      <c r="I430" s="30"/>
+      <c r="B430" s="225"/>
+      <c r="C430" s="27"/>
+      <c r="D430" s="88"/>
+      <c r="E430" s="88"/>
+      <c r="F430" s="233"/>
+      <c r="G430" s="238" t="s">
+        <v>405</v>
+      </c>
+      <c r="H430" s="231" t="s">
+        <v>406</v>
+      </c>
+      <c r="I430" s="92" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="171"/>
-      <c r="C431" s="30"/>
-      <c r="D431" s="124"/>
-      <c r="E431" s="30"/>
-      <c r="F431" s="30"/>
-      <c r="G431" s="95"/>
-      <c r="H431" s="95"/>
-      <c r="I431" s="30"/>
+      <c r="B431" s="225"/>
+      <c r="C431" s="27"/>
+      <c r="D431" s="88"/>
+      <c r="E431" s="88"/>
+      <c r="F431" s="233"/>
+      <c r="G431" s="87"/>
+      <c r="H431" s="93"/>
+      <c r="I431" s="92"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="171"/>
-      <c r="C432" s="30"/>
-      <c r="D432" s="124"/>
-      <c r="E432" s="30"/>
-      <c r="F432" s="30"/>
-      <c r="G432" s="95"/>
-      <c r="H432" s="95"/>
-      <c r="I432" s="30"/>
+      <c r="B432" s="225"/>
+      <c r="C432" s="27"/>
+      <c r="D432" s="88"/>
+      <c r="E432" s="88"/>
+      <c r="F432" s="233"/>
+      <c r="G432" s="87"/>
+      <c r="H432" s="93"/>
+      <c r="I432" s="92"/>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="171"/>
-      <c r="C433" s="30"/>
-      <c r="D433" s="124"/>
-      <c r="E433" s="30"/>
-      <c r="F433" s="30"/>
-      <c r="G433" s="95"/>
-      <c r="H433" s="95"/>
-      <c r="I433" s="30"/>
+      <c r="B433" s="225"/>
+      <c r="C433" s="27"/>
+      <c r="D433" s="88"/>
+      <c r="E433" s="88"/>
+      <c r="F433" s="233"/>
+      <c r="G433" s="87"/>
+      <c r="H433" s="93"/>
+      <c r="I433" s="92"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="171"/>
-      <c r="C434" s="30"/>
-      <c r="D434" s="124"/>
-      <c r="E434" s="30"/>
-      <c r="F434" s="30"/>
-      <c r="G434" s="95"/>
-      <c r="H434" s="95"/>
-      <c r="I434" s="30"/>
+      <c r="B434" s="225"/>
+      <c r="C434" s="27"/>
+      <c r="D434" s="88"/>
+      <c r="E434" s="88"/>
+      <c r="F434" s="233"/>
+      <c r="G434" s="87"/>
+      <c r="H434" s="93"/>
+      <c r="I434" s="92"/>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="171"/>
-      <c r="C435" s="30"/>
-      <c r="D435" s="124"/>
-      <c r="E435" s="30"/>
-      <c r="F435" s="30"/>
-      <c r="G435" s="95"/>
-      <c r="H435" s="95"/>
-      <c r="I435" s="30"/>
+      <c r="B435" s="225"/>
+      <c r="C435" s="27"/>
+      <c r="D435" s="88"/>
+      <c r="E435" s="88"/>
+      <c r="F435" s="233"/>
+      <c r="G435" s="87"/>
+      <c r="H435" s="93"/>
+      <c r="I435" s="92"/>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="171"/>
-      <c r="C436" s="30"/>
-      <c r="D436" s="30"/>
-      <c r="E436" s="30"/>
-      <c r="F436" s="30"/>
-      <c r="G436" s="95"/>
-      <c r="H436" s="95"/>
-      <c r="I436" s="30"/>
+      <c r="B436" s="225"/>
+      <c r="C436" s="27"/>
+      <c r="D436" s="88"/>
+      <c r="E436" s="88"/>
+      <c r="F436" s="233"/>
+      <c r="G436" s="87"/>
+      <c r="H436" s="93"/>
+      <c r="I436" s="92"/>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="171"/>
-      <c r="C437" s="30"/>
-      <c r="D437" s="30"/>
-      <c r="E437" s="30"/>
-      <c r="F437" s="30"/>
-      <c r="G437" s="95"/>
-      <c r="H437" s="95"/>
-      <c r="I437" s="30"/>
+      <c r="B437" s="225"/>
+      <c r="C437" s="27"/>
+      <c r="D437" s="88"/>
+      <c r="E437" s="88"/>
+      <c r="F437" s="233"/>
+      <c r="G437" s="87"/>
+      <c r="H437" s="93"/>
+      <c r="I437" s="92"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="171"/>
-      <c r="C438" s="30"/>
-      <c r="D438" s="30"/>
-      <c r="E438" s="30"/>
-      <c r="F438" s="30"/>
-      <c r="G438" s="95"/>
-      <c r="H438" s="95"/>
-      <c r="I438" s="30"/>
+      <c r="B438" s="225"/>
+      <c r="C438" s="27"/>
+      <c r="D438" s="88"/>
+      <c r="E438" s="88"/>
+      <c r="F438" s="233"/>
+      <c r="G438" s="87"/>
+      <c r="H438" s="93"/>
+      <c r="I438" s="92"/>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="171"/>
-      <c r="C439" s="30"/>
-      <c r="D439" s="153"/>
-      <c r="E439" s="30"/>
-      <c r="F439" s="30"/>
-      <c r="G439" s="95"/>
-      <c r="H439" s="95"/>
-      <c r="I439" s="30"/>
+      <c r="B439" s="225"/>
+      <c r="C439" s="27"/>
+      <c r="D439" s="88"/>
+      <c r="E439" s="88"/>
+      <c r="F439" s="92"/>
+      <c r="G439" s="93"/>
+      <c r="H439" s="93"/>
+      <c r="I439" s="88"/>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="171"/>
-      <c r="C440" s="30"/>
-      <c r="D440" s="30"/>
-      <c r="E440" s="30"/>
+      <c r="B440" s="290" t="s">
+        <v>445</v>
+      </c>
+      <c r="C440" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D440" s="124"/>
+      <c r="E440" s="124" t="s">
+        <v>463</v>
+      </c>
       <c r="F440" s="30"/>
-      <c r="G440" s="95"/>
-      <c r="H440" s="95"/>
+      <c r="G440" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="H440" s="95" t="s">
+        <v>81</v>
+      </c>
       <c r="I440" s="30"/>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="171"/>
+      <c r="B441" s="290"/>
       <c r="C441" s="30"/>
-      <c r="D441" s="30"/>
+      <c r="D441" s="124"/>
       <c r="E441" s="30"/>
       <c r="F441" s="30"/>
-      <c r="G441" s="95"/>
-      <c r="H441" s="95"/>
+      <c r="G441" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="H441" s="95" t="s">
+        <v>423</v>
+      </c>
       <c r="I441" s="30"/>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="171"/>
+      <c r="B442" s="290"/>
       <c r="C442" s="30"/>
-      <c r="D442" s="30"/>
+      <c r="D442" s="124"/>
       <c r="E442" s="30"/>
       <c r="F442" s="30"/>
-      <c r="G442" s="95"/>
-      <c r="H442" s="95"/>
+      <c r="G442" s="95" t="s">
+        <v>447</v>
+      </c>
+      <c r="H442" s="95" t="s">
+        <v>423</v>
+      </c>
       <c r="I442" s="30"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="171"/>
+      <c r="B443" s="290"/>
       <c r="C443" s="30"/>
       <c r="D443" s="30"/>
       <c r="E443" s="30"/>
       <c r="F443" s="30"/>
-      <c r="G443" s="95"/>
-      <c r="H443" s="95"/>
-      <c r="I443" s="30"/>
+      <c r="G443" s="292" t="s">
+        <v>153</v>
+      </c>
+      <c r="H443" s="291" t="s">
+        <v>449</v>
+      </c>
+      <c r="I443" s="294" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="171"/>
+      <c r="B444" s="290"/>
       <c r="C444" s="30"/>
       <c r="D444" s="30"/>
       <c r="E444" s="30"/>
-      <c r="F444" s="30"/>
+      <c r="F444" s="184" t="s">
+        <v>448</v>
+      </c>
       <c r="G444" s="95"/>
       <c r="H444" s="95"/>
-      <c r="I444" s="30"/>
+      <c r="I444" s="293" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="171"/>
+      <c r="B445" s="30"/>
       <c r="C445" s="30"/>
-      <c r="D445" s="30"/>
+      <c r="D445" s="124"/>
       <c r="E445" s="30"/>
-      <c r="F445" s="30"/>
+      <c r="F445" s="295" t="s">
+        <v>311</v>
+      </c>
       <c r="G445" s="95"/>
       <c r="H445" s="95"/>
-      <c r="I445" s="30"/>
+      <c r="I445" s="30" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="171"/>
+      <c r="B446" s="30"/>
       <c r="C446" s="30"/>
-      <c r="D446" s="30"/>
+      <c r="D446" s="124"/>
       <c r="E446" s="30"/>
-      <c r="F446" s="30"/>
+      <c r="F446" s="295" t="s">
+        <v>209</v>
+      </c>
       <c r="G446" s="95"/>
       <c r="H446" s="95"/>
-      <c r="I446" s="30"/>
+      <c r="I446" s="30" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="171"/>
+      <c r="B447" s="30"/>
       <c r="C447" s="30"/>
-      <c r="D447" s="30"/>
+      <c r="D447" s="124"/>
       <c r="E447" s="30"/>
       <c r="F447" s="30"/>
       <c r="G447" s="95"/>
       <c r="H447" s="95"/>
-      <c r="I447" s="30"/>
+      <c r="I447" s="293" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="171"/>
+      <c r="B448" s="30"/>
       <c r="C448" s="30"/>
-      <c r="D448" s="30"/>
+      <c r="D448" s="124"/>
       <c r="E448" s="30"/>
       <c r="F448" s="30"/>
       <c r="G448" s="95"/>
       <c r="H448" s="95"/>
-      <c r="I448" s="30"/>
+      <c r="I448" s="293"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="171"/>
+      <c r="B449" s="30"/>
       <c r="C449" s="30"/>
-      <c r="D449" s="30"/>
+      <c r="D449" s="124"/>
       <c r="E449" s="30"/>
       <c r="F449" s="30"/>
       <c r="G449" s="95"/>
       <c r="H449" s="95"/>
-      <c r="I449" s="30"/>
+      <c r="I449" s="293"/>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="171"/>
+      <c r="B450" s="30"/>
       <c r="C450" s="30"/>
-      <c r="D450" s="30"/>
+      <c r="D450" s="124"/>
       <c r="E450" s="30"/>
       <c r="F450" s="30"/>
       <c r="G450" s="95"/>
       <c r="H450" s="95"/>
-      <c r="I450" s="30"/>
+      <c r="I450" s="293"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="171"/>
+      <c r="B451" s="30"/>
       <c r="C451" s="30"/>
-      <c r="D451" s="30"/>
+      <c r="D451" s="124"/>
       <c r="E451" s="30"/>
       <c r="F451" s="30"/>
       <c r="G451" s="95"/>
       <c r="H451" s="95"/>
-      <c r="I451" s="30"/>
+      <c r="I451" s="293"/>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="171"/>
+      <c r="B452" s="30"/>
       <c r="C452" s="30"/>
-      <c r="D452" s="30"/>
+      <c r="D452" s="124"/>
       <c r="E452" s="30"/>
       <c r="F452" s="30"/>
       <c r="G452" s="95"/>
       <c r="H452" s="95"/>
-      <c r="I452" s="30"/>
+      <c r="I452" s="293"/>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A453" s="171"/>
+      <c r="B453" s="30"/>
+      <c r="C453" s="30"/>
+      <c r="D453" s="124"/>
+      <c r="E453" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="F453" s="30"/>
+      <c r="G453" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="H453" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I453" s="30"/>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A454" s="171"/>
+      <c r="B454" s="30"/>
+      <c r="C454" s="30"/>
+      <c r="D454" s="124"/>
+      <c r="E454" s="30"/>
+      <c r="F454" s="30"/>
+      <c r="G454" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="H454" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="I454" s="30"/>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A455" s="171"/>
+      <c r="B455" s="30"/>
+      <c r="C455" s="30"/>
+      <c r="D455" s="124"/>
+      <c r="E455" s="30"/>
+      <c r="F455" s="30"/>
+      <c r="G455" s="95" t="s">
+        <v>447</v>
+      </c>
+      <c r="H455" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="I455" s="30"/>
+    </row>
+    <row r="456" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A456" s="171"/>
+      <c r="B456" s="30"/>
+      <c r="C456" s="30"/>
+      <c r="D456" s="124"/>
+      <c r="E456" s="30"/>
+      <c r="F456" s="30"/>
+      <c r="G456" s="292" t="s">
+        <v>153</v>
+      </c>
+      <c r="H456" s="291" t="s">
+        <v>449</v>
+      </c>
+      <c r="I456" s="294" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A457" s="171"/>
+      <c r="B457" s="30"/>
+      <c r="C457" s="30"/>
+      <c r="D457" s="30"/>
+      <c r="E457" s="30"/>
+      <c r="F457" s="184" t="s">
+        <v>448</v>
+      </c>
+      <c r="G457" s="95"/>
+      <c r="H457" s="95"/>
+      <c r="I457" s="293" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A458" s="171"/>
+      <c r="B458" s="30"/>
+      <c r="C458" s="30"/>
+      <c r="D458" s="30"/>
+      <c r="E458" s="30"/>
+      <c r="F458" s="30"/>
+      <c r="G458" s="95"/>
+      <c r="H458" s="95"/>
+      <c r="I458" s="30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A459" s="171"/>
+      <c r="B459" s="30"/>
+      <c r="C459" s="30"/>
+      <c r="D459" s="30"/>
+      <c r="E459" s="30"/>
+      <c r="F459" s="30"/>
+      <c r="G459" s="95"/>
+      <c r="H459" s="95"/>
+      <c r="I459" s="30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A460" s="171"/>
+      <c r="B460" s="30"/>
+      <c r="C460" s="30"/>
+      <c r="D460" s="153"/>
+      <c r="E460" s="30"/>
+      <c r="F460" s="30"/>
+      <c r="G460" s="95"/>
+      <c r="H460" s="95"/>
+      <c r="I460" s="293" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A461" s="171"/>
+      <c r="B461" s="30"/>
+      <c r="C461" s="30"/>
+      <c r="D461" s="30"/>
+      <c r="E461" s="30"/>
+      <c r="F461" s="184" t="s">
+        <v>465</v>
+      </c>
+      <c r="G461" s="95"/>
+      <c r="H461" s="95"/>
+      <c r="I461" s="30"/>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A462" s="171"/>
+      <c r="B462" s="30"/>
+      <c r="C462" s="30"/>
+      <c r="D462" s="30"/>
+      <c r="E462" s="30"/>
+      <c r="F462" s="184" t="s">
+        <v>466</v>
+      </c>
+      <c r="G462" s="95"/>
+      <c r="H462" s="95"/>
+      <c r="I462" s="30"/>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A463" s="171"/>
+      <c r="B463" s="30"/>
+      <c r="C463" s="30"/>
+      <c r="D463" s="30"/>
+      <c r="E463" s="30"/>
+      <c r="F463" s="184" t="s">
+        <v>402</v>
+      </c>
+      <c r="G463" s="95"/>
+      <c r="H463" s="95"/>
+      <c r="I463" s="30"/>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A464" s="171"/>
+      <c r="B464" s="30"/>
+      <c r="C464" s="30"/>
+      <c r="D464" s="30"/>
+      <c r="E464" s="30"/>
+      <c r="F464" s="184" t="s">
+        <v>467</v>
+      </c>
+      <c r="G464" s="95"/>
+      <c r="H464" s="95"/>
+      <c r="I464" s="30"/>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A465" s="171"/>
+      <c r="B465" s="30"/>
+      <c r="C465" s="30"/>
+      <c r="D465" s="30"/>
+      <c r="E465" s="30"/>
+      <c r="F465" s="184" t="s">
+        <v>468</v>
+      </c>
+      <c r="G465" s="95"/>
+      <c r="H465" s="95"/>
+      <c r="I465" s="30"/>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A466" s="171"/>
+      <c r="B466" s="30"/>
+      <c r="C466" s="30"/>
+      <c r="D466" s="30"/>
+      <c r="E466" s="30"/>
+      <c r="F466" s="184" t="s">
+        <v>469</v>
+      </c>
+      <c r="G466" s="95"/>
+      <c r="H466" s="95"/>
+      <c r="I466" s="30"/>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A467" s="171"/>
+      <c r="B467" s="30"/>
+      <c r="C467" s="30"/>
+      <c r="D467" s="30"/>
+      <c r="E467" s="30"/>
+      <c r="F467" s="184" t="s">
+        <v>470</v>
+      </c>
+      <c r="G467" s="95"/>
+      <c r="H467" s="95"/>
+      <c r="I467" s="30"/>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A468" s="171"/>
+      <c r="B468" s="30"/>
+      <c r="C468" s="30"/>
+      <c r="D468" s="30"/>
+      <c r="E468" s="30"/>
+      <c r="F468" s="30"/>
+      <c r="G468" s="95"/>
+      <c r="H468" s="95"/>
+      <c r="I468" s="30"/>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A469" s="171"/>
+      <c r="B469" s="30"/>
+      <c r="C469" s="30"/>
+      <c r="D469" s="30"/>
+      <c r="E469" s="30"/>
+      <c r="F469" s="30"/>
+      <c r="G469" s="95"/>
+      <c r="H469" s="95"/>
+      <c r="I469" s="30"/>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A470" s="171"/>
+      <c r="B470" s="30"/>
+      <c r="C470" s="30"/>
+      <c r="D470" s="30"/>
+      <c r="E470" s="30"/>
+      <c r="F470" s="30"/>
+      <c r="G470" s="95"/>
+      <c r="H470" s="95"/>
+      <c r="I470" s="30"/>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A471" s="171"/>
+      <c r="B471" s="30"/>
+      <c r="C471" s="30"/>
+      <c r="D471" s="30"/>
+      <c r="E471" s="30"/>
+      <c r="F471" s="30"/>
+      <c r="G471" s="95"/>
+      <c r="H471" s="95"/>
+      <c r="I471" s="30"/>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A472" s="171"/>
+      <c r="B472" s="30"/>
+      <c r="C472" s="30"/>
+      <c r="D472" s="30"/>
+      <c r="E472" s="30"/>
+      <c r="F472" s="30"/>
+      <c r="G472" s="95"/>
+      <c r="H472" s="95"/>
+      <c r="I472" s="30"/>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A473" s="171"/>
+      <c r="B473" s="30"/>
+      <c r="C473" s="30"/>
+      <c r="D473" s="30"/>
+      <c r="E473" s="30"/>
+      <c r="F473" s="30"/>
+      <c r="G473" s="95"/>
+      <c r="H473" s="95"/>
+      <c r="I473" s="30"/>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B474" s="264" t="s">
+        <v>409</v>
+      </c>
+      <c r="C474" s="243" t="s">
+        <v>411</v>
+      </c>
+      <c r="D474" s="243"/>
+      <c r="E474" s="255" t="s">
+        <v>410</v>
+      </c>
+      <c r="F474" s="244" t="s">
+        <v>280</v>
+      </c>
+      <c r="G474" s="248" t="s">
+        <v>422</v>
+      </c>
+      <c r="H474" s="248"/>
+      <c r="I474" s="243"/>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B475" s="265"/>
+      <c r="C475" s="245"/>
+      <c r="D475" s="245"/>
+      <c r="E475" s="245"/>
+      <c r="F475" s="246" t="s">
+        <v>70</v>
+      </c>
+      <c r="G475" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H475" s="251"/>
+      <c r="I475" s="245"/>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B476" s="265"/>
+      <c r="C476" s="245"/>
+      <c r="D476" s="245"/>
+      <c r="E476" s="245"/>
+      <c r="F476" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="G476" s="246" t="s">
+        <v>415</v>
+      </c>
+      <c r="H476" s="246"/>
+      <c r="I476" s="245"/>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B477" s="247"/>
+      <c r="C477" s="245"/>
+      <c r="D477" s="245"/>
+      <c r="E477" s="245"/>
+      <c r="F477" s="246" t="s">
+        <v>412</v>
+      </c>
+      <c r="G477" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H477" s="251"/>
+      <c r="I477" s="245"/>
+    </row>
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B478" s="247"/>
+      <c r="C478" s="245"/>
+      <c r="D478" s="245"/>
+      <c r="E478" s="245"/>
+      <c r="F478" s="250" t="s">
+        <v>413</v>
+      </c>
+      <c r="G478" s="249" t="s">
+        <v>416</v>
+      </c>
+      <c r="H478" s="249"/>
+      <c r="I478" s="245"/>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B479" s="247"/>
+      <c r="C479" s="245"/>
+      <c r="D479" s="245"/>
+      <c r="E479" s="245"/>
+      <c r="F479" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="G479" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H479" s="251"/>
+      <c r="I479" s="245"/>
+    </row>
+    <row r="480" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B480" s="247"/>
+      <c r="C480" s="245"/>
+      <c r="D480" s="245"/>
+      <c r="E480" s="245"/>
+      <c r="F480" s="250" t="s">
+        <v>305</v>
+      </c>
+      <c r="G480" s="249" t="s">
+        <v>89</v>
+      </c>
+      <c r="H480" s="249"/>
+      <c r="I480" s="245"/>
+    </row>
+    <row r="481" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B481" s="247"/>
+      <c r="C481" s="245"/>
+      <c r="D481" s="245"/>
+      <c r="E481" s="245"/>
+      <c r="F481" s="246" t="s">
+        <v>281</v>
+      </c>
+      <c r="G481" s="246" t="s">
+        <v>417</v>
+      </c>
+      <c r="H481" s="246"/>
+      <c r="I481" s="245"/>
+    </row>
+    <row r="482" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B482" s="247"/>
+      <c r="C482" s="245"/>
+      <c r="D482" s="245"/>
+      <c r="E482" s="245"/>
+      <c r="F482" s="246" t="s">
+        <v>414</v>
+      </c>
+      <c r="G482" s="246" t="s">
+        <v>418</v>
+      </c>
+      <c r="H482" s="246"/>
+      <c r="I482" s="245" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="483" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B483" s="247"/>
+      <c r="C483" s="245"/>
+      <c r="D483" s="245"/>
+      <c r="E483" s="245"/>
+      <c r="F483" s="246"/>
+      <c r="G483" s="246"/>
+      <c r="H483" s="246"/>
+      <c r="I483" s="245" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="484" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B484" s="247"/>
+      <c r="C484" s="245"/>
+      <c r="D484" s="245"/>
+      <c r="E484" s="257" t="s">
+        <v>420</v>
+      </c>
+      <c r="F484" s="253" t="s">
+        <v>280</v>
+      </c>
+      <c r="G484" s="252" t="s">
+        <v>426</v>
+      </c>
+      <c r="H484" s="252"/>
+      <c r="I484" s="254" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="485" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B485" s="247"/>
+      <c r="C485" s="245"/>
+      <c r="D485" s="245"/>
+      <c r="E485" s="245"/>
+      <c r="F485" s="246" t="s">
+        <v>70</v>
+      </c>
+      <c r="G485" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H485" s="251"/>
+      <c r="I485" s="245"/>
+    </row>
+    <row r="486" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B486" s="247"/>
+      <c r="C486" s="245"/>
+      <c r="D486" s="245"/>
+      <c r="E486" s="245"/>
+      <c r="F486" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="G486" s="246" t="s">
+        <v>415</v>
+      </c>
+      <c r="H486" s="246"/>
+      <c r="I486" s="245"/>
+    </row>
+    <row r="487" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B487" s="247"/>
+      <c r="C487" s="245"/>
+      <c r="D487" s="245"/>
+      <c r="E487" s="245"/>
+      <c r="F487" s="246" t="s">
+        <v>421</v>
+      </c>
+      <c r="G487" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H487" s="251"/>
+      <c r="I487" s="245"/>
+    </row>
+    <row r="488" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B488" s="247"/>
+      <c r="C488" s="245"/>
+      <c r="D488" s="245"/>
+      <c r="E488" s="245"/>
+      <c r="F488" s="246" t="s">
+        <v>412</v>
+      </c>
+      <c r="G488" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H488" s="251"/>
+      <c r="I488" s="245"/>
+    </row>
+    <row r="489" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B489" s="247"/>
+      <c r="C489" s="245"/>
+      <c r="D489" s="245"/>
+      <c r="E489" s="245"/>
+      <c r="F489" s="250" t="s">
+        <v>413</v>
+      </c>
+      <c r="G489" s="249" t="s">
+        <v>416</v>
+      </c>
+      <c r="H489" s="249"/>
+      <c r="I489" s="245"/>
+    </row>
+    <row r="490" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B490" s="247"/>
+      <c r="C490" s="245"/>
+      <c r="D490" s="245"/>
+      <c r="E490" s="245"/>
+      <c r="F490" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="G490" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="H490" s="251"/>
+      <c r="I490" s="245"/>
+    </row>
+    <row r="491" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B491" s="247"/>
+      <c r="C491" s="245"/>
+      <c r="D491" s="245"/>
+      <c r="E491" s="245"/>
+      <c r="F491" s="246" t="s">
+        <v>298</v>
+      </c>
+      <c r="G491" s="246" t="s">
+        <v>423</v>
+      </c>
+      <c r="H491" s="246"/>
+      <c r="I491" s="245"/>
+    </row>
+    <row r="492" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B492" s="247"/>
+      <c r="C492" s="245"/>
+      <c r="D492" s="245"/>
+      <c r="E492" s="245"/>
+      <c r="F492" s="250" t="s">
+        <v>305</v>
+      </c>
+      <c r="G492" s="249" t="s">
+        <v>89</v>
+      </c>
+      <c r="H492" s="249"/>
+      <c r="I492" s="245"/>
+    </row>
+    <row r="493" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B493" s="247"/>
+      <c r="C493" s="245"/>
+      <c r="D493" s="245"/>
+      <c r="E493" s="245"/>
+      <c r="F493" s="246" t="s">
+        <v>281</v>
+      </c>
+      <c r="G493" s="246" t="s">
+        <v>417</v>
+      </c>
+      <c r="H493" s="246"/>
+      <c r="I493" s="245"/>
+    </row>
+    <row r="494" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B494" s="247"/>
+      <c r="C494" s="245"/>
+      <c r="D494" s="245"/>
+      <c r="E494" s="245"/>
+      <c r="F494" s="250" t="s">
+        <v>431</v>
+      </c>
+      <c r="G494" s="249" t="s">
+        <v>432</v>
+      </c>
+      <c r="H494" s="249"/>
+      <c r="I494" s="245" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="495" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B495" s="247"/>
+      <c r="C495" s="245"/>
+      <c r="D495" s="245"/>
+      <c r="E495" s="245"/>
+      <c r="F495" s="246" t="s">
+        <v>424</v>
+      </c>
+      <c r="G495" s="246" t="s">
+        <v>425</v>
+      </c>
+      <c r="H495" s="246"/>
+      <c r="I495" s="245" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="496" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B496" s="247"/>
+      <c r="C496" s="245"/>
+      <c r="D496" s="245"/>
+      <c r="E496" s="245"/>
+      <c r="F496" s="246"/>
+      <c r="G496" s="246"/>
+      <c r="H496" s="246"/>
+      <c r="I496" s="245"/>
+    </row>
+    <row r="497" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B497" s="247"/>
+      <c r="C497" s="245"/>
+      <c r="D497" s="245"/>
+      <c r="E497" s="256" t="s">
+        <v>430</v>
+      </c>
+      <c r="F497" s="246" t="s">
+        <v>154</v>
+      </c>
+      <c r="G497" s="246" t="s">
+        <v>436</v>
+      </c>
+      <c r="H497" s="246"/>
+      <c r="I497" s="245" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="498" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B498" s="247"/>
+      <c r="C498" s="245"/>
+      <c r="D498" s="245"/>
+      <c r="E498" s="245"/>
+      <c r="F498" s="246" t="s">
+        <v>434</v>
+      </c>
+      <c r="G498" s="246" t="s">
+        <v>435</v>
+      </c>
+      <c r="H498" s="246"/>
+      <c r="I498" s="245" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="499" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B499" s="247"/>
+      <c r="C499" s="245"/>
+      <c r="D499" s="245"/>
+      <c r="E499" s="245"/>
+      <c r="F499" s="245"/>
+      <c r="G499" s="246"/>
+      <c r="H499" s="246"/>
+      <c r="I499" s="245"/>
+    </row>
+    <row r="500" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B500" s="247"/>
+      <c r="C500" s="245"/>
+      <c r="D500" s="245"/>
+      <c r="E500" s="245"/>
+      <c r="F500" s="245"/>
+      <c r="G500" s="246"/>
+      <c r="H500" s="246"/>
+      <c r="I500" s="245"/>
+    </row>
+    <row r="501" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B501" s="247"/>
+      <c r="C501" s="245"/>
+      <c r="D501" s="245"/>
+      <c r="E501" s="245"/>
+      <c r="F501" s="245"/>
+      <c r="G501" s="246"/>
+      <c r="H501" s="246"/>
+      <c r="I501" s="245"/>
+    </row>
+    <row r="502" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B502" s="247"/>
+      <c r="C502" s="245"/>
+      <c r="D502" s="245"/>
+      <c r="E502" s="245"/>
+      <c r="F502" s="245"/>
+      <c r="G502" s="246"/>
+      <c r="H502" s="246"/>
+      <c r="I502" s="245"/>
+    </row>
+    <row r="503" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B503" s="247"/>
+      <c r="C503" s="245"/>
+      <c r="D503" s="245"/>
+      <c r="E503" s="245"/>
+      <c r="F503" s="245"/>
+      <c r="G503" s="246"/>
+      <c r="H503" s="246"/>
+      <c r="I503" s="245"/>
+    </row>
+    <row r="504" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B504" s="247"/>
+      <c r="C504" s="245"/>
+      <c r="D504" s="245"/>
+      <c r="E504" s="245"/>
+      <c r="F504" s="245"/>
+      <c r="G504" s="246"/>
+      <c r="H504" s="246"/>
+      <c r="I504" s="245"/>
+    </row>
+    <row r="505" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B505" s="247"/>
+      <c r="C505" s="245"/>
+      <c r="D505" s="245"/>
+      <c r="E505" s="245"/>
+      <c r="F505" s="245"/>
+      <c r="G505" s="246"/>
+      <c r="H505" s="246"/>
+      <c r="I505" s="245"/>
+    </row>
+    <row r="506" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B506" s="247"/>
+      <c r="C506" s="245"/>
+      <c r="D506" s="245"/>
+      <c r="E506" s="245"/>
+      <c r="F506" s="245"/>
+      <c r="G506" s="246"/>
+      <c r="H506" s="246"/>
+      <c r="I506" s="245"/>
+    </row>
+    <row r="507" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B507" s="247"/>
+      <c r="C507" s="245"/>
+      <c r="D507" s="245"/>
+      <c r="E507" s="245"/>
+      <c r="F507" s="245"/>
+      <c r="G507" s="246"/>
+      <c r="H507" s="246"/>
+      <c r="I507" s="245"/>
+    </row>
+    <row r="508" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B508" s="247"/>
+      <c r="C508" s="245"/>
+      <c r="D508" s="245"/>
+      <c r="E508" s="245"/>
+      <c r="F508" s="245"/>
+      <c r="G508" s="246"/>
+      <c r="H508" s="246"/>
+      <c r="I508" s="245"/>
+    </row>
+    <row r="509" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B509" s="247"/>
+      <c r="C509" s="245"/>
+      <c r="D509" s="245"/>
+      <c r="E509" s="245"/>
+      <c r="F509" s="245"/>
+      <c r="G509" s="246"/>
+      <c r="H509" s="246"/>
+      <c r="I509" s="245"/>
+    </row>
+    <row r="510" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B510" s="247"/>
+      <c r="C510" s="245"/>
+      <c r="D510" s="245"/>
+      <c r="E510" s="245"/>
+      <c r="F510" s="245"/>
+      <c r="G510" s="246"/>
+      <c r="H510" s="246"/>
+      <c r="I510" s="245"/>
+    </row>
+    <row r="511" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B511" s="247"/>
+      <c r="C511" s="245"/>
+      <c r="D511" s="245"/>
+      <c r="E511" s="245"/>
+      <c r="F511" s="245"/>
+      <c r="G511" s="246"/>
+      <c r="H511" s="246"/>
+      <c r="I511" s="245"/>
+    </row>
+    <row r="512" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B512" s="247"/>
+      <c r="C512" s="245"/>
+      <c r="D512" s="245"/>
+      <c r="E512" s="245"/>
+      <c r="F512" s="245"/>
+      <c r="G512" s="246"/>
+      <c r="H512" s="246"/>
+      <c r="I512" s="245"/>
+    </row>
+    <row r="513" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B513" s="247"/>
+      <c r="C513" s="245"/>
+      <c r="D513" s="245"/>
+      <c r="E513" s="245"/>
+      <c r="F513" s="245"/>
+      <c r="G513" s="246"/>
+      <c r="H513" s="246"/>
+      <c r="I513" s="245"/>
+    </row>
+    <row r="514" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B514" s="247"/>
+      <c r="C514" s="245"/>
+      <c r="D514" s="245"/>
+      <c r="E514" s="245"/>
+      <c r="F514" s="245"/>
+      <c r="G514" s="246"/>
+      <c r="H514" s="246"/>
+      <c r="I514" s="245"/>
+    </row>
+    <row r="515" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B515" s="247"/>
+      <c r="C515" s="245"/>
+      <c r="D515" s="245"/>
+      <c r="E515" s="245"/>
+      <c r="F515" s="245"/>
+      <c r="G515" s="246"/>
+      <c r="H515" s="246"/>
+      <c r="I515" s="245"/>
+    </row>
+    <row r="516" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B516" s="266" t="s">
+        <v>438</v>
+      </c>
+      <c r="C516" s="261" t="s">
+        <v>439</v>
+      </c>
+      <c r="D516" s="261"/>
+      <c r="E516" s="263"/>
+      <c r="F516" s="261"/>
+      <c r="G516" s="262"/>
+      <c r="H516" s="262"/>
+      <c r="I516" s="261"/>
+    </row>
+    <row r="517" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B517" s="267"/>
+      <c r="C517" s="287"/>
+      <c r="D517" s="287"/>
+      <c r="E517" s="288"/>
+      <c r="F517" s="287"/>
+      <c r="G517" s="289"/>
+      <c r="H517" s="289"/>
+      <c r="I517" s="287"/>
+    </row>
+    <row r="518" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B518" s="267"/>
+      <c r="C518" s="258"/>
+      <c r="D518" s="258"/>
+      <c r="E518" s="288" t="s">
+        <v>440</v>
+      </c>
+      <c r="F518" s="287"/>
+      <c r="G518" s="287" t="s">
+        <v>441</v>
+      </c>
+      <c r="H518" s="289" t="s">
+        <v>442</v>
+      </c>
+      <c r="I518" s="287" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="519" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B519" s="260"/>
+      <c r="C519" s="258"/>
+      <c r="D519" s="258"/>
+      <c r="E519" s="258"/>
+      <c r="F519" s="184" t="s">
+        <v>451</v>
+      </c>
+      <c r="G519" s="259" t="s">
+        <v>452</v>
+      </c>
+      <c r="H519" s="259" t="s">
+        <v>454</v>
+      </c>
+      <c r="I519" s="258"/>
+    </row>
+    <row r="520" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B520" s="260"/>
+      <c r="C520" s="258"/>
+      <c r="D520" s="258"/>
+      <c r="E520" s="258"/>
+      <c r="F520" s="259"/>
+      <c r="G520" s="259" t="s">
+        <v>441</v>
+      </c>
+      <c r="H520" s="259" t="s">
+        <v>456</v>
+      </c>
+      <c r="I520" s="258"/>
+    </row>
+    <row r="521" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B521" s="260"/>
+      <c r="C521" s="258"/>
+      <c r="D521" s="258"/>
+      <c r="E521" s="258"/>
+      <c r="F521" s="259"/>
+      <c r="G521" s="259" t="s">
+        <v>453</v>
+      </c>
+      <c r="H521" s="259" t="s">
+        <v>455</v>
+      </c>
+      <c r="I521" s="258"/>
+    </row>
+    <row r="522" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B522" s="260"/>
+      <c r="C522" s="258"/>
+      <c r="D522" s="258"/>
+      <c r="E522" s="258"/>
+      <c r="F522" s="184" t="s">
+        <v>450</v>
+      </c>
+      <c r="G522" s="259"/>
+      <c r="H522" s="259"/>
+      <c r="I522" s="258" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="523" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B523" s="260"/>
+      <c r="C523" s="258"/>
+      <c r="D523" s="258"/>
+      <c r="E523" s="258"/>
+      <c r="F523" s="258"/>
+      <c r="G523" s="259"/>
+      <c r="H523" s="259"/>
+      <c r="I523" s="258"/>
+    </row>
+    <row r="524" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B524" s="260"/>
+      <c r="C524" s="258"/>
+      <c r="D524" s="258"/>
+      <c r="E524" s="258"/>
+      <c r="F524" s="258"/>
+      <c r="G524" s="259"/>
+      <c r="H524" s="259"/>
+      <c r="I524" s="258"/>
+    </row>
+    <row r="525" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B525" s="260"/>
+      <c r="C525" s="258"/>
+      <c r="D525" s="258"/>
+      <c r="E525" s="258"/>
+      <c r="F525" s="258"/>
+      <c r="G525" s="259"/>
+      <c r="H525" s="259"/>
+      <c r="I525" s="258"/>
+    </row>
+    <row r="526" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B526" s="260"/>
+      <c r="C526" s="258"/>
+      <c r="D526" s="258"/>
+      <c r="E526" s="258"/>
+      <c r="F526" s="258"/>
+      <c r="G526" s="259"/>
+      <c r="H526" s="259"/>
+      <c r="I526" s="258"/>
+    </row>
+    <row r="527" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B527" s="260"/>
+      <c r="C527" s="258"/>
+      <c r="D527" s="258"/>
+      <c r="E527" s="258"/>
+      <c r="F527" s="258"/>
+      <c r="G527" s="259"/>
+      <c r="H527" s="259"/>
+      <c r="I527" s="258"/>
+    </row>
+    <row r="528" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B528" s="260"/>
+      <c r="C528" s="258"/>
+      <c r="D528" s="258"/>
+      <c r="E528" s="258"/>
+      <c r="F528" s="258"/>
+      <c r="G528" s="259"/>
+      <c r="H528" s="259"/>
+      <c r="I528" s="258"/>
+    </row>
+    <row r="529" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B529" s="260"/>
+      <c r="C529" s="258"/>
+      <c r="D529" s="258"/>
+      <c r="E529" s="258"/>
+      <c r="F529" s="258"/>
+      <c r="G529" s="259"/>
+      <c r="H529" s="259"/>
+      <c r="I529" s="258"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B474:B476"/>
+    <mergeCell ref="B516:B518"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="B203:B206"/>
     <mergeCell ref="B273:B276"/>
@@ -9782,6 +11295,7 @@
     <mergeCell ref="B293:B295"/>
     <mergeCell ref="C197:C201"/>
     <mergeCell ref="C162:C175"/>
+    <mergeCell ref="B440:B444"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9818,146 +11332,146 @@
   <sheetData>
     <row r="1" spans="1:32" s="57" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="58"/>
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="273" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235" t="s">
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235" t="s">
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="243" t="s">
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="244"/>
+      <c r="Z1" s="282"/>
+      <c r="AA1" s="282"/>
+      <c r="AB1" s="282"/>
+      <c r="AC1" s="282"/>
+      <c r="AD1" s="283"/>
     </row>
     <row r="2" spans="1:32" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="58"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="246"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="284"/>
+      <c r="Z2" s="284"/>
+      <c r="AA2" s="284"/>
+      <c r="AB2" s="284"/>
+      <c r="AC2" s="284"/>
+      <c r="AD2" s="285"/>
     </row>
     <row r="3" spans="1:32" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="58"/>
-      <c r="C3" s="247" t="s">
+      <c r="C3" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239" t="s">
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239" t="s">
+      <c r="G3" s="278"/>
+      <c r="H3" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239" t="s">
+      <c r="I3" s="278"/>
+      <c r="J3" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239" t="s">
+      <c r="K3" s="278"/>
+      <c r="L3" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="239" t="s">
+      <c r="M3" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="238" t="s">
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="239" t="s">
+      <c r="R3" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="239"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
       <c r="Y3" s="59" t="s">
         <v>13</v>
       </c>
       <c r="Z3" s="59"/>
       <c r="AA3" s="59"/>
-      <c r="AB3" s="239" t="s">
+      <c r="AB3" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="239"/>
-      <c r="AD3" s="240"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="279"/>
     </row>
     <row r="4" spans="1:32" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="58"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="238"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="278"/>
+      <c r="O4" s="278"/>
+      <c r="P4" s="278"/>
+      <c r="Q4" s="277"/>
       <c r="R4" s="60"/>
       <c r="S4" s="61"/>
-      <c r="T4" s="241"/>
-      <c r="U4" s="241"/>
+      <c r="T4" s="280"/>
+      <c r="U4" s="280"/>
       <c r="V4" s="62" t="s">
         <v>17</v>
       </c>
@@ -9970,13 +11484,13 @@
       <c r="Y4" s="59"/>
       <c r="Z4" s="59"/>
       <c r="AA4" s="59"/>
-      <c r="AB4" s="239" t="s">
+      <c r="AB4" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="242" t="s">
+      <c r="AC4" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="240"/>
+      <c r="AD4" s="279"/>
     </row>
     <row r="5" spans="1:32" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="58"/>
@@ -10007,7 +11521,7 @@
       <c r="K5" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="239"/>
+      <c r="L5" s="278"/>
       <c r="M5" s="63" t="s">
         <v>14</v>
       </c>
@@ -10020,7 +11534,7 @@
       <c r="P5" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="238"/>
+      <c r="Q5" s="277"/>
       <c r="R5" s="63" t="s">
         <v>21</v>
       </c>
@@ -10043,7 +11557,7 @@
       <c r="AA5" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="239"/>
+      <c r="AB5" s="278"/>
       <c r="AC5" s="59" t="s">
         <v>26</v>
       </c>
